--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -74,11 +74,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009933"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00E9501A"/>
       </patternFill>
     </fill>
@@ -95,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -133,15 +128,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -550,10 +544,10 @@
         <v>2260.14</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3259.35</v>
+        <v>3286.92</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>212.41</v>
+        <v>239.98</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.4421</v>
@@ -619,10 +613,10 @@
         <v>2001.67</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3234.7</v>
+        <v>3274.73</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-80.09999999999999</v>
+        <v>-40.07</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.616</v>
@@ -688,10 +682,10 @@
         <v>2224.19</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3193.94</v>
+        <v>3249.54</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30.45</v>
+        <v>86.05</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.436</v>
@@ -757,10 +751,10 @@
         <v>2919.29</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2684</v>
+        <v>2705.01</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-47.69</v>
+        <v>-26.68</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9194</v>
@@ -826,10 +820,10 @@
         <v>1126.01</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2061.84</v>
+        <v>2111.94</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52.44</v>
+        <v>102.54</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8311</v>
@@ -895,10 +889,10 @@
         <v>803.1</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1712.69</v>
+        <v>1760.15</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18.06</v>
+        <v>65.52</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1326</v>
@@ -964,10 +958,10 @@
         <v>550.4</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>511.43</v>
+        <v>515.12</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-29.46</v>
+        <v>-25.77</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9292</v>
@@ -1033,10 +1027,10 @@
         <v>536.3099999999999</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>507.83</v>
+        <v>512.71</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-5.76</v>
+        <v>-0.88</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9469</v>
@@ -1102,10 +1096,10 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>412.73</v>
+        <v>417.46</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55.95</v>
+        <v>60.68</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.776</v>
@@ -1171,10 +1165,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>325.75</v>
+        <v>329.72</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.49</v>
+        <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.314</v>
@@ -1240,10 +1234,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.70999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5</v>
+        <v>-3.53</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4472</v>
@@ -1309,10 +1303,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>8991.709999999999</v>
+        <v>9072.02</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>-3008.29</v>
+        <v>-2927.97</v>
       </c>
       <c r="G13" s="11" t="n">
         <v>0.5374</v>
@@ -1457,7 +1451,7 @@
       </c>
       <c r="H15" s="19" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
@@ -1664,7 +1658,7 @@
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I18" s="17" t="n">
@@ -1802,7 +1796,7 @@
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I20" s="17" t="n">
@@ -1940,7 +1934,7 @@
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I22" s="17" t="n">
@@ -2068,10 +2062,10 @@
         <v>3813.64</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>7442.7</v>
+        <v>7502.57</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>105.7</v>
+        <v>165.57</v>
       </c>
       <c r="G24" s="23" t="n">
         <v>1.9516</v>
@@ -2137,10 +2131,10 @@
         <v>9722</v>
       </c>
       <c r="E25" s="24" t="n">
-        <v>5224.6</v>
+        <v>5271.27</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>-111.4</v>
+        <v>-64.73</v>
       </c>
       <c r="G25" s="23" t="n">
         <v>0.5374</v>
@@ -2206,10 +2200,10 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="24" t="n">
-        <v>4681.44</v>
+        <v>4726.43</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>12.44</v>
+        <v>57.43</v>
       </c>
       <c r="G26" s="23" t="n">
         <v>0.9469</v>
@@ -2275,10 +2269,10 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>4029.23</v>
+        <v>4066.13</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>27.23</v>
+        <v>64.13</v>
       </c>
       <c r="G27" s="23" t="n">
         <v>0.546</v>
@@ -2344,10 +2338,10 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="24" t="n">
-        <v>3425.2</v>
+        <v>3456.6</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>90.2</v>
+        <v>121.6</v>
       </c>
       <c r="G28" s="23" t="n">
         <v>0.7527</v>
@@ -2413,10 +2407,10 @@
         <v>3055.68</v>
       </c>
       <c r="E29" s="24" t="n">
-        <v>3358.19</v>
+        <v>3397.92</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>23.19</v>
+        <v>62.92</v>
       </c>
       <c r="G29" s="23" t="n">
         <v>1.099</v>
@@ -2482,10 +2476,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="24" t="n">
-        <v>694.85</v>
+        <v>700.88</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>27.85</v>
+        <v>33.88</v>
       </c>
       <c r="G30" s="23" t="n">
         <v>0.9437</v>
@@ -2551,10 +2545,10 @@
         <v>400.63</v>
       </c>
       <c r="E31" s="24" t="n">
-        <v>694.17</v>
+        <v>700.3</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>27.17</v>
+        <v>33.3</v>
       </c>
       <c r="G31" s="23" t="n">
         <v>1.7327</v>
@@ -2620,10 +2614,10 @@
         <v>281.57</v>
       </c>
       <c r="E32" s="24" t="n">
-        <v>277.43</v>
+        <v>280.98</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>-2.71</v>
+        <v>0.84</v>
       </c>
       <c r="G32" s="23" t="n">
         <v>0.9853</v>
@@ -2689,31 +2683,31 @@
         <v>5299.96</v>
       </c>
       <c r="E33" s="24" t="n">
-        <v>2013.98</v>
+        <v>2003.38</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>12.98</v>
+        <v>2.38</v>
       </c>
       <c r="G33" s="23" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="H33" s="25" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I33" s="23" t="n">
-        <v>0.3781</v>
+        <v>0.3818</v>
       </c>
       <c r="J33" s="26" t="n">
-        <v>-0.0051</v>
-      </c>
-      <c r="K33" s="27" t="n">
-        <v>-10.07</v>
+        <v>0.0101</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>20.14</v>
       </c>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>2019-11-01 04:00</t>
+          <t>2019-11-02 04:00</t>
         </is>
       </c>
       <c r="M33" s="25" t="inlineStr">
@@ -2758,31 +2752,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="24" t="n">
-        <v>729.08</v>
+        <v>726.77</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>62.08</v>
+        <v>59.77</v>
       </c>
       <c r="G34" s="23" t="n">
-        <v>1.264</v>
+        <v>1.26</v>
       </c>
       <c r="H34" s="25" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I34" s="23" t="n">
-        <v>1.2592</v>
+        <v>1.2694</v>
       </c>
       <c r="J34" s="26" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="K34" s="27" t="n">
-        <v>-2.77</v>
+        <v>0.0075</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>5.42</v>
       </c>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2019-11-01 04:00</t>
+          <t>2019-11-02 04:00</t>
         </is>
       </c>
       <c r="M34" s="25" t="inlineStr">
@@ -2827,10 +2821,10 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>694.52</v>
+        <v>698.38</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>27.52</v>
+        <v>31.38</v>
       </c>
       <c r="G35" s="23" t="n">
         <v>1.5109</v>
@@ -2896,10 +2890,10 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="24" t="n">
-        <v>729.21</v>
+        <v>728.59</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>62.21</v>
+        <v>61.59</v>
       </c>
       <c r="G36" s="23" t="n">
         <v>0</v>
@@ -2965,10 +2959,10 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="24" t="n">
-        <v>2042.8</v>
+        <v>2059.23</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>42.8</v>
+        <v>59.23</v>
       </c>
       <c r="G37" s="23" t="n">
         <v>1.9516</v>
@@ -3034,10 +3028,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>1071.88</v>
+        <v>1088.83</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>71.88</v>
+        <v>88.83</v>
       </c>
       <c r="G38" s="23" t="n">
         <v>1.012</v>
@@ -3103,10 +3097,10 @@
         <v>927.97</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>1019.84</v>
+        <v>1031.9</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>19.84</v>
+        <v>31.9</v>
       </c>
       <c r="G39" s="23" t="n">
         <v>1.099</v>
@@ -3172,10 +3166,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>923.59</v>
+        <v>932.05</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>-76.41</v>
+        <v>-67.95</v>
       </c>
       <c r="G40" s="23" t="n">
         <v>0.7527</v>
@@ -3241,10 +3235,10 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="24" t="n">
-        <v>2285.02</v>
+        <v>2304.64</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>285.02</v>
+        <v>304.64</v>
       </c>
       <c r="G41" s="23" t="n">
         <v>1.2456</v>
@@ -3310,31 +3304,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>1137.37</v>
+        <v>1133.77</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>137.37</v>
+        <v>133.77</v>
       </c>
       <c r="G42" s="23" t="n">
-        <v>1.264</v>
+        <v>1.26</v>
       </c>
       <c r="H42" s="25" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I42" s="23" t="n">
-        <v>1.2592</v>
+        <v>1.2694</v>
       </c>
       <c r="J42" s="26" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="K42" s="27" t="n">
-        <v>-4.32</v>
+        <v>0.0075</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>8.460000000000001</v>
       </c>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>2019-11-01 04:00</t>
+          <t>2019-11-02 04:00</t>
         </is>
       </c>
       <c r="M42" s="25" t="inlineStr">
@@ -3379,10 +3373,10 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>1041.04</v>
+        <v>1046.83</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>41.04</v>
+        <v>46.83</v>
       </c>
       <c r="G43" s="23" t="n">
         <v>1.5109</v>
@@ -3448,10 +3442,10 @@
         <v>953.96</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>1137.12</v>
+        <v>1136.17</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>137.12</v>
+        <v>136.17</v>
       </c>
       <c r="G44" s="23" t="n">
         <v>0</v>
@@ -3517,31 +3511,31 @@
         <v>2204.19</v>
       </c>
       <c r="E45" s="24" t="n">
-        <v>837.59</v>
+        <v>833.1799999999999</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>-162.41</v>
+        <v>-166.82</v>
       </c>
       <c r="G45" s="23" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="H45" s="25" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I45" s="23" t="n">
-        <v>0.3781</v>
+        <v>0.3818</v>
       </c>
       <c r="J45" s="26" t="n">
-        <v>-0.0051</v>
-      </c>
-      <c r="K45" s="27" t="n">
-        <v>-4.19</v>
+        <v>0.0101</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>8.380000000000001</v>
       </c>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2019-11-01 04:00</t>
+          <t>2019-11-02 04:00</t>
         </is>
       </c>
       <c r="M45" s="25" t="inlineStr">
@@ -3571,1311 +3565,1311 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="inlineStr">
+      <c r="A46" s="27" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B46" s="29" t="n">
+      <c r="B46" s="28" t="n">
         <v>100032</v>
       </c>
-      <c r="C46" s="30" t="n">
+      <c r="C46" s="29" t="n">
         <v>1.0193</v>
       </c>
-      <c r="D46" s="31" t="n">
+      <c r="D46" s="30" t="n">
         <v>65064.33</v>
       </c>
-      <c r="E46" s="31" t="n">
-        <v>71505.69</v>
-      </c>
-      <c r="F46" s="31" t="n">
-        <v>5185.69</v>
-      </c>
-      <c r="G46" s="30" t="n">
+      <c r="E46" s="30" t="n">
+        <v>72351.53</v>
+      </c>
+      <c r="F46" s="30" t="n">
+        <v>6031.53</v>
+      </c>
+      <c r="G46" s="29" t="n">
         <v>1.099</v>
       </c>
-      <c r="H46" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I46" s="30" t="n">
+      <c r="H46" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I46" s="29" t="n">
         <v>1.1123</v>
       </c>
-      <c r="J46" s="33" t="n">
+      <c r="J46" s="32" t="n">
         <v>0.0121</v>
       </c>
       <c r="K46" s="8" t="n">
         <v>865.36</v>
       </c>
-      <c r="L46" s="32" t="inlineStr">
+      <c r="L46" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M46" s="32" t="inlineStr">
+      <c r="M46" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N46" s="32" t="inlineStr">
+      <c r="N46" s="31" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O46" s="32" t="inlineStr">
+      <c r="O46" s="31" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P46" s="32" t="inlineStr">
+      <c r="P46" s="31" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q46" s="32" t="inlineStr">
+      <c r="Q46" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="inlineStr">
+      <c r="A47" s="27" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B47" s="29" t="n">
+      <c r="B47" s="28" t="n">
         <v>968</v>
       </c>
-      <c r="C47" s="30" t="n">
+      <c r="C47" s="29" t="n">
         <v>0.9167</v>
       </c>
-      <c r="D47" s="31" t="n">
+      <c r="D47" s="30" t="n">
         <v>63490</v>
       </c>
-      <c r="E47" s="31" t="n">
-        <v>60118.68</v>
-      </c>
-      <c r="F47" s="31" t="n">
-        <v>1918.68</v>
-      </c>
-      <c r="G47" s="30" t="n">
+      <c r="E47" s="30" t="n">
+        <v>60696.44</v>
+      </c>
+      <c r="F47" s="30" t="n">
+        <v>2496.44</v>
+      </c>
+      <c r="G47" s="29" t="n">
         <v>0.9469</v>
       </c>
-      <c r="H47" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I47" s="30" t="n">
+      <c r="H47" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I47" s="29" t="n">
         <v>0.9559</v>
       </c>
-      <c r="J47" s="33" t="n">
+      <c r="J47" s="32" t="n">
         <v>0.0095</v>
       </c>
       <c r="K47" s="8" t="n">
         <v>571.41</v>
       </c>
-      <c r="L47" s="32" t="inlineStr">
+      <c r="L47" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M47" s="32" t="inlineStr">
+      <c r="M47" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N47" s="32" t="inlineStr">
+      <c r="N47" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O47" s="32" t="inlineStr">
+      <c r="O47" s="31" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="P47" s="32" t="inlineStr">
+      <c r="P47" s="31" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="Q47" s="32" t="inlineStr">
+      <c r="Q47" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="inlineStr">
+      <c r="A48" s="27" t="inlineStr">
         <is>
           <t>兴全可转债混合</t>
         </is>
       </c>
-      <c r="B48" s="29" t="n">
+      <c r="B48" s="28" t="n">
         <v>340001</v>
       </c>
-      <c r="C48" s="30" t="n">
+      <c r="C48" s="29" t="n">
         <v>0.9886</v>
       </c>
-      <c r="D48" s="31" t="n">
+      <c r="D48" s="30" t="n">
         <v>32370.29</v>
       </c>
-      <c r="E48" s="31" t="n">
-        <v>36879.47</v>
-      </c>
-      <c r="F48" s="31" t="n">
-        <v>4879.47</v>
-      </c>
-      <c r="G48" s="30" t="n">
+      <c r="E48" s="30" t="n">
+        <v>37125.48</v>
+      </c>
+      <c r="F48" s="30" t="n">
+        <v>5125.48</v>
+      </c>
+      <c r="G48" s="29" t="n">
         <v>1.1393</v>
       </c>
-      <c r="H48" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I48" s="30" t="n">
+      <c r="H48" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I48" s="29" t="n">
         <v>1.1448</v>
       </c>
-      <c r="J48" s="33" t="n">
+      <c r="J48" s="32" t="n">
         <v>0.0048</v>
       </c>
       <c r="K48" s="8" t="n">
         <v>178.04</v>
       </c>
-      <c r="L48" s="32" t="inlineStr">
+      <c r="L48" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M48" s="32" t="inlineStr">
+      <c r="M48" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N48" s="32" t="inlineStr">
+      <c r="N48" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O48" s="32" t="inlineStr">
+      <c r="O48" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P48" s="32" t="inlineStr">
+      <c r="P48" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q48" s="32" t="inlineStr">
+      <c r="Q48" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="inlineStr">
+      <c r="A49" s="27" t="inlineStr">
         <is>
           <t>广发医药卫生联接A</t>
         </is>
       </c>
-      <c r="B49" s="29" t="n">
+      <c r="B49" s="28" t="n">
         <v>1180</v>
       </c>
-      <c r="C49" s="30" t="n">
+      <c r="C49" s="29" t="n">
         <v>0.7451</v>
       </c>
-      <c r="D49" s="31" t="n">
+      <c r="D49" s="30" t="n">
         <v>41014.88</v>
       </c>
-      <c r="E49" s="31" t="n">
-        <v>35153.85</v>
-      </c>
-      <c r="F49" s="31" t="n">
-        <v>4593.85</v>
-      </c>
-      <c r="G49" s="30" t="n">
+      <c r="E49" s="30" t="n">
+        <v>35596.81</v>
+      </c>
+      <c r="F49" s="30" t="n">
+        <v>5036.81</v>
+      </c>
+      <c r="G49" s="29" t="n">
         <v>0.8571</v>
       </c>
-      <c r="H49" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I49" s="30" t="n">
+      <c r="H49" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I49" s="29" t="n">
         <v>0.8681</v>
       </c>
-      <c r="J49" s="33" t="n">
+      <c r="J49" s="32" t="n">
         <v>0.0128</v>
       </c>
       <c r="K49" s="8" t="n">
         <v>451.16</v>
       </c>
-      <c r="L49" s="32" t="inlineStr">
+      <c r="L49" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M49" s="32" t="inlineStr">
+      <c r="M49" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N49" s="32" t="inlineStr">
+      <c r="N49" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O49" s="32" t="inlineStr">
+      <c r="O49" s="31" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P49" s="32" t="inlineStr">
+      <c r="P49" s="31" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q49" s="32" t="inlineStr">
+      <c r="Q49" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="inlineStr">
+      <c r="A50" s="27" t="inlineStr">
         <is>
           <t>易方达安心回报债券A</t>
         </is>
       </c>
-      <c r="B50" s="29" t="n">
+      <c r="B50" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C50" s="30" t="n">
+      <c r="C50" s="29" t="n">
         <v>1.5931</v>
       </c>
-      <c r="D50" s="31" t="n">
+      <c r="D50" s="30" t="n">
         <v>20086.63</v>
       </c>
-      <c r="E50" s="31" t="n">
-        <v>33564.75</v>
-      </c>
-      <c r="F50" s="31" t="n">
-        <v>1564.75</v>
-      </c>
-      <c r="G50" s="30" t="n">
+      <c r="E50" s="30" t="n">
+        <v>33765.62</v>
+      </c>
+      <c r="F50" s="30" t="n">
+        <v>1765.62</v>
+      </c>
+      <c r="G50" s="29" t="n">
         <v>1.671</v>
       </c>
-      <c r="H50" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I50" s="30" t="n">
+      <c r="H50" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I50" s="29" t="n">
         <v>1.6788</v>
       </c>
-      <c r="J50" s="33" t="n">
+      <c r="J50" s="32" t="n">
         <v>0.0047</v>
       </c>
       <c r="K50" s="8" t="n">
         <v>156.68</v>
       </c>
-      <c r="L50" s="32" t="inlineStr">
+      <c r="L50" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M50" s="32" t="inlineStr">
+      <c r="M50" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N50" s="32" t="inlineStr">
+      <c r="N50" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O50" s="32" t="inlineStr">
+      <c r="O50" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P50" s="32" t="inlineStr">
+      <c r="P50" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q50" s="32" t="inlineStr">
+      <c r="Q50" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="inlineStr">
+      <c r="A51" s="27" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B51" s="29" t="n">
+      <c r="B51" s="28" t="n">
         <v>614</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C51" s="29" t="n">
         <v>1.091</v>
       </c>
-      <c r="D51" s="31" t="n">
+      <c r="D51" s="30" t="n">
         <v>20716.63</v>
       </c>
-      <c r="E51" s="31" t="n">
+      <c r="E51" s="30" t="n">
         <v>24694.22</v>
       </c>
-      <c r="F51" s="31" t="n">
+      <c r="F51" s="30" t="n">
         <v>2094.22</v>
       </c>
-      <c r="G51" s="30" t="n">
+      <c r="G51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="32" t="inlineStr">
+      <c r="H51" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I51" s="30" t="n">
+      <c r="I51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="33" t="n">
+      <c r="J51" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K51" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="32" t="inlineStr">
+      <c r="L51" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M51" s="32" t="inlineStr">
+      <c r="M51" s="31" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N51" s="32" t="inlineStr">
+      <c r="N51" s="31" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O51" s="32" t="inlineStr">
+      <c r="O51" s="31" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P51" s="32" t="inlineStr">
+      <c r="P51" s="31" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q51" s="32" t="inlineStr">
+      <c r="Q51" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="28" t="inlineStr">
+      <c r="A52" s="27" t="inlineStr">
         <is>
           <t>富国沪深300指数增强</t>
         </is>
       </c>
-      <c r="B52" s="29" t="n">
+      <c r="B52" s="28" t="n">
         <v>100038</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C52" s="29" t="n">
         <v>1.3129</v>
       </c>
-      <c r="D52" s="31" t="n">
+      <c r="D52" s="30" t="n">
         <v>14624.61</v>
       </c>
-      <c r="E52" s="31" t="n">
-        <v>23750.36</v>
-      </c>
-      <c r="F52" s="31" t="n">
-        <v>4550.36</v>
-      </c>
-      <c r="G52" s="30" t="n">
+      <c r="E52" s="30" t="n">
+        <v>24130.6</v>
+      </c>
+      <c r="F52" s="30" t="n">
+        <v>4930.6</v>
+      </c>
+      <c r="G52" s="29" t="n">
         <v>1.624</v>
       </c>
-      <c r="H52" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I52" s="30" t="n">
+      <c r="H52" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I52" s="29" t="n">
         <v>1.6501</v>
       </c>
-      <c r="J52" s="33" t="n">
+      <c r="J52" s="32" t="n">
         <v>0.0161</v>
       </c>
       <c r="K52" s="8" t="n">
         <v>381.7</v>
       </c>
-      <c r="L52" s="32" t="inlineStr">
+      <c r="L52" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M52" s="32" t="inlineStr">
+      <c r="M52" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N52" s="32" t="inlineStr">
+      <c r="N52" s="31" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O52" s="32" t="inlineStr">
+      <c r="O52" s="31" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P52" s="32" t="inlineStr">
+      <c r="P52" s="31" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q52" s="32" t="inlineStr">
+      <c r="Q52" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="28" t="inlineStr">
+      <c r="A53" s="27" t="inlineStr">
         <is>
           <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
-      <c r="B53" s="29" t="n">
+      <c r="B53" s="28" t="n">
         <v>1469</v>
       </c>
-      <c r="C53" s="30" t="n">
+      <c r="C53" s="29" t="n">
         <v>0.9073</v>
       </c>
-      <c r="D53" s="31" t="n">
+      <c r="D53" s="30" t="n">
         <v>21163.93</v>
       </c>
-      <c r="E53" s="31" t="n">
-        <v>23144.87</v>
-      </c>
-      <c r="F53" s="31" t="n">
-        <v>3944.87</v>
-      </c>
-      <c r="G53" s="30" t="n">
+      <c r="E53" s="30" t="n">
+        <v>23538.52</v>
+      </c>
+      <c r="F53" s="30" t="n">
+        <v>4338.52</v>
+      </c>
+      <c r="G53" s="29" t="n">
         <v>1.0936</v>
       </c>
-      <c r="H53" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I53" s="30" t="n">
+      <c r="H53" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I53" s="29" t="n">
         <v>1.1128</v>
       </c>
-      <c r="J53" s="33" t="n">
+      <c r="J53" s="32" t="n">
         <v>0.0176</v>
       </c>
       <c r="K53" s="8" t="n">
         <v>406.35</v>
       </c>
-      <c r="L53" s="32" t="inlineStr">
+      <c r="L53" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M53" s="32" t="inlineStr">
+      <c r="M53" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N53" s="32" t="inlineStr">
+      <c r="N53" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O53" s="32" t="inlineStr">
+      <c r="O53" s="31" t="inlineStr">
         <is>
           <t>金融地产</t>
         </is>
       </c>
-      <c r="P53" s="32" t="inlineStr">
+      <c r="P53" s="31" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="Q53" s="32" t="inlineStr">
+      <c r="Q53" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="28" t="inlineStr">
+      <c r="A54" s="27" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B54" s="29" t="n">
+      <c r="B54" s="28" t="n">
         <v>164906</v>
       </c>
-      <c r="C54" s="30" t="n">
+      <c r="C54" s="29" t="n">
         <v>1.1444</v>
       </c>
-      <c r="D54" s="31" t="n">
+      <c r="D54" s="30" t="n">
         <v>16778.47</v>
       </c>
-      <c r="E54" s="31" t="n">
-        <v>21207.98</v>
-      </c>
-      <c r="F54" s="31" t="n">
-        <v>2007.98</v>
-      </c>
-      <c r="G54" s="30" t="n">
-        <v>1.264</v>
-      </c>
-      <c r="H54" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
-      </c>
-      <c r="I54" s="30" t="n">
-        <v>1.2592</v>
-      </c>
-      <c r="J54" s="33" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="K54" s="27" t="n">
-        <v>-80.54000000000001</v>
-      </c>
-      <c r="L54" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-01 04:00</t>
-        </is>
-      </c>
-      <c r="M54" s="32" t="inlineStr">
+      <c r="E54" s="30" t="n">
+        <v>21140.87</v>
+      </c>
+      <c r="F54" s="30" t="n">
+        <v>1940.87</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H54" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I54" s="29" t="n">
+        <v>1.2694</v>
+      </c>
+      <c r="J54" s="32" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="L54" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-02 04:00</t>
+        </is>
+      </c>
+      <c r="M54" s="31" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N54" s="32" t="inlineStr">
+      <c r="N54" s="31" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="O54" s="32" t="inlineStr">
+      <c r="O54" s="31" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="P54" s="32" t="inlineStr">
+      <c r="P54" s="31" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="Q54" s="32" t="inlineStr">
+      <c r="Q54" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="28" t="inlineStr">
+      <c r="A55" s="27" t="inlineStr">
         <is>
           <t>富国中证500指数(LOF)</t>
         </is>
       </c>
-      <c r="B55" s="29" t="n">
+      <c r="B55" s="28" t="n">
         <v>161017</v>
       </c>
-      <c r="C55" s="30" t="n">
+      <c r="C55" s="29" t="n">
         <v>1.3432</v>
       </c>
-      <c r="D55" s="31" t="n">
+      <c r="D55" s="30" t="n">
         <v>9529.809999999999</v>
       </c>
-      <c r="E55" s="31" t="n">
-        <v>15219.1</v>
-      </c>
-      <c r="F55" s="31" t="n">
-        <v>2419.1</v>
-      </c>
-      <c r="G55" s="30" t="n">
+      <c r="E55" s="30" t="n">
+        <v>15342.99</v>
+      </c>
+      <c r="F55" s="30" t="n">
+        <v>2542.99</v>
+      </c>
+      <c r="G55" s="29" t="n">
         <v>1.597</v>
       </c>
-      <c r="H55" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I55" s="30" t="n">
+      <c r="H55" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I55" s="29" t="n">
         <v>1.6108</v>
       </c>
-      <c r="J55" s="33" t="n">
+      <c r="J55" s="32" t="n">
         <v>0.0086</v>
       </c>
       <c r="K55" s="8" t="n">
         <v>131.51</v>
       </c>
-      <c r="L55" s="32" t="inlineStr">
+      <c r="L55" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M55" s="32" t="inlineStr">
+      <c r="M55" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N55" s="32" t="inlineStr">
+      <c r="N55" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O55" s="32" t="inlineStr">
+      <c r="O55" s="31" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P55" s="32" t="inlineStr">
+      <c r="P55" s="31" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q55" s="32" t="inlineStr">
+      <c r="Q55" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="28" t="inlineStr">
+      <c r="A56" s="27" t="inlineStr">
         <is>
           <t>华宝标普油气上游股票</t>
         </is>
       </c>
-      <c r="B56" s="29" t="n">
+      <c r="B56" s="28" t="n">
         <v>162411</v>
       </c>
-      <c r="C56" s="30" t="n">
+      <c r="C56" s="29" t="n">
         <v>0.5152</v>
       </c>
-      <c r="D56" s="31" t="n">
+      <c r="D56" s="30" t="n">
         <v>37267.45</v>
       </c>
-      <c r="E56" s="31" t="n">
-        <v>14161.63</v>
-      </c>
-      <c r="F56" s="31" t="n">
-        <v>-5038.37</v>
-      </c>
-      <c r="G56" s="30" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H56" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
-      </c>
-      <c r="I56" s="30" t="n">
-        <v>0.3781</v>
-      </c>
-      <c r="J56" s="33" t="n">
-        <v>-0.0051</v>
-      </c>
-      <c r="K56" s="27" t="n">
-        <v>-70.81</v>
-      </c>
-      <c r="L56" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-01 04:00</t>
-        </is>
-      </c>
-      <c r="M56" s="32" t="inlineStr">
+      <c r="E56" s="30" t="n">
+        <v>14087.09</v>
+      </c>
+      <c r="F56" s="30" t="n">
+        <v>-5112.91</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="H56" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>0.3818</v>
+      </c>
+      <c r="J56" s="32" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>141.62</v>
+      </c>
+      <c r="L56" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-02 04:00</t>
+        </is>
+      </c>
+      <c r="M56" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N56" s="32" t="inlineStr">
+      <c r="N56" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O56" s="32" t="inlineStr">
+      <c r="O56" s="31" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="P56" s="32" t="inlineStr">
+      <c r="P56" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q56" s="32" t="inlineStr">
+      <c r="Q56" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="28" t="inlineStr">
+      <c r="A57" s="27" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B57" s="29" t="n">
+      <c r="B57" s="28" t="n">
         <v>71</v>
       </c>
-      <c r="C57" s="30" t="n">
+      <c r="C57" s="29" t="n">
         <v>1.4562</v>
       </c>
-      <c r="D57" s="31" t="n">
+      <c r="D57" s="30" t="n">
         <v>6798.52</v>
       </c>
-      <c r="E57" s="31" t="n">
-        <v>10271.88</v>
-      </c>
-      <c r="F57" s="31" t="n">
-        <v>371.88</v>
-      </c>
-      <c r="G57" s="30" t="n">
+      <c r="E57" s="30" t="n">
+        <v>10328.99</v>
+      </c>
+      <c r="F57" s="30" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G57" s="29" t="n">
         <v>1.5109</v>
       </c>
-      <c r="H57" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I57" s="30" t="n">
+      <c r="H57" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I57" s="29" t="n">
         <v>1.5213</v>
       </c>
-      <c r="J57" s="33" t="n">
+      <c r="J57" s="32" t="n">
         <v>0.0069</v>
       </c>
       <c r="K57" s="8" t="n">
         <v>70.7</v>
       </c>
-      <c r="L57" s="32" t="inlineStr">
+      <c r="L57" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 16:00</t>
         </is>
       </c>
-      <c r="M57" s="32" t="inlineStr">
+      <c r="M57" s="31" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N57" s="32" t="inlineStr">
+      <c r="N57" s="31" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O57" s="32" t="inlineStr">
+      <c r="O57" s="31" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P57" s="32" t="inlineStr">
+      <c r="P57" s="31" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q57" s="32" t="inlineStr">
+      <c r="Q57" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="28" t="inlineStr">
+      <c r="A58" s="27" t="inlineStr">
         <is>
           <t>易方达创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B58" s="29" t="n">
+      <c r="B58" s="28" t="n">
         <v>110026</v>
       </c>
-      <c r="C58" s="30" t="n">
+      <c r="C58" s="29" t="n">
         <v>1.3359</v>
       </c>
-      <c r="D58" s="31" t="n">
+      <c r="D58" s="30" t="n">
         <v>4791.13</v>
       </c>
-      <c r="E58" s="31" t="n">
-        <v>8301.59</v>
-      </c>
-      <c r="F58" s="31" t="n">
-        <v>1901.59</v>
-      </c>
-      <c r="G58" s="30" t="n">
+      <c r="E58" s="30" t="n">
+        <v>8374.889999999999</v>
+      </c>
+      <c r="F58" s="30" t="n">
+        <v>1974.89</v>
+      </c>
+      <c r="G58" s="29" t="n">
         <v>1.7327</v>
       </c>
-      <c r="H58" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I58" s="30" t="n">
+      <c r="H58" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I58" s="29" t="n">
         <v>1.7482</v>
       </c>
-      <c r="J58" s="33" t="n">
+      <c r="J58" s="32" t="n">
         <v>0.0089</v>
       </c>
       <c r="K58" s="8" t="n">
         <v>74.26000000000001</v>
       </c>
-      <c r="L58" s="32" t="inlineStr">
+      <c r="L58" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M58" s="32" t="inlineStr">
+      <c r="M58" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N58" s="32" t="inlineStr">
+      <c r="N58" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O58" s="32" t="inlineStr">
+      <c r="O58" s="31" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P58" s="32" t="inlineStr">
+      <c r="P58" s="31" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q58" s="32" t="inlineStr">
+      <c r="Q58" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="28" t="inlineStr">
+      <c r="A59" s="27" t="inlineStr">
         <is>
           <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
-      <c r="B59" s="29" t="n">
+      <c r="B59" s="28" t="n">
         <v>1061</v>
       </c>
-      <c r="C59" s="30" t="n">
+      <c r="C59" s="29" t="n">
         <v>0.9172</v>
       </c>
-      <c r="D59" s="31" t="n">
+      <c r="D59" s="30" t="n">
         <v>5609.79</v>
       </c>
-      <c r="E59" s="31" t="n">
+      <c r="E59" s="30" t="n">
         <v>7567.6</v>
       </c>
-      <c r="F59" s="31" t="n">
+      <c r="F59" s="30" t="n">
         <v>2422.48</v>
       </c>
-      <c r="G59" s="30" t="n">
+      <c r="G59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="32" t="inlineStr">
+      <c r="H59" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I59" s="30" t="n">
+      <c r="I59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="33" t="n">
+      <c r="J59" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="32" t="inlineStr">
+      <c r="L59" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M59" s="32" t="inlineStr">
+      <c r="M59" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N59" s="32" t="inlineStr">
+      <c r="N59" s="31" t="inlineStr">
         <is>
           <t>海外债券</t>
         </is>
       </c>
-      <c r="O59" s="32" t="inlineStr">
+      <c r="O59" s="31" t="inlineStr">
         <is>
           <t>美元债</t>
         </is>
       </c>
-      <c r="P59" s="32" t="inlineStr">
+      <c r="P59" s="31" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q59" s="32" t="inlineStr">
+      <c r="Q59" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="28" t="inlineStr">
+      <c r="A60" s="27" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B60" s="29" t="n">
+      <c r="B60" s="28" t="n">
         <v>1064</v>
       </c>
-      <c r="C60" s="30" t="n">
+      <c r="C60" s="29" t="n">
         <v>0.4775</v>
       </c>
-      <c r="D60" s="31" t="n">
+      <c r="D60" s="30" t="n">
         <v>13403.92</v>
       </c>
-      <c r="E60" s="31" t="n">
-        <v>7203.26</v>
-      </c>
-      <c r="F60" s="31" t="n">
-        <v>803.26</v>
-      </c>
-      <c r="G60" s="30" t="n">
+      <c r="E60" s="30" t="n">
+        <v>7267.6</v>
+      </c>
+      <c r="F60" s="30" t="n">
+        <v>867.6</v>
+      </c>
+      <c r="G60" s="29" t="n">
         <v>0.5374</v>
       </c>
-      <c r="H60" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I60" s="30" t="n">
+      <c r="H60" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I60" s="29" t="n">
         <v>0.5426</v>
       </c>
-      <c r="J60" s="33" t="n">
+      <c r="J60" s="32" t="n">
         <v>0.0097</v>
       </c>
       <c r="K60" s="8" t="n">
         <v>69.7</v>
       </c>
-      <c r="L60" s="32" t="inlineStr">
+      <c r="L60" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M60" s="32" t="inlineStr">
+      <c r="M60" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N60" s="32" t="inlineStr">
+      <c r="N60" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O60" s="32" t="inlineStr">
+      <c r="O60" s="31" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P60" s="32" t="inlineStr">
+      <c r="P60" s="31" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q60" s="32" t="inlineStr">
+      <c r="Q60" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="28" t="inlineStr">
+      <c r="A61" s="27" t="inlineStr">
         <is>
           <t>长信可转债债券A</t>
         </is>
       </c>
-      <c r="B61" s="29" t="n">
+      <c r="B61" s="28" t="n">
         <v>519977</v>
       </c>
-      <c r="C61" s="30" t="n">
+      <c r="C61" s="29" t="n">
         <v>1.2011</v>
       </c>
-      <c r="D61" s="31" t="n">
+      <c r="D61" s="30" t="n">
         <v>5328.62</v>
       </c>
-      <c r="E61" s="31" t="n">
-        <v>7164.86</v>
-      </c>
-      <c r="F61" s="31" t="n">
-        <v>764.86</v>
-      </c>
-      <c r="G61" s="30" t="n">
+      <c r="E61" s="30" t="n">
+        <v>7206.42</v>
+      </c>
+      <c r="F61" s="30" t="n">
+        <v>806.42</v>
+      </c>
+      <c r="G61" s="29" t="n">
         <v>1.3446</v>
       </c>
-      <c r="H61" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I61" s="30" t="n">
+      <c r="H61" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I61" s="29" t="n">
         <v>1.3525</v>
       </c>
-      <c r="J61" s="33" t="n">
+      <c r="J61" s="32" t="n">
         <v>0.0059</v>
       </c>
       <c r="K61" s="8" t="n">
         <v>42.1</v>
       </c>
-      <c r="L61" s="32" t="inlineStr">
+      <c r="L61" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M61" s="32" t="inlineStr">
+      <c r="M61" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N61" s="32" t="inlineStr">
+      <c r="N61" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O61" s="32" t="inlineStr">
+      <c r="O61" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P61" s="32" t="inlineStr">
+      <c r="P61" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q61" s="32" t="inlineStr">
+      <c r="Q61" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="28" t="inlineStr">
+      <c r="A62" s="27" t="inlineStr">
         <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B62" s="29" t="n">
+      <c r="B62" s="28" t="n">
         <v>2903</v>
       </c>
-      <c r="C62" s="30" t="n">
+      <c r="C62" s="29" t="n">
         <v>0.9</v>
       </c>
-      <c r="D62" s="31" t="n">
+      <c r="D62" s="30" t="n">
         <v>7778.64</v>
       </c>
-      <c r="E62" s="31" t="n">
-        <v>6719.18</v>
-      </c>
-      <c r="F62" s="31" t="n">
-        <v>-280.82</v>
-      </c>
-      <c r="G62" s="30" t="n">
+      <c r="E62" s="30" t="n">
+        <v>6777.52</v>
+      </c>
+      <c r="F62" s="30" t="n">
+        <v>-222.48</v>
+      </c>
+      <c r="G62" s="29" t="n">
         <v>0.8638</v>
       </c>
-      <c r="H62" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I62" s="30" t="n">
+      <c r="H62" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I62" s="29" t="n">
         <v>0.8713</v>
       </c>
-      <c r="J62" s="33" t="n">
+      <c r="J62" s="32" t="n">
         <v>0.0086</v>
       </c>
       <c r="K62" s="8" t="n">
         <v>58.34</v>
       </c>
-      <c r="L62" s="32" t="inlineStr">
+      <c r="L62" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M62" s="32" t="inlineStr">
+      <c r="M62" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N62" s="32" t="inlineStr">
+      <c r="N62" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O62" s="32" t="inlineStr">
+      <c r="O62" s="31" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P62" s="32" t="inlineStr">
+      <c r="P62" s="31" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q62" s="32" t="inlineStr">
+      <c r="Q62" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="28" t="inlineStr">
+      <c r="A63" s="27" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B63" s="29" t="n">
+      <c r="B63" s="28" t="n">
         <v>4752</v>
       </c>
-      <c r="C63" s="30" t="n">
+      <c r="C63" s="29" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="D63" s="31" t="n">
+      <c r="D63" s="30" t="n">
         <v>7852.99</v>
       </c>
-      <c r="E63" s="31" t="n">
-        <v>5910.94</v>
-      </c>
-      <c r="F63" s="31" t="n">
-        <v>-489.06</v>
-      </c>
-      <c r="G63" s="30" t="n">
+      <c r="E63" s="30" t="n">
+        <v>5965.13</v>
+      </c>
+      <c r="F63" s="30" t="n">
+        <v>-434.87</v>
+      </c>
+      <c r="G63" s="29" t="n">
         <v>0.7527</v>
       </c>
-      <c r="H63" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I63" s="30" t="n">
+      <c r="H63" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I63" s="29" t="n">
         <v>0.7599</v>
       </c>
-      <c r="J63" s="33" t="n">
+      <c r="J63" s="32" t="n">
         <v>0.0095</v>
       </c>
       <c r="K63" s="8" t="n">
         <v>56.54</v>
       </c>
-      <c r="L63" s="32" t="inlineStr">
+      <c r="L63" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M63" s="32" t="inlineStr">
+      <c r="M63" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N63" s="32" t="inlineStr">
+      <c r="N63" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O63" s="32" t="inlineStr">
+      <c r="O63" s="31" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P63" s="32" t="inlineStr">
+      <c r="P63" s="31" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q63" s="32" t="inlineStr">
+      <c r="Q63" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="28" t="inlineStr">
+      <c r="A64" s="27" t="inlineStr">
         <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B64" s="29" t="n">
+      <c r="B64" s="28" t="n">
         <v>3647</v>
       </c>
-      <c r="C64" s="30" t="n">
+      <c r="C64" s="29" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D64" s="31" t="n">
+      <c r="D64" s="30" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E64" s="31" t="n">
-        <v>3375.05</v>
-      </c>
-      <c r="F64" s="31" t="n">
-        <v>-124.95</v>
-      </c>
-      <c r="G64" s="30" t="n">
+      <c r="E64" s="30" t="n">
+        <v>3406.56</v>
+      </c>
+      <c r="F64" s="30" t="n">
+        <v>-93.44</v>
+      </c>
+      <c r="G64" s="29" t="n">
         <v>0.9427</v>
       </c>
-      <c r="H64" s="32" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="I64" s="30" t="n">
+      <c r="H64" s="31" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I64" s="29" t="n">
         <v>0.9512</v>
       </c>
-      <c r="J64" s="33" t="n">
+      <c r="J64" s="32" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>30.43</v>
       </c>
-      <c r="L64" s="32" t="inlineStr">
+      <c r="L64" s="31" t="inlineStr">
         <is>
           <t>2019-11-01 15:00</t>
         </is>
       </c>
-      <c r="M64" s="32" t="inlineStr">
+      <c r="M64" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N64" s="32" t="inlineStr">
+      <c r="N64" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O64" s="32" t="inlineStr">
+      <c r="O64" s="31" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P64" s="32" t="inlineStr">
+      <c r="P64" s="31" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q64" s="32" t="inlineStr">
+      <c r="Q64" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -564,17 +564,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4712</v>
+        <v>1.4768</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0154</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>38.2</v>
+        <v>50.85</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -633,17 +633,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6404</v>
+        <v>1.6394</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0027</v>
+        <v>0.0021</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>8.81</v>
+        <v>6.81</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -702,17 +702,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4672</v>
+        <v>1.4685</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0051</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>13.79</v>
+        <v>16.68</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -771,17 +771,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9324</v>
+        <v>0.9283</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0063</v>
+        <v>0.0018</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>16.93</v>
+        <v>4.96</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -840,17 +840,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8863</v>
+        <v>1.8847</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0048</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>12.05</v>
+        <v>10.25</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -909,17 +909,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2013</v>
+        <v>2.2009</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>7.71</v>
+        <v>7.39</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -978,17 +978,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9425</v>
+        <v>0.9411</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.007</v>
+        <v>0.0055</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>3.63</v>
+        <v>2.86</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1047,17 +1047,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9628</v>
+        <v>0.9619</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.0062</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>3.65</v>
+        <v>3.16</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1116,17 +1116,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7984</v>
+        <v>0.7983</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0172</v>
+        <v>0.0171</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>7.18</v>
+        <v>7.13</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1185,17 +1185,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3458</v>
+        <v>1.3459</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.012</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1254,17 +1254,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4778</v>
+        <v>1.4789</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0044</v>
+        <v>0.0051</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1323,17 +1323,17 @@
         </is>
       </c>
       <c r="I13" s="11" t="n">
-        <v>0.5457</v>
+        <v>0.5441</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>0.0065</v>
+        <v>0.0035</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>58.56</v>
+        <v>31.79</v>
       </c>
       <c r="L13" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M13" s="13" t="inlineStr">
@@ -1378,10 +1378,10 @@
         <v>2700</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>8280.9</v>
+        <v>8286.299999999999</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>1971</v>
+        <v>1976.4</v>
       </c>
       <c r="G14" s="17" t="n">
         <v>3.052</v>
@@ -1392,17 +1392,17 @@
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>3.067</v>
+        <v>3.069</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.0049</v>
+        <v>0.0056</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>40.5</v>
+        <v>45.9</v>
       </c>
       <c r="L14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
@@ -1447,10 +1447,10 @@
         <v>9100</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>36773.1</v>
+        <v>36754.9</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>5405.4</v>
+        <v>5387.2</v>
       </c>
       <c r="G15" s="17" t="n">
         <v>4.026</v>
@@ -1461,17 +1461,17 @@
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>4.04</v>
+        <v>4.039</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>0.0035</v>
+        <v>0.0032</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>127.4</v>
+        <v>118.3</v>
       </c>
       <c r="L15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M15" s="19" t="inlineStr">
@@ -1516,10 +1516,10 @@
         <v>38200</v>
       </c>
       <c r="E16" s="18" t="n">
-        <v>206432.8</v>
+        <v>205554.2</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>-7716.4</v>
+        <v>-8595</v>
       </c>
       <c r="G16" s="17" t="n">
         <v>5.366</v>
@@ -1530,17 +1530,17 @@
         </is>
       </c>
       <c r="I16" s="17" t="n">
-        <v>5.4</v>
+        <v>5.381</v>
       </c>
       <c r="J16" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.0028</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1298.8</v>
+        <v>573</v>
       </c>
       <c r="L16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
@@ -1585,10 +1585,10 @@
         <v>33800</v>
       </c>
       <c r="E17" s="18" t="n">
-        <v>24538.8</v>
+        <v>24471.2</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>-5103.8</v>
+        <v>-5171.4</v>
       </c>
       <c r="G17" s="17" t="n">
         <v>0.72</v>
@@ -1599,17 +1599,17 @@
         </is>
       </c>
       <c r="I17" s="17" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>0.0069</v>
+        <v>0.0056</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>169</v>
+        <v>135.2</v>
       </c>
       <c r="L17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
@@ -1654,10 +1654,10 @@
         <v>32700</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>30705.3</v>
+        <v>30541.8</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>5101.2</v>
+        <v>4937.7</v>
       </c>
       <c r="G18" s="17" t="n">
         <v>0.9330000000000001</v>
@@ -1668,17 +1668,17 @@
         </is>
       </c>
       <c r="I18" s="17" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.0043</v>
+        <v>0.0011</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>130.8</v>
+        <v>32.7</v>
       </c>
       <c r="L18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
@@ -1723,10 +1723,10 @@
         <v>34100</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>25916</v>
+        <v>25745.5</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>-3716.9</v>
+        <v>-3887.4</v>
       </c>
       <c r="G19" s="17" t="n">
         <v>0.756</v>
@@ -1737,17 +1737,17 @@
         </is>
       </c>
       <c r="I19" s="17" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="J19" s="20" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>136.4</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K19" s="21" t="n">
+        <v>-34.1</v>
       </c>
       <c r="L19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:16</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M19" s="19" t="inlineStr">
@@ -1792,10 +1792,10 @@
         <v>4500</v>
       </c>
       <c r="E20" s="18" t="n">
-        <v>15237</v>
+        <v>15223.5</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>2385</v>
+        <v>2371.5</v>
       </c>
       <c r="G20" s="17" t="n">
         <v>3.387</v>
@@ -1806,17 +1806,17 @@
         </is>
       </c>
       <c r="I20" s="17" t="n">
-        <v>3.385</v>
+        <v>3.383</v>
       </c>
       <c r="J20" s="20" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0012</v>
       </c>
       <c r="K20" s="21" t="n">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="L20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
@@ -1861,10 +1861,10 @@
         <v>1200</v>
       </c>
       <c r="E21" s="18" t="n">
-        <v>3692.4</v>
+        <v>3681.6</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>152.4</v>
+        <v>141.6</v>
       </c>
       <c r="G21" s="17" t="n">
         <v>3.049</v>
@@ -1875,17 +1875,17 @@
         </is>
       </c>
       <c r="I21" s="17" t="n">
-        <v>3.076</v>
+        <v>3.068</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>0.0089</v>
+        <v>0.0062</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>32.4</v>
+        <v>22.8</v>
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:04</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
@@ -1930,10 +1930,10 @@
         <v>9200</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>15097.2</v>
+        <v>15032.8</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>2226.4</v>
+        <v>2162</v>
       </c>
       <c r="G22" s="17" t="n">
         <v>1.625</v>
@@ -1944,17 +1944,17 @@
         </is>
       </c>
       <c r="I22" s="17" t="n">
-        <v>1.639</v>
+        <v>1.634</v>
       </c>
       <c r="J22" s="20" t="n">
-        <v>0.0086</v>
+        <v>0.0055</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>128.8</v>
+        <v>82.8</v>
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:04</t>
         </is>
       </c>
       <c r="M22" s="19" t="inlineStr">
@@ -1999,10 +1999,10 @@
         <v>14400</v>
       </c>
       <c r="E23" s="18" t="n">
-        <v>20304</v>
+        <v>20275.2</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>2001.6</v>
+        <v>1972.8</v>
       </c>
       <c r="G23" s="17" t="n">
         <v>1.39</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="L23" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:04</t>
         </is>
       </c>
       <c r="M23" s="19" t="inlineStr">
@@ -2082,17 +2082,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>1.9837</v>
+        <v>1.9768</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>62.54</v>
+        <v>36.23</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2151,17 +2151,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5457</v>
+        <v>0.5441</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0065</v>
+        <v>0.0035</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>34.03</v>
+        <v>18.47</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2220,17 +2220,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9628</v>
+        <v>0.9619</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0071</v>
+        <v>0.0062</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>33.62</v>
+        <v>29.17</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2289,17 +2289,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5556</v>
+        <v>0.5537</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>33.95</v>
+        <v>19.92</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2358,17 +2358,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7639</v>
+        <v>0.7592</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>19.57</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="K28" s="21" t="n">
+        <v>-1.82</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2427,17 +2427,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.115</v>
+        <v>1.1143</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0027</v>
+        <v>0.0021</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>9.17</v>
+        <v>7.03</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2496,17 +2496,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9609</v>
+        <v>0.9589</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0095</v>
+        <v>0.0073</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>6.63</v>
+        <v>5.15</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2565,17 +2565,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.7646</v>
+        <v>1.7608</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0095</v>
+        <v>0.0073</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>6.65</v>
+        <v>5.13</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2634,17 +2634,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0029</v>
+        <v>0.9991</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.005</v>
+        <v>0.0012</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>1.41</v>
+        <v>0.34</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2841,17 +2841,17 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5366</v>
+        <v>1.5431</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0114</v>
+        <v>0.0157</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>7.95</v>
+        <v>10.94</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2979,17 +2979,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.9837</v>
+        <v>1.9768</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>17.17</v>
+        <v>9.94</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3048,17 +3048,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.115</v>
+        <v>1.1143</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0027</v>
+        <v>0.0021</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>5.48</v>
+        <v>4.2</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3117,17 +3117,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0338</v>
+        <v>1.0343</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.0062</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>6.14</v>
+        <v>6.67</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3186,17 +3186,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5556</v>
+        <v>0.5537</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>8.34</v>
+        <v>4.89</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3255,17 +3255,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.7639</v>
+        <v>0.7592</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>5.28</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="K41" s="21" t="n">
+        <v>-0.49</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3324,17 +3324,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2546</v>
+        <v>1.2536</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0014</v>
+        <v>-0.0022</v>
       </c>
       <c r="K42" s="21" t="n">
-        <v>-3.12</v>
+        <v>-4.95</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:30</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3462,17 +3462,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5366</v>
+        <v>1.5431</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0114</v>
+        <v>0.0157</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>11.92</v>
+        <v>16.4</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3669,17 +3669,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.115</v>
+        <v>1.1143</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0027</v>
+        <v>0.0021</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>195.19</v>
+        <v>149.65</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3738,17 +3738,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9628</v>
+        <v>0.9619</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0062</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>431.73</v>
+        <v>374.59</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3807,17 +3807,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1482</v>
+        <v>1.149</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>42.08</v>
+        <v>67.98</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3876,17 +3876,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>0.8777</v>
+        <v>0.878</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0113</v>
+        <v>0.0116</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>401.95</v>
+        <v>414.25</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3945,17 +3945,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.6864</v>
+        <v>1.685</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>108.47</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4083,17 +4083,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.661</v>
+        <v>1.6602</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0067</v>
+        <v>0.0062</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>160.87</v>
+        <v>149.17</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4152,17 +4152,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.1166</v>
+        <v>1.1164</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.004</v>
+        <v>0.0038</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>93.12</v>
+        <v>88.89</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4290,17 +4290,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6235</v>
+        <v>1.6178</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>128.65</v>
+        <v>74.33</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4428,17 +4428,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.5366</v>
+        <v>1.5431</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0114</v>
+        <v>0.0157</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>117.61</v>
+        <v>161.8</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4497,17 +4497,17 @@
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.7646</v>
+        <v>1.7608</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0095</v>
+        <v>0.0073</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>79.53</v>
+        <v>61.33</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4635,17 +4635,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5457</v>
+        <v>0.5441</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0065</v>
+        <v>0.0035</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>46.91</v>
+        <v>25.47</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:18</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4704,17 +4704,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3572</v>
+        <v>1.3562</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>25.58</v>
+        <v>20.25</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4773,17 +4773,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.8786</v>
+        <v>0.8754999999999999</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>56.78</v>
+        <v>32.67</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:20</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4842,17 +4842,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7639</v>
+        <v>0.7592</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>33.77</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="K64" s="21" t="n">
+        <v>-3.14</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:19</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4911,17 +4911,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9607</v>
+        <v>0.9571</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0097</v>
+        <v>0.0059</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>32.94</v>
+        <v>20.05</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 13:21</t>
+          <t>2019-11-04 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4951,6 +4951,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -446,6 +446,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1457,7 +1475,7 @@
       </c>
       <c r="H15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
@@ -1595,7 +1613,7 @@
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I17" s="17" t="n">
@@ -1664,7 +1682,7 @@
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I18" s="17" t="n">
@@ -1733,7 +1751,7 @@
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I19" s="17" t="n">
@@ -1940,7 +1958,7 @@
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I22" s="17" t="n">
@@ -2009,7 +2027,7 @@
       </c>
       <c r="H23" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I23" s="17" t="n">
@@ -2703,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.382</v>
+        <v>0.3794</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0106</v>
+        <v>0.0038</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>21.2</v>
+        <v>7.42</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2772,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.2699</v>
+        <v>1.2636</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0078</v>
+        <v>0.0028</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>5.71</v>
+        <v>2.08</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -3324,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2536</v>
+        <v>1.2544</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0022</v>
+        <v>-0.0015</v>
       </c>
       <c r="K42" s="21" t="n">
-        <v>-4.95</v>
+        <v>-3.49</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:30</t>
+          <t>2019-11-05 02:29</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3393,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.2699</v>
+        <v>1.2636</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0078</v>
+        <v>0.0028</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>8.91</v>
+        <v>3.24</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3600,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>0.382</v>
+        <v>0.3794</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0106</v>
+        <v>0.0038</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>8.82</v>
+        <v>3.09</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -4221,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.2699</v>
+        <v>1.2636</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0078</v>
+        <v>0.0028</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>166.11</v>
+        <v>60.4</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4359,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.382</v>
+        <v>0.3794</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0106</v>
+        <v>0.0038</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>149.07</v>
+        <v>52.17</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-02 04:00</t>
+          <t>2019-11-05 05:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -574,25 +574,25 @@
         <v>239.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4543</v>
+        <v>1.4844</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4768</v>
+        <v>1.4918</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0154</v>
+        <v>0.005</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>50.85</v>
+        <v>16.73</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 12:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -643,25 +643,25 @@
         <v>-40.07</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.636</v>
+        <v>1.639</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6394</v>
+        <v>1.6468</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0021</v>
+        <v>0.0048</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>6.81</v>
+        <v>15.61</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -712,25 +712,25 @@
         <v>86.05</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.461</v>
+        <v>1.468</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4685</v>
+        <v>1.4826</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>16.68</v>
+        <v>32.47</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -781,25 +781,25 @@
         <v>-26.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9266</v>
+        <v>0.9282</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9283</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0018</v>
+        <v>0.0051</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>4.96</v>
+        <v>14.01</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -850,25 +850,25 @@
         <v>102.54</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8756</v>
+        <v>1.8845</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8847</v>
+        <v>1.9003</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0048</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>10.25</v>
+        <v>17.79</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -919,25 +919,25 @@
         <v>65.52</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1917</v>
+        <v>2.2008</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2009</v>
+        <v>2.2194</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>7.39</v>
+        <v>14.94</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -988,25 +988,25 @@
         <v>-25.77</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9359</v>
+        <v>0.9377</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9411</v>
+        <v>0.9438</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0065</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>2.86</v>
+        <v>3.36</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1057,25 +1057,25 @@
         <v>-0.88</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9619</v>
+        <v>0.9649</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0062</v>
+        <v>0.0036</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>3.16</v>
+        <v>1.88</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1126,25 +1126,25 @@
         <v>60.68</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7849</v>
+        <v>0.7984</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7983</v>
+        <v>0.7994</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0171</v>
+        <v>0.0012</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>7.13</v>
+        <v>0.53</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1195,25 +1195,25 @@
         <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.33</v>
+        <v>1.348</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3459</v>
+        <v>1.3581</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.012</v>
+        <v>0.0075</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>3.94</v>
+        <v>2.5</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1264,25 +1264,25 @@
         <v>-3.53</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4714</v>
+        <v>1.4788</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4789</v>
+        <v>1.4936</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1333,25 +1333,25 @@
         <v>-2927.97</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>0.5422</v>
+        <v>0.5438</v>
       </c>
       <c r="H13" s="13" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I13" s="11" t="n">
-        <v>0.5441</v>
+        <v>0.5449000000000001</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>0.0035</v>
+        <v>0.002</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>31.79</v>
+        <v>18.41</v>
       </c>
       <c r="L13" s="13" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M13" s="13" t="inlineStr">
@@ -1402,25 +1402,25 @@
         <v>1976.4</v>
       </c>
       <c r="G14" s="17" t="n">
-        <v>3.052</v>
+        <v>3.069</v>
       </c>
       <c r="H14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>3.069</v>
+        <v>3.098</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.0056</v>
+        <v>0.0094</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>45.9</v>
+        <v>78.3</v>
       </c>
       <c r="L14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
@@ -1471,7 +1471,7 @@
         <v>5387.2</v>
       </c>
       <c r="G15" s="17" t="n">
-        <v>4.026</v>
+        <v>4.039</v>
       </c>
       <c r="H15" s="19" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>4.039</v>
+        <v>4.077</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>0.0032</v>
+        <v>0.0094</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>118.3</v>
+        <v>345.8</v>
       </c>
       <c r="L15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M15" s="19" t="inlineStr">
@@ -1540,25 +1540,25 @@
         <v>-8595</v>
       </c>
       <c r="G16" s="17" t="n">
-        <v>5.366</v>
+        <v>5.381</v>
       </c>
       <c r="H16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I16" s="17" t="n">
-        <v>5.381</v>
+        <v>5.426</v>
       </c>
       <c r="J16" s="20" t="n">
-        <v>0.0028</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>573</v>
+        <v>1719</v>
       </c>
       <c r="L16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
@@ -1609,7 +1609,7 @@
         <v>-5171.4</v>
       </c>
       <c r="G17" s="17" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="17" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>0.0056</v>
+        <v>0.0014</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>135.2</v>
+        <v>33.8</v>
       </c>
       <c r="L17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
@@ -1678,7 +1678,7 @@
         <v>4937.7</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="17" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.0011</v>
+        <v>0.0171</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>32.7</v>
+        <v>523.2</v>
       </c>
       <c r="L18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         <v>-3887.4</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="17" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="J19" s="20" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K19" s="21" t="n">
-        <v>-34.1</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>68.2</v>
       </c>
       <c r="L19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M19" s="19" t="inlineStr">
@@ -1816,25 +1816,25 @@
         <v>2371.5</v>
       </c>
       <c r="G20" s="17" t="n">
-        <v>3.387</v>
+        <v>3.383</v>
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I20" s="17" t="n">
-        <v>3.383</v>
+        <v>3.371</v>
       </c>
       <c r="J20" s="20" t="n">
-        <v>-0.0012</v>
+        <v>-0.0035</v>
       </c>
       <c r="K20" s="21" t="n">
-        <v>-18</v>
+        <v>-54</v>
       </c>
       <c r="L20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:29</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
@@ -1885,25 +1885,25 @@
         <v>141.6</v>
       </c>
       <c r="G21" s="17" t="n">
-        <v>3.049</v>
+        <v>3.068</v>
       </c>
       <c r="H21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I21" s="17" t="n">
-        <v>3.068</v>
+        <v>3.093</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>0.0062</v>
+        <v>0.0081</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>22.8</v>
+        <v>30</v>
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:04</t>
+          <t>2019-11-05 12:05</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
@@ -1954,7 +1954,7 @@
         <v>2162</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>1.625</v>
+        <v>1.634</v>
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="17" t="n">
-        <v>1.634</v>
+        <v>1.642</v>
       </c>
       <c r="J22" s="20" t="n">
-        <v>0.0055</v>
+        <v>0.0049</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>82.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:04</t>
+          <t>2019-11-05 12:05</t>
         </is>
       </c>
       <c r="M22" s="19" t="inlineStr">
@@ -2023,7 +2023,7 @@
         <v>1972.8</v>
       </c>
       <c r="G23" s="17" t="n">
-        <v>1.39</v>
+        <v>1.408</v>
       </c>
       <c r="H23" s="19" t="inlineStr">
         <is>
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="17" t="n">
-        <v>1.408</v>
+        <v>1.41</v>
       </c>
       <c r="J23" s="20" t="n">
-        <v>0.0129</v>
+        <v>0.0014</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>259.2</v>
+        <v>28.8</v>
       </c>
       <c r="L23" s="19" t="inlineStr">
         <is>
-          <t>2019-11-04 15:04</t>
+          <t>2019-11-05 12:05</t>
         </is>
       </c>
       <c r="M23" s="19" t="inlineStr">
@@ -2092,25 +2092,25 @@
         <v>165.57</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>1.9673</v>
+        <v>1.9763</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>1.9768</v>
+        <v>1.9881</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>36.23</v>
+        <v>45</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2161,25 +2161,25 @@
         <v>-64.73</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5422</v>
+        <v>0.5438</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5441</v>
+        <v>0.5449000000000001</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0035</v>
+        <v>0.002</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>18.47</v>
+        <v>10.69</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2230,25 +2230,25 @@
         <v>57.43</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9619</v>
+        <v>0.9649</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0062</v>
+        <v>0.0036</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>29.17</v>
+        <v>17.3</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2299,25 +2299,25 @@
         <v>64.13</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.551</v>
+        <v>0.554</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5537</v>
+        <v>0.5573</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>19.92</v>
+        <v>24.35</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2368,25 +2368,25 @@
         <v>121.6</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7592</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7592</v>
+        <v>0.7597</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K28" s="21" t="n">
-        <v>-1.82</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>2.28</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2437,25 +2437,25 @@
         <v>62.92</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.112</v>
+        <v>1.114</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.1143</v>
+        <v>1.1193</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0021</v>
+        <v>0.0048</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>7.03</v>
+        <v>16.2</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2506,25 +2506,25 @@
         <v>33.88</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9519</v>
+        <v>0.9578</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9589</v>
+        <v>0.9606</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0073</v>
+        <v>0.0029</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>5.15</v>
+        <v>2.06</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2575,25 +2575,25 @@
         <v>33.3</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.748</v>
+        <v>1.7606</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.7608</v>
+        <v>1.7658</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0073</v>
+        <v>0.0029</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>5.13</v>
+        <v>2.08</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2644,25 +2644,25 @@
         <v>0.84</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.9979</v>
+        <v>0.999</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.9991</v>
+        <v>1.0155</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0012</v>
+        <v>0.0165</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>0.34</v>
+        <v>4.65</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2713,21 +2713,21 @@
         <v>2.38</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.3794</v>
+        <v>0.3925</v>
       </c>
       <c r="J33" s="27" t="n">
         <v>0.0038</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>7.42</v>
+        <v>7.95</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
@@ -2782,15 +2782,15 @@
         <v>59.77</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.26</v>
+        <v>1.273</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.2636</v>
+        <v>1.2766</v>
       </c>
       <c r="J34" s="27" t="n">
         <v>0.0028</v>
@@ -2851,25 +2851,25 @@
         <v>31.38</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.5193</v>
+        <v>1.5413</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5431</v>
+        <v>1.5491</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0157</v>
+        <v>0.0051</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>10.94</v>
+        <v>3.59</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 12:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2989,25 +2989,25 @@
         <v>59.23</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.9673</v>
+        <v>1.9763</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.9768</v>
+        <v>1.9881</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>9.94</v>
+        <v>12.35</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3058,25 +3058,25 @@
         <v>30.4</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.112</v>
+        <v>1.114</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1143</v>
+        <v>1.1193</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0021</v>
+        <v>0.0048</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>4.2</v>
+        <v>9.68</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3127,25 +3127,25 @@
         <v>88.83</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.028</v>
+        <v>1.034</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0343</v>
+        <v>1.0429</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0062</v>
+        <v>0.0086</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>6.67</v>
+        <v>9.43</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3196,25 +3196,25 @@
         <v>-1.2</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.551</v>
+        <v>0.554</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5537</v>
+        <v>0.5573</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>4.89</v>
+        <v>5.98</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3265,25 +3265,25 @@
         <v>-67.95</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7592</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.7592</v>
+        <v>0.7597</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K41" s="21" t="n">
-        <v>-0.49</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>0.61</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3334,25 +3334,25 @@
         <v>304.64</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.2563</v>
+        <v>1.2536</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2544</v>
+        <v>1.2495</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0015</v>
+        <v>-0.0033</v>
       </c>
       <c r="K42" s="21" t="n">
-        <v>-3.49</v>
+        <v>-7.52</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05 02:29</t>
+          <t>2019-11-05 11:34</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3403,15 +3403,15 @@
         <v>133.77</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.26</v>
+        <v>1.273</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.2636</v>
+        <v>1.2766</v>
       </c>
       <c r="J43" s="27" t="n">
         <v>0.0028</v>
@@ -3472,25 +3472,25 @@
         <v>46.83</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5193</v>
+        <v>1.5413</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5431</v>
+        <v>1.5491</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0157</v>
+        <v>0.0051</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>16.4</v>
+        <v>5.37</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 12:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3610,21 +3610,21 @@
         <v>-166.82</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>0.3794</v>
+        <v>0.3925</v>
       </c>
       <c r="J46" s="27" t="n">
         <v>0.0038</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
@@ -3679,25 +3679,25 @@
         <v>6031.53</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.112</v>
+        <v>1.114</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.1143</v>
+        <v>1.1193</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0021</v>
+        <v>0.0048</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>149.65</v>
+        <v>344.84</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3748,25 +3748,25 @@
         <v>2496.44</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.956</v>
+        <v>0.9614</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9619</v>
+        <v>0.9649</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0036</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>374.59</v>
+        <v>222.21</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3817,25 +3817,25 @@
         <v>5125.48</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1469</v>
+        <v>1.1518</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.149</v>
+        <v>1.1538</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>67.98</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3886,25 +3886,25 @@
         <v>5036.81</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>0.8679</v>
+        <v>0.8778</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>0.878</v>
+        <v>0.8788</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0116</v>
+        <v>0.0011</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>414.25</v>
+        <v>41.01</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3955,25 +3955,25 @@
         <v>1765.62</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.681</v>
+        <v>1.685</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.685</v>
+        <v>1.6931</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0024</v>
+        <v>0.0048</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>80.34999999999999</v>
+        <v>162.7</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4093,25 +4093,25 @@
         <v>4930.6</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.65</v>
+        <v>1.659</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6602</v>
+        <v>1.6716</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0076</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>149.17</v>
+        <v>184.27</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4162,25 +4162,25 @@
         <v>4338.52</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.1122</v>
+        <v>1.1162</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.1164</v>
+        <v>1.1309</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0038</v>
+        <v>0.0132</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>88.89</v>
+        <v>311.11</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4231,15 +4231,15 @@
         <v>1940.87</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.26</v>
+        <v>1.273</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.2636</v>
+        <v>1.2766</v>
       </c>
       <c r="J55" s="33" t="n">
         <v>0.0028</v>
@@ -4300,25 +4300,25 @@
         <v>2542.99</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.61</v>
+        <v>1.616</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6178</v>
+        <v>1.6257</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>74.33</v>
+        <v>92.44</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4369,21 +4369,21 @@
         <v>-5112.91</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.3794</v>
+        <v>0.3925</v>
       </c>
       <c r="J57" s="33" t="n">
         <v>0.0038</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>52.17</v>
+        <v>55.9</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
@@ -4438,25 +4438,25 @@
         <v>428.99</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.5193</v>
+        <v>1.5413</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.5431</v>
+        <v>1.5491</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0157</v>
+        <v>0.0051</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>161.8</v>
+        <v>53.03</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 16:00</t>
+          <t>2019-11-05 12:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4507,25 +4507,25 @@
         <v>1974.89</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.748</v>
+        <v>1.7606</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.7608</v>
+        <v>1.7658</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0073</v>
+        <v>0.0029</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>61.33</v>
+        <v>24.91</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4645,25 +4645,25 @@
         <v>867.6</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5422</v>
+        <v>0.5438</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5441</v>
+        <v>0.5449000000000001</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0035</v>
+        <v>0.002</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>25.47</v>
+        <v>14.74</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4714,25 +4714,25 @@
         <v>806.42</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.3524</v>
+        <v>1.3573</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3562</v>
+        <v>1.3654</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0028</v>
+        <v>0.006</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>20.25</v>
+        <v>43.16</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4783,25 +4783,25 @@
         <v>-222.48</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.8713</v>
+        <v>0.8753</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.8754999999999999</v>
+        <v>0.8804999999999999</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>32.67</v>
+        <v>40.45</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4852,25 +4852,25 @@
         <v>-434.87</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7592</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7592</v>
+        <v>0.7597</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K64" s="21" t="n">
-        <v>-3.14</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>3.93</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4921,25 +4921,25 @@
         <v>-93.44</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.9515</v>
+        <v>0.957</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9571</v>
+        <v>0.9581</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0059</v>
+        <v>0.0011</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>20.05</v>
+        <v>3.94</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04 15:00</t>
+          <t>2019-11-05 11:30</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -64,7 +64,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005587F0"/>
+        <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -555,26 +555,26 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6558</v>
+        <v>1.4242</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2068.76</v>
+        <v>2300.33</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3405.18</v>
+        <v>3392.99</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-20.18</v>
+        <v>116.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.646</v>
+        <v>1.478</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6346</v>
+        <v>1.4755</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0069</v>
+        <v>-0.0017</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-23.58</v>
+        <v>-5.75</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
@@ -602,17 +602,17 @@
       </c>
       <c r="N2" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O2" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P2" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q2" s="6" t="inlineStr">
@@ -624,26 +624,26 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4242</v>
+        <v>1.6558</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2300.33</v>
+        <v>2068.76</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3399.89</v>
+        <v>3382.42</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>123.73</v>
+        <v>-42.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.478</v>
+        <v>1.646</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4755</v>
+        <v>1.6346</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0017</v>
+        <v>-0.0069</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-5.75</v>
+        <v>-23.58</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
@@ -671,17 +671,17 @@
       </c>
       <c r="N3" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q3" s="6" t="inlineStr">
@@ -706,10 +706,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3372.81</v>
+        <v>3349.75</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>325.87</v>
+        <v>302.81</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.4923</v>
@@ -775,10 +775,10 @@
         <v>3032.5</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2831.75</v>
+        <v>2807.19</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.79</v>
+        <v>-30.35</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9338</v>
@@ -844,10 +844,10 @@
         <v>1170.98</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2221.11</v>
+        <v>2206.83</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126.31</v>
+        <v>112.03</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8968</v>
@@ -913,10 +913,10 @@
         <v>843.41</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1866.38</v>
+        <v>1854.66</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82.41</v>
+        <v>70.69</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.2129</v>
@@ -982,10 +982,10 @@
         <v>623.23</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>601.04</v>
+        <v>597.86</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.52</v>
+        <v>0.34</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9644</v>
@@ -1051,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>518.59</v>
+        <v>516.39</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-22.3</v>
+        <v>-24.5</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9422</v>
@@ -1120,10 +1120,10 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>425.07</v>
+        <v>422.84</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68.29000000000001</v>
+        <v>66.06</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.7992</v>
@@ -1189,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336.91</v>
+        <v>335.42</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23.65</v>
+        <v>22.16</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.359</v>
@@ -1258,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90.22</v>
+        <v>90.08</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.49</v>
+        <v>-2.63</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4886</v>
@@ -1327,10 +1327,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9170.74</v>
+        <v>9155.68</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2829.26</v>
+        <v>-2844.32</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5481</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -2017,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7578.85</v>
+        <v>7502.19</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>241.85</v>
+        <v>165.19</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.9873</v>
@@ -2086,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5328.63</v>
+        <v>5319.88</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-7.37</v>
+        <v>-16.12</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5481</v>
@@ -2155,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4767.95</v>
+        <v>4742.74</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>98.95999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="G25" s="24" t="n">
         <v>0.9644</v>
@@ -2224,10 +2224,10 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4117.78</v>
+        <v>4073.51</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>115.78</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.5580000000000001</v>
@@ -2293,10 +2293,10 @@
         <v>4550.55</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>3457.51</v>
+        <v>3408.82</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>122.51</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>0.7598</v>
@@ -2362,10 +2362,10 @@
         <v>3055.68</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3419.31</v>
+        <v>3400.97</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>84.31</v>
+        <v>65.97</v>
       </c>
       <c r="G28" s="24" t="n">
         <v>1.119</v>
@@ -2431,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>710.5599999999999</v>
+        <v>706.47</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>43.56</v>
+        <v>39.47</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>1.7736</v>
@@ -2500,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>710.16</v>
+        <v>706.04</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>43.16</v>
+        <v>39.04</v>
       </c>
       <c r="G30" s="24" t="n">
         <v>0.9645</v>
@@ -2569,10 +2569,10 @@
         <v>281.57</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>284.92</v>
+        <v>282.13</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>4.78</v>
+        <v>1.99</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>1.0119</v>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.4063</v>
+        <v>0.4059</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>1.59</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.53</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,10 +2707,10 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>757.34</v>
+        <v>753.3</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>90.34</v>
+        <v>86.3</v>
       </c>
       <c r="G33" s="24" t="n">
         <v>1.313</v>
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3137</v>
+        <v>1.3129</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0.4</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-0.06</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,10 +2776,10 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>711.66</v>
+        <v>709.6799999999999</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>44.66</v>
+        <v>42.68</v>
       </c>
       <c r="G34" s="24" t="n">
         <v>1.5482</v>
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>742.05</v>
+        <v>740.83</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>75.05</v>
+        <v>73.83</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2080.17</v>
+        <v>2059.13</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>80.17</v>
+        <v>59.13</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.9873</v>
@@ -2983,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2043.18</v>
+        <v>2032.23</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>43.18</v>
+        <v>32.23</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.119</v>
@@ -3052,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1101.54</v>
+        <v>1098.36</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>101.54</v>
+        <v>98.36</v>
       </c>
       <c r="G38" s="24" t="n">
         <v>1.04</v>
@@ -3121,10 +3121,10 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1011.49</v>
+        <v>1000.61</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>11.49</v>
+        <v>0.61</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.5580000000000001</v>
@@ -3190,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>932.3</v>
+        <v>919.17</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-67.7</v>
+        <v>-80.83</v>
       </c>
       <c r="G40" s="24" t="n">
         <v>0.7598</v>
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2289.42</v>
+        <v>2256.21</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>289.42</v>
+        <v>256.21</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.248</v>
+        <v>1.2299</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2299</v>
+        <v>1.2341</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0145</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-33.2</v>
+        <v>0.0034</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>7.7</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:30</t>
+          <t>2019-11-07 02:29</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,10 +3328,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1181.46</v>
+        <v>1175.16</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>181.46</v>
+        <v>175.16</v>
       </c>
       <c r="G42" s="24" t="n">
         <v>1.313</v>
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3137</v>
+        <v>1.3129</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>0.63</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,10 +3397,10 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1066.74</v>
+        <v>1063.78</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>66.73999999999999</v>
+        <v>63.78</v>
       </c>
       <c r="G43" s="24" t="n">
         <v>1.5482</v>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.4063</v>
+        <v>0.4059</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>1.43</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-0.48</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1157.15</v>
+        <v>1155.25</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>157.15</v>
+        <v>155.25</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>72806.98</v>
+        <v>72416.59</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>6486.98</v>
+        <v>6096.59</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.119</v>
@@ -3673,10 +3673,10 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>61229.75</v>
+        <v>60905.95</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>3029.75</v>
+        <v>2705.95</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>0.9644</v>
@@ -3742,10 +3742,10 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37465.37</v>
+        <v>37397.39</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5465.37</v>
+        <v>5397.39</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>1.1574</v>
@@ -3811,10 +3811,10 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36027.47</v>
+        <v>35855.2</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5467.47</v>
+        <v>5295.2</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>0.8784</v>
@@ -3880,10 +3880,10 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34046.83</v>
+        <v>34006.66</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2046.83</v>
+        <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
         <v>1.695</v>
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>25129.27</v>
+        <v>25087.83</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2529.27</v>
+        <v>2487.83</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24423.09</v>
+        <v>24306.1</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5223.09</v>
+        <v>5106.1</v>
       </c>
       <c r="G52" s="30" t="n">
         <v>1.67</v>
@@ -4087,10 +4087,10 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23832.7</v>
+        <v>23769.2</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4632.7</v>
+        <v>4569.2</v>
       </c>
       <c r="G53" s="30" t="n">
         <v>1.1261</v>
@@ -4156,10 +4156,10 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22030.13</v>
+        <v>21912.68</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2830.13</v>
+        <v>2712.68</v>
       </c>
       <c r="G54" s="30" t="n">
         <v>1.313</v>
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.3137</v>
+        <v>1.3129</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>11.74</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-1.68</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,10 +4225,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15505</v>
+        <v>15352.52</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2705</v>
+        <v>2552.52</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.627</v>
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.4063</v>
+        <v>0.4059</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>11.18</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-3.73</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 05:00</t>
+          <t>2019-11-07 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,10 +4363,10 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10525.46</v>
+        <v>10496.23</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>625.46</v>
+        <v>596.23</v>
       </c>
       <c r="G57" s="30" t="n">
         <v>1.5482</v>
@@ -4432,10 +4432,10 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8497.540000000001</v>
+        <v>8448.67</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2097.54</v>
+        <v>2048.67</v>
       </c>
       <c r="G58" s="30" t="n">
         <v>1.7736</v>
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7561.99</v>
+        <v>7556.38</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2416.87</v>
+        <v>2411.26</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7346.68</v>
+        <v>7334.62</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>946.6799999999999</v>
+        <v>934.62</v>
       </c>
       <c r="G60" s="30" t="n">
         <v>0.5481</v>
@@ -4639,10 +4639,10 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7281.02</v>
+        <v>7268.77</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>881.02</v>
+        <v>868.77</v>
       </c>
       <c r="G61" s="30" t="n">
         <v>1.3664</v>
@@ -4708,10 +4708,10 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6854.53</v>
+        <v>6789.97</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-145.47</v>
+        <v>-210.03</v>
       </c>
       <c r="G62" s="30" t="n">
         <v>0.8812</v>
@@ -4777,10 +4777,10 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>5966.7</v>
+        <v>5882.67</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-433.3</v>
+        <v>-517.33</v>
       </c>
       <c r="G63" s="30" t="n">
         <v>0.7598</v>
@@ -4846,10 +4846,10 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3433.41</v>
+        <v>3402.62</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-66.59</v>
+        <v>-97.38</v>
       </c>
       <c r="G64" s="30" t="n">
         <v>0.959</v>
@@ -4900,6 +4900,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009933"/>
+        <fgColor rgb="00FE0002"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DD2200"/>
+        <fgColor rgb="00009900"/>
       </patternFill>
     </fill>
     <fill>
@@ -574,25 +574,25 @@
         <v>116.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.478</v>
+        <v>1.475</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4755</v>
+        <v>1.4784</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0023</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-5.75</v>
+        <v>7.82</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -643,25 +643,25 @@
         <v>-42.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.646</v>
+        <v>1.635</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6346</v>
+        <v>1.644</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0069</v>
+        <v>0.0055</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-23.58</v>
+        <v>18.62</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -712,25 +712,25 @@
         <v>302.81</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4923</v>
+        <v>1.4821</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4926</v>
+        <v>1.4801</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.68</v>
+        <v>-4.52</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -781,25 +781,25 @@
         <v>-30.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9338</v>
+        <v>0.9257</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9319</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.0067</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-25.47</v>
+        <v>18.8</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -850,25 +850,25 @@
         <v>112.03</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8968</v>
+        <v>1.8846</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8844</v>
+        <v>1.895</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0.0055</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-14.52</v>
+        <v>12.18</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -919,25 +919,25 @@
         <v>70.69</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2129</v>
+        <v>2.199</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2099</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0063</v>
+        <v>0.0049</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-11.72</v>
+        <v>9.19</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -988,25 +988,25 @@
         <v>0.34</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.9684</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0054</v>
+        <v>0.0095</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-3.24</v>
+        <v>5.67</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1057,25 +1057,25 @@
         <v>-24.5</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9422</v>
+        <v>0.9382</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9401</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0041</v>
+        <v>0.002</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-2.09</v>
+        <v>1.05</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1126,25 +1126,25 @@
         <v>66.06</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7992</v>
+        <v>0.795</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8054</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.0131</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-2.23</v>
+        <v>5.53</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1195,25 +1195,25 @@
         <v>22.16</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.359</v>
+        <v>1.353</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.3583</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0039</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-0.62</v>
+        <v>1.31</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1264,25 +1264,25 @@
         <v>-2.63</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4886</v>
+        <v>1.4862</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4861</v>
+        <v>1.4893</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0021</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.15</v>
+        <v>0.19</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1333,25 +1333,25 @@
         <v>-2844.32</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5481</v>
+        <v>0.5472</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5473</v>
+        <v>0.5487</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0015</v>
+        <v>0.0027</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-13.39</v>
+        <v>25.1</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1402,7 +1402,7 @@
         <v>2003.4</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>3.086</v>
+        <v>3.079</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.079</v>
+        <v>3.09</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.0023</v>
+        <v>0.0036</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-18.9</v>
+        <v>29.7</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1471,7 +1471,7 @@
         <v>5441.8</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>4.062</v>
+        <v>4.045</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>4.045</v>
+        <v>4.068</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0042</v>
+        <v>0.0057</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-154.7</v>
+        <v>209.3</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1540,7 +1540,7 @@
         <v>-8862.4</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.421</v>
+        <v>5.374</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.374</v>
+        <v>5.422</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.008699999999999999</v>
+        <v>0.0089</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-1795.4</v>
+        <v>1833.6</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1609,25 +1609,25 @@
         <v>-5002.4</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
         <v>0.729</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0014</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-33.8</v>
+        <v>0</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1678,7 +1678,7 @@
         <v>5035.8</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.947</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0106</v>
+        <v>0.0064</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-327</v>
+        <v>196.2</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1747,25 +1747,25 @@
         <v>-4228.4</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.756</v>
+        <v>0.745</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.745</v>
+        <v>0.753</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0146</v>
+        <v>0.0107</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-375.1</v>
+        <v>272.8</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1816,7 +1816,7 @@
         <v>2056.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.362</v>
+        <v>3.313</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.313</v>
+        <v>3.332</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0146</v>
+        <v>0.0057</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-220.5</v>
+        <v>85.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1885,7 +1885,7 @@
         <v>2198.8</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.649</v>
+        <v>1.638</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.638</v>
+        <v>1.656</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0067</v>
+        <v>0.011</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-101.2</v>
+        <v>165.6</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:04</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1954,25 +1954,25 @@
         <v>1872</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.408</v>
+        <v>1.401</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.401</v>
+        <v>1.42</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.005</v>
+        <v>0.0136</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-100.8</v>
+        <v>273.6</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06 15:04</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2023,25 +2023,25 @@
         <v>165.19</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9873</v>
+        <v>1.9672</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9682</v>
+        <v>1.9822</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-72.84</v>
+        <v>57.2</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2092,25 +2092,25 @@
         <v>-16.12</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5481</v>
+        <v>0.5472</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5473</v>
+        <v>0.5487</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0015</v>
+        <v>0.0027</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-7.78</v>
+        <v>14.58</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2161,25 +2161,25 @@
         <v>73.73999999999999</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.9684</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0054</v>
+        <v>0.0095</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-25.71</v>
+        <v>44.99</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2230,25 +2230,25 @@
         <v>71.51000000000001</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5526</v>
+        <v>0.5562</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-39.85</v>
+        <v>30.99</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2299,25 +2299,25 @@
         <v>73.81999999999999</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.7598</v>
+        <v>0.7491</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.7487</v>
+        <v>0.7563</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0146</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-50.51</v>
+        <v>32.76</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2368,25 +2368,25 @@
         <v>65.97</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.119</v>
+        <v>1.113</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1112</v>
+        <v>1.1193</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0069</v>
+        <v>0.0057</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-23.83</v>
+        <v>19.25</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2437,25 +2437,25 @@
         <v>39.47</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7736</v>
+        <v>1.7634</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7635</v>
+        <v>1.7817</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0057</v>
+        <v>0.0104</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-4.05</v>
+        <v>7.33</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2506,25 +2506,25 @@
         <v>39.04</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9645</v>
+        <v>0.9589</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.959</v>
+        <v>0.9685</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0057</v>
+        <v>0.01</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-4.05</v>
+        <v>7.07</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2575,25 +2575,25 @@
         <v>1.99</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.0119</v>
+        <v>1.002</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0013</v>
+        <v>1.0092</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0105</v>
+        <v>0.0072</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-2.98</v>
+        <v>2.03</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
@@ -2657,7 +2657,7 @@
       <c r="J32" s="27" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="9" t="n">
         <v>-0.53</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
@@ -2713,20 +2713,20 @@
         <v>86.3</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.313</v>
+        <v>1.306</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3129</v>
+        <v>1.3059</v>
       </c>
       <c r="J33" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="9" t="n">
         <v>-0.06</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
@@ -2782,25 +2782,25 @@
         <v>42.68</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.5482</v>
+        <v>1.5439</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5485</v>
+        <v>1.5417</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>0.14</v>
+        <v>-1.01</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K35" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2920,25 +2920,25 @@
         <v>59.13</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9873</v>
+        <v>1.9672</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9682</v>
+        <v>1.9822</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-19.99</v>
+        <v>15.7</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2989,25 +2989,25 @@
         <v>32.23</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.119</v>
+        <v>1.113</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1112</v>
+        <v>1.1193</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0069</v>
+        <v>0.0057</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-14.24</v>
+        <v>11.5</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3058,25 +3058,25 @@
         <v>98.36</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0376</v>
+        <v>1.039</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0023</v>
+        <v>0.0019</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-2.54</v>
+        <v>2.12</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3127,25 +3127,25 @@
         <v>0.61</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5526</v>
+        <v>0.5562</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-9.789999999999999</v>
+        <v>7.61</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3196,25 +3196,25 @@
         <v>-80.83</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7598</v>
+        <v>0.7491</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7487</v>
+        <v>0.7563</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0146</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-13.62</v>
+        <v>8.83</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2341</v>
+        <v>1.2348</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>7.7</v>
+        <v>0.004</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>8.99</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 02:29</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3334,20 +3334,20 @@
         <v>175.16</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.313</v>
+        <v>1.306</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3129</v>
+        <v>1.3059</v>
       </c>
       <c r="J42" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="9" t="n">
         <v>-0.09</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
@@ -3403,25 +3403,25 @@
         <v>63.78</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.5482</v>
+        <v>1.5439</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5485</v>
+        <v>1.5417</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>0.21</v>
+        <v>-1.52</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
@@ -3485,7 +3485,7 @@
       <c r="J44" s="27" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="9" t="n">
         <v>-0.48</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3610,25 +3610,25 @@
         <v>6096.59</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.119</v>
+        <v>1.113</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1112</v>
+        <v>1.1193</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0069</v>
+        <v>0.0057</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-507.5</v>
+        <v>409.91</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3679,25 +3679,25 @@
         <v>2705.95</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9644</v>
+        <v>0.9593</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.9684</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0054</v>
+        <v>0.0095</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-330.15</v>
+        <v>577.76</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3748,25 +3748,25 @@
         <v>5397.39</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1574</v>
+        <v>1.1553</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.156</v>
+        <v>1.1564</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-45.32</v>
+        <v>35.61</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3817,25 +3817,25 @@
         <v>5295.2</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.8742</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8742</v>
+        <v>0.8845</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0048</v>
+        <v>0.0118</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-172.26</v>
+        <v>422.45</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3886,25 +3886,25 @@
         <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.695</v>
+        <v>1.693</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6929</v>
+        <v>1.6947</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-42.18</v>
+        <v>34.15</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3968,7 +3968,7 @@
       <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="9" t="n">
+      <c r="K51" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
@@ -4024,25 +4024,25 @@
         <v>5106.1</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.67</v>
+        <v>1.662</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6629</v>
+        <v>1.6677</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0043</v>
+        <v>0.0034</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-103.83</v>
+        <v>83.36</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4093,25 +4093,25 @@
         <v>4569.2</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.1261</v>
+        <v>1.1231</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.123</v>
+        <v>1.1265</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0028</v>
+        <v>0.003</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-65.61</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4162,20 +4162,20 @@
         <v>2712.68</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.313</v>
+        <v>1.306</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.3059</v>
       </c>
       <c r="J54" s="33" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="9" t="n">
         <v>-1.68</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
@@ -4231,25 +4231,25 @@
         <v>2552.52</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.627</v>
+        <v>1.611</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6114</v>
+        <v>1.6232</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-148.67</v>
+        <v>116.26</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
@@ -4313,7 +4313,7 @@
       <c r="J56" s="33" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="9" t="n">
         <v>-3.73</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
@@ -4369,25 +4369,25 @@
         <v>596.23</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.5482</v>
+        <v>1.5439</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5485</v>
+        <v>1.5417</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>2.04</v>
+        <v>-14.96</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 16:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4438,25 +4438,25 @@
         <v>2048.67</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7736</v>
+        <v>1.7634</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7635</v>
+        <v>1.7817</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0057</v>
+        <v>0.0104</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-48.39</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:45</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="9" t="n">
+      <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4576,25 +4576,25 @@
         <v>934.62</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5481</v>
+        <v>0.5472</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5473</v>
+        <v>0.5487</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0015</v>
+        <v>0.0027</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-10.72</v>
+        <v>20.11</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4645,25 +4645,25 @@
         <v>868.77</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3664</v>
+        <v>1.3641</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3651</v>
+        <v>1.3661</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0009</v>
+        <v>0.0015</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-6.93</v>
+        <v>10.66</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4714,25 +4714,25 @@
         <v>-210.03</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8812</v>
+        <v>0.8729</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8727</v>
+        <v>0.8794999999999999</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-66.12</v>
+        <v>51.34</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4783,25 +4783,25 @@
         <v>-517.33</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7598</v>
+        <v>0.7491</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7487</v>
+        <v>0.7563</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0146</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-87.17</v>
+        <v>56.54</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:46</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4852,25 +4852,25 @@
         <v>-97.38</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.959</v>
+        <v>0.9504</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.951</v>
+        <v>0.9564</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.008399999999999999</v>
+        <v>0.0063</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-28.64</v>
+        <v>21.48</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06 15:00</t>
+          <t>2019-11-07 10:47</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FE0002"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009900"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -578,21 +578,21 @@
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4784</v>
+        <v>1.4754</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0023</v>
+        <v>0.0003</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>7.82</v>
+        <v>0.92</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2068.76</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3382.42</v>
+        <v>3392.77</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-42.94</v>
+        <v>-32.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.635</v>
+        <v>1.64</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.644</v>
+        <v>1.6456</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0034</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>18.62</v>
+        <v>11.59</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3349.75</v>
+        <v>3374.16</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>302.81</v>
+        <v>327.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4821</v>
+        <v>1.4929</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4801</v>
+        <v>1.4862</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0014</v>
+        <v>-0.0045</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>-4.52</v>
+        <v>-15.14</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3032.5</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2807.19</v>
+        <v>2822.65</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.35</v>
+        <v>-14.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9257</v>
+        <v>0.9308</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9319</v>
+        <v>0.9347</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0067</v>
+        <v>0.0042</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>18.8</v>
+        <v>11.83</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1170.98</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2206.83</v>
+        <v>2216.2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112.03</v>
+        <v>121.4</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8846</v>
+        <v>1.8926</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.895</v>
+        <v>1.8982</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0029</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>12.18</v>
+        <v>6.56</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>843.41</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1854.66</v>
+        <v>1861.24</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70.69</v>
+        <v>77.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.199</v>
+        <v>2.2068</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2099</v>
+        <v>2.2139</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0049</v>
+        <v>0.0032</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>9.19</v>
+        <v>5.99</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>623.23</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>597.86</v>
+        <v>603.04</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.34</v>
+        <v>5.52</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9684</v>
+        <v>0.972</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0095</v>
+        <v>0.0046</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>5.67</v>
+        <v>2.74</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>516.39</v>
+        <v>518.04</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-24.5</v>
+        <v>-22.85</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9382</v>
+        <v>0.9412</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9401</v>
+        <v>0.9433</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.002</v>
+        <v>0.0022</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>422.84</v>
+        <v>427.84</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66.06</v>
+        <v>71.06</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.795</v>
+        <v>0.8044</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8054</v>
+        <v>0.8045</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0131</v>
+        <v>0.0001</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>5.53</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335.42</v>
+        <v>336.91</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.16</v>
+        <v>23.65</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.353</v>
+        <v>1.359</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3583</v>
+        <v>1.3582</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>1.31</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90.08</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.63</v>
+        <v>-2.67</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4862</v>
+        <v>1.4856</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4893</v>
+        <v>1.4859</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0021</v>
+        <v>0.0002</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9155.68</v>
+        <v>9160.700000000001</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2844.32</v>
+        <v>-2839.3</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5472</v>
+        <v>0.5475</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5487</v>
+        <v>0.5493</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0027</v>
+        <v>0.0033</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>25.1</v>
+        <v>30.12</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8313.299999999999</v>
+        <v>8334.9</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>2003.4</v>
+        <v>2025</v>
       </c>
       <c r="G14" s="18" t="n">
         <v>3.079</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.09</v>
+        <v>3.088</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0036</v>
+        <v>0.0029</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>29.7</v>
+        <v>24.3</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36809.5</v>
+        <v>37009.7</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>5441.8</v>
+        <v>5642</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>4.045</v>
+        <v>4.05</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>4.068</v>
+        <v>4.067</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0057</v>
+        <v>0.0042</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>209.3</v>
+        <v>154.7</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>38200</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>205286.8</v>
+        <v>207769.8</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-8862.4</v>
+        <v>-6379.4</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.374</v>
+        <v>5.409</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.422</v>
+        <v>5.44</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0089</v>
+        <v>0.0057</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1833.6</v>
+        <v>1184.2</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24640.2</v>
+        <v>24707.8</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5002.4</v>
+        <v>-4934.8</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>0</v>
+        <v>135.2</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30639.9</v>
+        <v>30836.1</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>5035.8</v>
+        <v>5232</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0064</v>
+        <v>0.0032</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>196.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>25404.5</v>
+        <v>25916</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-4228.4</v>
+        <v>-3716.9</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.745</v>
+        <v>0.752</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.753</v>
+        <v>0.76</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0107</v>
+        <v>0.0106</v>
       </c>
       <c r="K19" s="8" t="n">
         <v>272.8</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14908.5</v>
+        <v>14683.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>2056.5</v>
+        <v>1831.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.313</v>
+        <v>3.331</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.332</v>
+        <v>3.264</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>85.5</v>
+        <v>-0.0201</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-301.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15069.6</v>
+        <v>15235.2</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2198.8</v>
+        <v>2364.4</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.638</v>
+        <v>1.651</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
         <v>1.656</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>165.6</v>
+        <v>46</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20174.4</v>
+        <v>20404.8</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>1872</v>
+        <v>2102.4</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.401</v>
+        <v>1.416</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.42</v>
+        <v>1.418</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0136</v>
+        <v>0.0014</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>273.6</v>
+        <v>28.8</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7502.19</v>
+        <v>7543.76</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>165.19</v>
+        <v>206.76</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9672</v>
+        <v>1.9781</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9822</v>
+        <v>1.9869</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0045</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>57.2</v>
+        <v>33.56</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5319.88</v>
+        <v>5322.8</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-16.12</v>
+        <v>-13.21</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5472</v>
+        <v>0.5475</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5487</v>
+        <v>0.5493</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0027</v>
+        <v>0.0033</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>14.58</v>
+        <v>17.5</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4742.74</v>
+        <v>4783.78</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>73.73999999999999</v>
+        <v>114.78</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9684</v>
+        <v>0.972</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0095</v>
+        <v>0.0046</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>44.99</v>
+        <v>21.75</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4073.51</v>
+        <v>4103.02</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>71.51000000000001</v>
+        <v>101.02</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.552</v>
+        <v>0.556</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5562</v>
+        <v>0.5584</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0043</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>30.99</v>
+        <v>17.71</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>4550.55</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>3408.82</v>
+        <v>3439.31</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>73.81999999999999</v>
+        <v>104.31</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.7491</v>
+        <v>0.7558</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.7563</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>32.76</v>
+        <v>35.49</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3055.68</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3400.97</v>
+        <v>3410.14</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>65.97</v>
+        <v>75.14</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.113</v>
+        <v>1.116</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1193</v>
+        <v>1.1198</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0057</v>
+        <v>0.0034</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>19.25</v>
+        <v>11.61</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>706.47</v>
+        <v>711.36</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>39.47</v>
+        <v>44.36</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7634</v>
+        <v>1.7756</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7817</v>
+        <v>1.7802</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0104</v>
+        <v>0.0026</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>7.33</v>
+        <v>1.84</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>706.04</v>
+        <v>710.8200000000001</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>39.04</v>
+        <v>43.82</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9589</v>
+        <v>0.9654</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9685</v>
+        <v>0.9679</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.01</v>
+        <v>0.0026</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>7.07</v>
+        <v>1.84</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>281.57</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>282.13</v>
+        <v>283.54</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>1.99</v>
+        <v>3.4</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.002</v>
+        <v>1.007</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0092</v>
+        <v>1.0095</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0072</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>2.03</v>
+        <v>0.7</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2151.78</v>
+        <v>2082.88</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>150.78</v>
+        <v>81.88</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.406</v>
+        <v>0.393</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.4059</v>
+        <v>0.3955</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>-0.53</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>13.25</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>753.3</v>
+        <v>746.96</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>86.3</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.306</v>
+        <v>1.295</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3059</v>
+        <v>1.301</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>-0.06</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>3.46</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>709.6799999999999</v>
+        <v>713.41</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>42.68</v>
+        <v>46.41</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.5439</v>
+        <v>1.552</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5417</v>
+        <v>1.545</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0014</v>
+        <v>-0.0045</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-1.01</v>
+        <v>-3.22</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>740.83</v>
+        <v>735.9400000000001</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>73.83</v>
+        <v>68.94</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2059.13</v>
+        <v>2070.54</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>59.13</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9672</v>
+        <v>1.9781</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9822</v>
+        <v>1.9869</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0045</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>15.7</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2032.23</v>
+        <v>2037.7</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>32.23</v>
+        <v>37.7</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.113</v>
+        <v>1.116</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1193</v>
+        <v>1.1198</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0057</v>
+        <v>0.0034</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>11.5</v>
+        <v>6.94</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3062,21 +3062,21 @@
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.039</v>
+        <v>1.0386</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0019</v>
+        <v>0.0015</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1000.61</v>
+        <v>1007.86</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>0.61</v>
+        <v>7.86</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.552</v>
+        <v>0.556</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5562</v>
+        <v>0.5584</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0043</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>7.61</v>
+        <v>4.35</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>919.17</v>
+        <v>927.39</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-80.83</v>
+        <v>-72.61</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7491</v>
+        <v>0.7558</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7563</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>8.83</v>
+        <v>9.57</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2256.21</v>
+        <v>2255.11</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>256.21</v>
+        <v>255.11</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2299</v>
+        <v>1.2293</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2348</v>
+        <v>1.2109</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>8.99</v>
+        <v>-0.015</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-33.75</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1175.16</v>
+        <v>1165.27</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>175.16</v>
+        <v>165.27</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.306</v>
+        <v>1.295</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3059</v>
+        <v>1.301</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>-0.09</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>5.4</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1063.78</v>
+        <v>1069.36</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>63.78</v>
+        <v>69.36</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.5439</v>
+        <v>1.552</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5417</v>
+        <v>1.545</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0014</v>
+        <v>-0.0045</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>-1.52</v>
+        <v>-4.82</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1931.71</v>
+        <v>1869.85</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-68.29000000000001</v>
+        <v>-130.15</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.406</v>
+        <v>0.393</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.4059</v>
+        <v>0.3955</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>-0.48</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>11.89</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1155.25</v>
+        <v>1147.61</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>155.25</v>
+        <v>147.61</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,31 +3604,31 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>72416.59</v>
+        <v>72611.78999999999</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>6096.59</v>
+        <v>6291.79</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.113</v>
+        <v>1.116</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1193</v>
+        <v>1.1198</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>0.0057</v>
+        <v>0.0034</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>409.91</v>
+        <v>247.24</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>60905.95</v>
+        <v>61432.92</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>2705.95</v>
+        <v>3232.92</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9593</v>
+        <v>0.9676</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9684</v>
+        <v>0.972</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0095</v>
+        <v>0.0046</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>577.76</v>
+        <v>279.36</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37397.39</v>
+        <v>37517.16</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5397.39</v>
+        <v>5517.16</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1553</v>
+        <v>1.159</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1564</v>
+        <v>1.1587</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>35.61</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-9.710000000000001</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>35855.2</v>
+        <v>36183.32</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5295.2</v>
+        <v>5623.32</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8742</v>
+        <v>0.8822</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8845</v>
+        <v>0.8825</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0118</v>
+        <v>0.0004</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>422.45</v>
+        <v>12.3</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34006.66</v>
+        <v>34026.75</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2006.66</v>
+        <v>2026.75</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.693</v>
+        <v>1.694</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6947</v>
+        <v>1.6946</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>34.15</v>
+        <v>12.05</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>25087.83</v>
+        <v>24922.1</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2487.83</v>
+        <v>2322.1</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24306.1</v>
+        <v>24349.97</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5106.1</v>
+        <v>5149.97</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.662</v>
+        <v>1.665</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6677</v>
+        <v>1.6688</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0034</v>
+        <v>0.0023</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>83.36</v>
+        <v>55.57</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23769.2</v>
+        <v>23781.9</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4569.2</v>
+        <v>4581.9</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.1231</v>
+        <v>1.1237</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.1265</v>
+        <v>1.1241</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.003</v>
+        <v>0.0004</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>71.95999999999999</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>21912.68</v>
+        <v>21728.11</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2712.68</v>
+        <v>2528.11</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.306</v>
+        <v>1.295</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.3059</v>
+        <v>1.301</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>-1.68</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>100.67</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15352.52</v>
+        <v>15438.29</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2552.52</v>
+        <v>2638.29</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.611</v>
+        <v>1.62</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6232</v>
+        <v>1.6265</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.004</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>116.26</v>
+        <v>61.94</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15130.58</v>
+        <v>14646.1</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-4069.42</v>
+        <v>-4553.9</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.406</v>
+        <v>0.393</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.4059</v>
+        <v>0.3955</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>-3.73</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>93.17</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 05:00</t>
+          <t>2019-11-08 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10496.23</v>
+        <v>10551.3</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>596.23</v>
+        <v>651.3</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.5439</v>
+        <v>1.552</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5417</v>
+        <v>1.545</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.0045</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>-14.96</v>
+        <v>-47.59</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:19</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8448.67</v>
+        <v>8507.129999999999</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2048.67</v>
+        <v>2107.13</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7634</v>
+        <v>1.7756</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7817</v>
+        <v>1.7802</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0104</v>
+        <v>0.0026</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>87.68000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:45</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7556.38</v>
+        <v>7528.33</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2411.26</v>
+        <v>2383.21</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7334.62</v>
+        <v>7338.64</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>934.62</v>
+        <v>938.64</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5472</v>
+        <v>0.5475</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5487</v>
+        <v>0.5493</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0027</v>
+        <v>0.0033</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>20.11</v>
+        <v>24.13</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7268.77</v>
+        <v>7278.89</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>868.77</v>
+        <v>878.89</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3641</v>
+        <v>1.366</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3661</v>
+        <v>1.3679</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>10.66</v>
+        <v>10.12</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6789.97</v>
+        <v>6832.75</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-210.03</v>
+        <v>-167.25</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8729</v>
+        <v>0.8784</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8794999999999999</v>
+        <v>0.8823</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0045</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>51.34</v>
+        <v>30.34</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>5882.67</v>
+        <v>5935.28</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-517.33</v>
+        <v>-464.72</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7491</v>
+        <v>0.7558</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7563</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>56.54</v>
+        <v>61.25</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:46</t>
+          <t>2019-11-08 10:18</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3402.62</v>
+        <v>3420.88</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-97.38</v>
+        <v>-79.12</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9504</v>
+        <v>0.9555</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9564</v>
+        <v>0.9587</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.0033</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>21.48</v>
+        <v>11.46</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07 10:47</t>
+          <t>2019-11-08 10:17</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4754</v>
+        <v>1.4743</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0003</v>
+        <v>-0.0005</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.92</v>
+        <v>-1.61</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6456</v>
+        <v>1.6465</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>11.59</v>
+        <v>0.004</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>13.45</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4862</v>
+        <v>1.4869</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>-15.14</v>
+        <v>-0.004</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>-13.56</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9347</v>
+        <v>0.9348</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>11.83</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>12.13</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8982</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>6.56</v>
+        <v>0.0039</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>8.67</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2139</v>
+        <v>2.216</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>5.99</v>
+        <v>0.0042</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>7.76</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.972</v>
+        <v>0.9734</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>2.74</v>
+        <v>0.006</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>3.61</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9433</v>
+        <v>0.9435</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>1.16</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>1.27</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8045</v>
+        <v>0.8054</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0.05</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.53</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3582</v>
+        <v>1.3603</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-0.2</v>
+        <v>0.32</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4859</v>
+        <v>1.4849</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0002</v>
+        <v>-0.0005</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5493</v>
+        <v>0.5496</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>30.12</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>35.14</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1415,12 +1415,12 @@
       <c r="J14" s="21" t="n">
         <v>0.0029</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="9" t="n">
         <v>24.3</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>4.067</v>
+        <v>4.068</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>154.7</v>
+        <v>0.0044</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>163.8</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.44</v>
+        <v>5.436</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>1184.2</v>
+        <v>0.005</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>1031.4</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1622,12 +1622,12 @@
       <c r="J17" s="21" t="n">
         <v>0.0055</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="9" t="n">
         <v>135.2</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1691,12 +1691,12 @@
       <c r="J18" s="21" t="n">
         <v>0.0032</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="9" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>272.8</v>
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>238.7</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1829,12 +1829,12 @@
       <c r="J20" s="21" t="n">
         <v>-0.0201</v>
       </c>
-      <c r="K20" s="9" t="n">
+      <c r="K20" s="8" t="n">
         <v>-301.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.656</v>
+        <v>1.657</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>46</v>
+        <v>0.0036</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>55.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1967,12 +1967,12 @@
       <c r="J22" s="21" t="n">
         <v>0.0014</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="9" t="n">
         <v>28.8</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9869</v>
+        <v>1.986</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>33.56</v>
+        <v>0.004</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>30.13</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5493</v>
+        <v>0.5496</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>17.5</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>20.42</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.972</v>
+        <v>0.9734</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>21.75</v>
+        <v>0.006</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>28.67</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5584</v>
+        <v>0.5582</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>17.71</v>
+        <v>0.004</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>16.23</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7615</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>35.49</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>25.94</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1198</v>
+        <v>1.1205</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>11.61</v>
+        <v>0.004</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>13.75</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7802</v>
+        <v>1.7808</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>1.84</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>2.08</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9679</v>
+        <v>0.9681999999999999</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>1.84</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>2.06</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0095</v>
+        <v>1.0089</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>0.7</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0.53</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2657,7 +2657,7 @@
       <c r="J32" s="27" t="n">
         <v>0.0063</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="9" t="n">
         <v>13.25</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="J33" s="27" t="n">
         <v>0.0047</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="9" t="n">
         <v>3.46</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.545</v>
+        <v>1.5457</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>-3.22</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-2.9</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9869</v>
+        <v>1.986</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>9.210000000000001</v>
+        <v>0.004</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>8.27</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1198</v>
+        <v>1.1205</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>6.94</v>
+        <v>0.004</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>8.220000000000001</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0386</v>
+        <v>1.0387</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>1.69</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>1.8</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5584</v>
+        <v>0.5582</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>4.35</v>
+        <v>0.004</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>3.99</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7615</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>9.57</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>6.99</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3278,12 +3278,12 @@
       <c r="J41" s="27" t="n">
         <v>-0.015</v>
       </c>
-      <c r="K41" s="9" t="n">
+      <c r="K41" s="8" t="n">
         <v>-33.75</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3347,7 +3347,7 @@
       <c r="J42" s="27" t="n">
         <v>0.0047</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="9" t="n">
         <v>5.4</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.545</v>
+        <v>1.5457</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>-4.82</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>-4.34</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3485,7 +3485,7 @@
       <c r="J44" s="27" t="n">
         <v>0.0063</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="9" t="n">
         <v>11.89</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1198</v>
+        <v>1.1205</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>247.24</v>
+        <v>0.004</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>292.79</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.972</v>
+        <v>0.9734</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>279.36</v>
+        <v>0.006</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>368.24</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1587</v>
+        <v>1.1592</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>-9.710000000000001</v>
+        <v>6.47</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8825</v>
+        <v>0.8838</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>12.3</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>65.62</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6946</v>
+        <v>1.6947</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>12.05</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>14.06</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3968,7 +3968,7 @@
       <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6688</v>
+        <v>1.6699</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>55.57</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>71.66</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.1241</v>
+        <v>1.1227</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0004</v>
+        <v>-0.0009</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>8.470000000000001</v>
+        <v>-21.16</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4175,7 +4175,7 @@
       <c r="J54" s="33" t="n">
         <v>0.0047</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="9" t="n">
         <v>100.67</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6265</v>
+        <v>1.6269</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>61.94</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>65.76000000000001</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4313,7 +4313,7 @@
       <c r="J56" s="33" t="n">
         <v>0.0063</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="9" t="n">
         <v>93.17</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.545</v>
+        <v>1.5457</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>-47.59</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-42.83</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:19</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7802</v>
+        <v>1.7808</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>22.04</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>24.91</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5493</v>
+        <v>0.5496</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>24.13</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>28.15</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:40</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3679</v>
+        <v>1.3681</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>10.12</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>11.19</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:39</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8823</v>
+        <v>0.8817</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>30.34</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>25.67</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7615</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>61.25</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>44.76</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:18</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9587</v>
+        <v>0.9581</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>11.46</v>
+        <v>0.0028</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>9.31</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:17</t>
+          <t>2019-11-08 10:41</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4900,6 +4900,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4743</v>
+        <v>1.4651</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-1.61</v>
+        <v>-22.77</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6465</v>
+        <v>1.6369</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>13.45</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>-6.41</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4869</v>
+        <v>1.483</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0066</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-13.56</v>
+        <v>-22.38</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9348</v>
+        <v>0.9286</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>12.13</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-6.67</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9</v>
+        <v>1.8879</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>8.67</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>-5.5</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.216</v>
+        <v>2.2022</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>7.76</v>
+        <v>-0.0021</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>-3.88</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9734</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.006</v>
+        <v>0.0017</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>3.61</v>
+        <v>1.06</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9435</v>
+        <v>0.9368</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>1.27</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>-2.42</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8054</v>
+        <v>0.8008</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.53</v>
+        <v>-0.0045</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-1.91</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3603</v>
+        <v>1.3519</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0.32</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-1.76</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4849</v>
+        <v>1.4756</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0005</v>
+        <v>-0.0067</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.04</v>
+        <v>-0.61</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5496</v>
+        <v>0.5458</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>35.14</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-28.44</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.088</v>
+        <v>3.06</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>24.3</v>
+        <v>-0.0062</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>-51.3</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>4.068</v>
+        <v>4.034</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>163.8</v>
+        <v>-0.004</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-145.6</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.436</v>
+        <v>5.389</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>1031.4</v>
+        <v>-0.0037</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-764</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.0055</v>
+        <v>0.0028</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>135.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.944</v>
+        <v>0.928</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>98.09999999999999</v>
+        <v>-0.0138</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-425.1</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0027</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>238.7</v>
+        <v>68.2</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.264</v>
+        <v>3.269</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0201</v>
+        <v>-0.0186</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-301.5</v>
+        <v>-279</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.657</v>
+        <v>1.645</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>55.2</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-55.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.418</v>
+        <v>1.413</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>28.8</v>
+        <v>-0.0021</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-43.2</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.986</v>
+        <v>1.971</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>30.13</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-27.08</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5496</v>
+        <v>0.5458</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>20.42</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-16.53</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9734</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.006</v>
+        <v>0.0017</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>28.67</v>
+        <v>8.4</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5582</v>
+        <v>0.554</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>16.23</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-14.76</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.7615</v>
+        <v>0.7573</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.002</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>25.94</v>
+        <v>6.83</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1205</v>
+        <v>1.1139</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>13.75</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-6.42</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7808</v>
+        <v>1.7714</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>2.08</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-1.68</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9681999999999999</v>
+        <v>0.9631</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>2.06</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-1.69</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0089</v>
+        <v>0.9941</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>0.53</v>
+        <v>-0.0128</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-3.63</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5457</v>
+        <v>1.5416</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0041</v>
+        <v>-0.0067</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-2.9</v>
+        <v>-4.78</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.986</v>
+        <v>1.971</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>8.27</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>-7.43</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1205</v>
+        <v>1.1139</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>8.220000000000001</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-3.83</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0387</v>
+        <v>1.0302</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>1.8</v>
+        <v>-0.0066</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>-7.2</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5582</v>
+        <v>0.554</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>3.99</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-3.63</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7615</v>
+        <v>0.7573</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.002</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>6.99</v>
+        <v>1.84</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2109</v>
+        <v>1.213</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.015</v>
+        <v>-0.0132</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-33.75</v>
+        <v>-29.9</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5457</v>
+        <v>1.5416</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0041</v>
+        <v>-0.0067</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-4.34</v>
+        <v>-7.17</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1205</v>
+        <v>1.1139</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>292.79</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>-136.64</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9734</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.006</v>
+        <v>0.0017</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>368.24</v>
+        <v>107.93</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1592</v>
+        <v>1.1574</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>6.47</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>-51.79</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8838</v>
+        <v>0.8794</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>65.62</v>
+        <v>-0.0032</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>-114.84</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6947</v>
+        <v>1.6915</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>14.06</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>-50.22</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6699</v>
+        <v>1.6576</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>71.66</v>
+        <v>-0.0045</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>-108.22</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.1227</v>
+        <v>1.1124</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0009</v>
+        <v>-0.0101</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-21.16</v>
+        <v>-239.15</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6269</v>
+        <v>1.6142</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>65.76000000000001</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>-55.27</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5457</v>
+        <v>1.5416</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0041</v>
+        <v>-0.0067</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-42.83</v>
+        <v>-70.7</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7808</v>
+        <v>1.7714</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>24.91</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>-20.12</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5496</v>
+        <v>0.5458</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>28.15</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>-22.79</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:40</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3681</v>
+        <v>1.3639</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>11.19</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>-11.19</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:39</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8817</v>
+        <v>0.8752</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>25.67</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-24.89</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7615</v>
+        <v>0.7573</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.002</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>44.76</v>
+        <v>11.78</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9581</v>
+        <v>0.9524</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>9.31</v>
+        <v>-0.0032</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>-11.1</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 10:41</t>
+          <t>2019-11-08 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4900,6 +4900,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -555,26 +555,26 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4242</v>
+        <v>1.6558</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2300.33</v>
+        <v>2068.76</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3392.99</v>
+        <v>3388.63</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>116.83</v>
+        <v>-36.73</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.475</v>
+        <v>1.64</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4651</v>
+        <v>1.6369</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0019</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-22.77</v>
+        <v>-6.41</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
@@ -602,17 +602,17 @@
       </c>
       <c r="N2" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O2" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P2" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q2" s="6" t="inlineStr">
@@ -624,26 +624,26 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6558</v>
+        <v>1.4242</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2068.76</v>
+        <v>2300.33</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3392.77</v>
+        <v>3369.98</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-32.59</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.475</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.6369</v>
+        <v>1.4651</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0067</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-6.41</v>
+        <v>-22.77</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
@@ -671,17 +671,17 @@
       </c>
       <c r="N3" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q3" s="6" t="inlineStr">
@@ -706,10 +706,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3374.16</v>
+        <v>3359.47</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327.22</v>
+        <v>312.53</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.4929</v>
@@ -775,10 +775,10 @@
         <v>3032.5</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2822.65</v>
+        <v>2816.28</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.89</v>
+        <v>-21.26</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9308</v>
@@ -844,10 +844,10 @@
         <v>1170.98</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2216.2</v>
+        <v>2210.69</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121.4</v>
+        <v>115.89</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8926</v>
@@ -913,10 +913,10 @@
         <v>843.41</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1861.24</v>
+        <v>1857.53</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77.27</v>
+        <v>73.56</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.2068</v>
@@ -982,10 +982,10 @@
         <v>623.23</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>603.04</v>
+        <v>604.03</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.52</v>
+        <v>6.51</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9676</v>
@@ -1051,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>518.04</v>
+        <v>516.9400000000001</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-22.85</v>
+        <v>-23.95</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9412</v>
@@ -1120,10 +1120,10 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>427.84</v>
+        <v>426.03</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71.06</v>
+        <v>69.25</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.8044</v>
@@ -1189,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336.91</v>
+        <v>335.42</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23.65</v>
+        <v>22.16</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.359</v>
@@ -1258,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90.04000000000001</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.67</v>
+        <v>-3.25</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4856</v>
@@ -1327,10 +1327,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9160.700000000001</v>
+        <v>9135.6</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2839.3</v>
+        <v>-2864.39</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5475</v>
@@ -1396,17 +1396,17 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8334.9</v>
+        <v>8262</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>2025</v>
+        <v>1952.1</v>
       </c>
       <c r="G14" s="18" t="n">
         <v>3.079</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
@@ -1465,10 +1465,10 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>37009.7</v>
+        <v>36709.4</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>5642</v>
+        <v>5341.7</v>
       </c>
       <c r="G15" s="18" t="n">
         <v>4.05</v>
@@ -1534,17 +1534,17 @@
         <v>38200</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>207769.8</v>
+        <v>205859.8</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-6379.4</v>
+        <v>-8289.4</v>
       </c>
       <c r="G16" s="18" t="n">
         <v>5.409</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
@@ -1603,17 +1603,17 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24707.8</v>
+        <v>24640.2</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4934.8</v>
+        <v>-5002.4</v>
       </c>
       <c r="G17" s="18" t="n">
         <v>0.727</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
@@ -1672,17 +1672,17 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30836.1</v>
+        <v>30345.6</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>5232</v>
+        <v>4741.5</v>
       </c>
       <c r="G18" s="18" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
@@ -1741,17 +1741,17 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>25916</v>
+        <v>25711.4</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3716.9</v>
+        <v>-3921.5</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>0.752</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
@@ -1810,17 +1810,17 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14683.5</v>
+        <v>14710.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1831.5</v>
+        <v>1858.5</v>
       </c>
       <c r="G20" s="18" t="n">
         <v>3.331</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1879,17 +1879,17 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15235.2</v>
+        <v>15134</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2364.4</v>
+        <v>2263.2</v>
       </c>
       <c r="G21" s="18" t="n">
         <v>1.651</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -1948,17 +1948,17 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20404.8</v>
+        <v>20347.2</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2102.4</v>
+        <v>2044.8</v>
       </c>
       <c r="G22" s="18" t="n">
         <v>1.416</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
@@ -2017,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7543.76</v>
+        <v>7520.5</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>206.76</v>
+        <v>183.5</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.9781</v>
@@ -2086,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5322.8</v>
+        <v>5308.21</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-13.21</v>
+        <v>-27.79</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5475</v>
@@ -2155,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4783.78</v>
+        <v>4791.69</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>114.78</v>
+        <v>122.69</v>
       </c>
       <c r="G25" s="24" t="n">
         <v>0.9676</v>
@@ -2224,10 +2224,10 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4103.02</v>
+        <v>4088.27</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>101.02</v>
+        <v>86.27</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.556</v>
@@ -2293,10 +2293,10 @@
         <v>4550.55</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>3439.31</v>
+        <v>3445.68</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>104.31</v>
+        <v>110.68</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>0.7558</v>
@@ -2362,10 +2362,10 @@
         <v>3055.68</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3410.14</v>
+        <v>3397.92</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>75.14</v>
+        <v>62.92</v>
       </c>
       <c r="G28" s="24" t="n">
         <v>1.116</v>
@@ -2431,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>711.36</v>
+        <v>709.6</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>44.36</v>
+        <v>42.6</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>1.7756</v>
@@ -2500,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>710.8200000000001</v>
+        <v>708.98</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>43.82</v>
+        <v>41.98</v>
       </c>
       <c r="G30" s="24" t="n">
         <v>0.9654</v>
@@ -2569,10 +2569,10 @@
         <v>281.57</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>283.54</v>
+        <v>279.99</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>3.4</v>
+        <v>-0.15</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>1.007</v>
@@ -2638,10 +2638,10 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2082.88</v>
+        <v>2119.98</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>81.88</v>
+        <v>118.98</v>
       </c>
       <c r="G32" s="24" t="n">
         <v>0.393</v>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3955</v>
+        <v>0.3929</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>13.25</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.53</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,10 +2707,10 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>746.96</v>
+        <v>764.84</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>79.95999999999999</v>
+        <v>97.84</v>
       </c>
       <c r="G33" s="24" t="n">
         <v>1.295</v>
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.301</v>
+        <v>1.2947</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>3.46</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-0.17</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,10 +2776,10 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>713.41</v>
+        <v>708.08</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>46.41</v>
+        <v>41.08</v>
       </c>
       <c r="G34" s="24" t="n">
         <v>1.552</v>
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>735.9400000000001</v>
+        <v>740.83</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>68.94</v>
+        <v>73.83</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2070.54</v>
+        <v>2064.15</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>70.54000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.9781</v>
@@ -2983,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2037.7</v>
+        <v>2030.4</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>37.7</v>
+        <v>30.4</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.116</v>
@@ -3052,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1098.36</v>
+        <v>1092</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>98.36</v>
+        <v>92</v>
       </c>
       <c r="G38" s="24" t="n">
         <v>1.037</v>
@@ -3121,10 +3121,10 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1007.86</v>
+        <v>1004.24</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>7.86</v>
+        <v>4.24</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.556</v>
@@ -3190,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>927.39</v>
+        <v>929.11</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-72.61</v>
+        <v>-70.89</v>
       </c>
       <c r="G40" s="24" t="n">
         <v>0.7558</v>
@@ -3246,64 +3246,64 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.0902</v>
+        <v>1.1113</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1834.47</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2255.11</v>
+        <v>1193.16</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>255.11</v>
+        <v>193.16</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2293</v>
+        <v>1.295</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.213</v>
+        <v>1.2947</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0132</v>
+        <v>-0.0003</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-29.9</v>
+        <v>-0.27</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 15:30</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,44 +3315,44 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1165.27</v>
+        <v>1061.37</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>165.27</v>
+        <v>61.37</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.295</v>
+        <v>1.552</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.301</v>
+        <v>1.5416</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>5.4</v>
+        <v>-0.0067</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-7.17</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-08 16:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,26 +3384,26 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.0902</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>689.02</v>
+        <v>1834.47</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1069.36</v>
+        <v>2224.66</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>69.36</v>
+        <v>224.66</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.552</v>
+        <v>1.2293</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
@@ -3411,37 +3411,37 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5416</v>
+        <v>1.213</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0067</v>
+        <v>-0.0132</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-7.17</v>
+        <v>-29.9</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 16:00</t>
+          <t>2019-11-08 15:30</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>511</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3466,10 +3466,10 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1869.85</v>
+        <v>1903.16</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-130.15</v>
+        <v>-96.84</v>
       </c>
       <c r="G44" s="24" t="n">
         <v>0.393</v>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3955</v>
+        <v>0.3929</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>11.89</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-0.48</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1147.61</v>
+        <v>1155.25</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>147.61</v>
+        <v>155.25</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>72611.78999999999</v>
+        <v>72351.53</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>6291.79</v>
+        <v>6031.53</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.116</v>
@@ -3673,10 +3673,10 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>61432.92</v>
+        <v>61534.5</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>3232.92</v>
+        <v>3334.5</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>0.9676</v>
@@ -3742,10 +3742,10 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37517.16</v>
+        <v>37523.64</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5517.16</v>
+        <v>5523.64</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>1.159</v>
@@ -3811,10 +3811,10 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36183.32</v>
+        <v>36076.68</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5623.32</v>
+        <v>5516.68</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>0.8822</v>
@@ -3880,10 +3880,10 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34026.75</v>
+        <v>33966.49</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2026.75</v>
+        <v>1966.49</v>
       </c>
       <c r="G50" s="30" t="n">
         <v>1.694</v>
@@ -4018,10 +4018,10 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24349.97</v>
+        <v>24218.35</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5149.97</v>
+        <v>5018.35</v>
       </c>
       <c r="G52" s="30" t="n">
         <v>1.665</v>
@@ -4087,10 +4087,10 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23781.9</v>
+        <v>23549.1</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4581.9</v>
+        <v>4349.1</v>
       </c>
       <c r="G53" s="30" t="n">
         <v>1.1237</v>
@@ -4156,10 +4156,10 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>21728.11</v>
+        <v>22248.25</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2528.11</v>
+        <v>3048.25</v>
       </c>
       <c r="G54" s="30" t="n">
         <v>1.295</v>
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.301</v>
+        <v>1.2947</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>100.67</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-5.03</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,10 +4225,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15438.29</v>
+        <v>15342.99</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2638.29</v>
+        <v>2542.99</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.62</v>
@@ -4294,10 +4294,10 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>14646.1</v>
+        <v>14906.98</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-4553.9</v>
+        <v>-4293.02</v>
       </c>
       <c r="G56" s="30" t="n">
         <v>0.393</v>
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3955</v>
+        <v>0.3929</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>93.17</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-3.73</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 05:00</t>
+          <t>2019-11-09 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,10 +4363,10 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10551.3</v>
+        <v>10472.44</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>651.3</v>
+        <v>572.4400000000001</v>
       </c>
       <c r="G57" s="30" t="n">
         <v>1.552</v>
@@ -4432,10 +4432,10 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8507.129999999999</v>
+        <v>8486.040000000001</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2107.13</v>
+        <v>2086.04</v>
       </c>
       <c r="G58" s="30" t="n">
         <v>1.7756</v>
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7528.33</v>
+        <v>7522.72</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2383.21</v>
+        <v>2377.6</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7338.64</v>
+        <v>7318.54</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>938.64</v>
+        <v>918.54</v>
       </c>
       <c r="G60" s="30" t="n">
         <v>0.5475</v>
@@ -4639,10 +4639,10 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7278.89</v>
+        <v>7273.03</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>878.89</v>
+        <v>873.03</v>
       </c>
       <c r="G61" s="30" t="n">
         <v>1.366</v>
@@ -4708,10 +4708,10 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6832.75</v>
+        <v>6809.42</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-167.25</v>
+        <v>-190.58</v>
       </c>
       <c r="G62" s="30" t="n">
         <v>0.8784</v>
@@ -4777,10 +4777,10 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>5935.28</v>
+        <v>5946.28</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-464.72</v>
+        <v>-453.72</v>
       </c>
       <c r="G63" s="30" t="n">
         <v>0.7558</v>
@@ -4846,10 +4846,10 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3420.88</v>
+        <v>3415.15</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-79.12</v>
+        <v>-84.84999999999999</v>
       </c>
       <c r="G64" s="30" t="n">
         <v>0.9555</v>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -54,11 +54,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
@@ -75,6 +70,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="006EB5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,7 +109,14 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -126,14 +133,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6558</v>
+        <v>1.6544</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2068.76</v>
+        <v>2139.86</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3388.63</v>
+        <v>3406.66</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-36.73</v>
+        <v>-133.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.592</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6369</v>
+        <v>1.6073</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-6.41</v>
+        <v>32.74</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4242</v>
+        <v>1.425</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2300.33</v>
+        <v>2381.52</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3369.98</v>
+        <v>3400.81</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>93.81999999999999</v>
+        <v>7.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.475</v>
+        <v>1.428</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4651</v>
+        <v>1.4417</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-22.77</v>
+        <v>32.63</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3359.47</v>
+        <v>3238.55</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312.53</v>
+        <v>191.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4929</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.483</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0066</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-22.38</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 16:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -769,37 +769,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9357</v>
+        <v>0.9348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3032.5</v>
+        <v>3153.28</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2816.28</v>
+        <v>2850.57</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-21.26</v>
+        <v>-97.09999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9308</v>
+        <v>0.904</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9286</v>
+        <v>0.9091</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0024</v>
+        <v>0.0056</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-6.67</v>
+        <v>16.08</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -838,37 +838,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7889</v>
+        <v>1.7912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1170.98</v>
+        <v>1219.16</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2210.69</v>
+        <v>2231.18</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115.89</v>
+        <v>47.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8926</v>
+        <v>1.8301</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8879</v>
+        <v>1.8461</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-5.5</v>
+        <v>19.51</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1152</v>
+        <v>2.1171</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>843.41</v>
+        <v>886.95</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1857.53</v>
+        <v>1888.94</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73.56</v>
+        <v>11.21</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2068</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2022</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-3.88</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,37 +976,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9587</v>
+        <v>0.9583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>623.23</v>
+        <v>712.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>604.03</v>
+        <v>681.12</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.51</v>
+        <v>-1.97</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9676</v>
+        <v>0.9555</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9648</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>1.06</v>
+        <v>0.0097</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>6.63</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>516.9400000000001</v>
+        <v>503.45</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-23.95</v>
+        <v>-37.44</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9147</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9368</v>
+        <v>0.9201</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0059</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-2.42</v>
+        <v>2.97</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>426.03</v>
+        <v>421.51</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69.25</v>
+        <v>64.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8044</v>
+        <v>0.7925</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8008</v>
+        <v>0.7955</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0045</v>
+        <v>0.0038</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-1.91</v>
+        <v>1.6</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335.42</v>
+        <v>326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.16</v>
+        <v>12.74</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.359</v>
+        <v>1.315</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3519</v>
+        <v>1.324</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0052</v>
+        <v>0.0068</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-1.76</v>
+        <v>2.23</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>89.45999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.25</v>
+        <v>-5.52</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4856</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4756</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0067</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,2277 +1312,2277 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="13" t="n">
-        <v>9135.6</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>-2864.39</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>0.5475</v>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0.5458</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>-0.0031</v>
+      <c r="E13" s="12" t="n">
+        <v>8874.58</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>-3125.41</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0.5304</v>
+      </c>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>0.0059</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-28.44</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
+        <v>51.87</v>
+      </c>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N13" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="14" t="inlineStr">
+      <c r="P13" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="14" t="inlineStr">
+      <c r="Q13" s="13" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="18" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <v>8262</v>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>1952.1</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>-0.0062</v>
+      <c r="E14" s="18" t="n">
+        <v>8172.9</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>1863</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0.008</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-51.3</v>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
+        <v>64.8</v>
+      </c>
+      <c r="L14" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="20" t="inlineStr">
+      <c r="N14" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="20" t="inlineStr">
+      <c r="O14" s="19" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="20" t="inlineStr">
+      <c r="P14" s="19" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="20" t="inlineStr">
+      <c r="Q14" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="18" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="19" t="n">
-        <v>36709.4</v>
-      </c>
-      <c r="F15" s="19" t="n">
-        <v>5341.7</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="n">
-        <v>4.034</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>-0.004</v>
+      <c r="E15" s="18" t="n">
+        <v>36136.1</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>4768.4</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>0.0071</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-145.6</v>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M15" s="20" t="inlineStr">
+        <v>254.8</v>
+      </c>
+      <c r="L15" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="N15" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="O15" s="19" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P15" s="19" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
+      <c r="Q15" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="18" t="n">
-        <v>5.606</v>
-      </c>
-      <c r="D16" s="19" t="n">
-        <v>38200</v>
-      </c>
-      <c r="E16" s="19" t="n">
-        <v>205859.8</v>
-      </c>
-      <c r="F16" s="19" t="n">
-        <v>-8289.4</v>
-      </c>
-      <c r="G16" s="18" t="n">
-        <v>5.409</v>
-      </c>
-      <c r="H16" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="n">
-        <v>5.389</v>
-      </c>
-      <c r="J16" s="21" t="n">
-        <v>-0.0037</v>
+      <c r="C16" s="17" t="n">
+        <v>5.601</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>38800</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>205096.8</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>-12222</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5.267</v>
+      </c>
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.0036</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-764</v>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M16" s="20" t="inlineStr">
+        <v>737.2</v>
+      </c>
+      <c r="L16" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="20" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="20" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="20" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="18" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="19" t="n">
-        <v>24640.2</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <v>-5002.4</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="J17" s="21" t="n">
+      <c r="E17" s="18" t="n">
+        <v>23930.4</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>-5712.2</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <v>0.0028</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="K17" s="8" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M17" s="20" t="inlineStr">
+      <c r="L17" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="20" t="inlineStr">
+      <c r="N17" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O17" s="19" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="P17" s="19" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="Q17" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="18" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="19" t="n">
-        <v>30345.6</v>
-      </c>
-      <c r="F18" s="19" t="n">
-        <v>4741.5</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="H18" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>-0.0138</v>
+      <c r="E18" s="18" t="n">
+        <v>29658.9</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>4054.8</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.0123</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-425.1</v>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M18" s="20" t="inlineStr">
+        <v>359.7</v>
+      </c>
+      <c r="L18" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="20" t="inlineStr">
+      <c r="N18" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="20" t="inlineStr">
+      <c r="O18" s="19" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr">
+      <c r="P18" s="19" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="20" t="inlineStr">
+      <c r="Q18" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="19" t="n">
-        <v>25711.4</v>
-      </c>
-      <c r="F19" s="19" t="n">
-        <v>-3921.5</v>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M19" s="20" t="inlineStr">
+      <c r="E19" s="18" t="n">
+        <v>25336.3</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>-4296.6</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="N19" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="O19" s="19" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P19" s="19" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="20" t="inlineStr">
+      <c r="Q19" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D20" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E20" s="18" t="n">
         <v>14710.5</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="18" t="n">
         <v>1858.5</v>
       </c>
-      <c r="G20" s="18" t="n">
-        <v>3.331</v>
-      </c>
-      <c r="H20" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="n">
+      <c r="G20" s="17" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n">
         <v>3.269</v>
       </c>
-      <c r="J20" s="21" t="n">
-        <v>-0.0186</v>
+      <c r="J20" s="20" t="n">
+        <v>0.0003</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-279</v>
-      </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M20" s="20" t="inlineStr">
+        <v>4.5</v>
+      </c>
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O20" s="19" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P20" s="19" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="20" t="inlineStr">
+      <c r="Q20" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="19" t="n">
-        <v>15134</v>
-      </c>
-      <c r="F21" s="19" t="n">
-        <v>2263.2</v>
-      </c>
-      <c r="G21" s="18" t="n">
-        <v>1.651</v>
-      </c>
-      <c r="H21" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I21" s="18" t="n">
-        <v>1.645</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>-0.0036</v>
+      <c r="E21" s="18" t="n">
+        <v>14913.2</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>2042.4</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>0.0043</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-55.2</v>
-      </c>
-      <c r="L21" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:04</t>
-        </is>
-      </c>
-      <c r="M21" s="20" t="inlineStr">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:04</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="N21" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O21" s="19" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="20" t="inlineStr">
+      <c r="P21" s="19" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="20" t="inlineStr">
+      <c r="Q21" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="19" t="n">
-        <v>20347.2</v>
-      </c>
-      <c r="F22" s="19" t="n">
-        <v>2044.8</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>1.416</v>
-      </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.413</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>-0.0021</v>
+      <c r="E22" s="18" t="n">
+        <v>20188.8</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>1886.4</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.0036</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-43.2</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:04</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+        <v>72</v>
+      </c>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N22" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O22" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P22" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q22" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="inlineStr">
+      <c r="A23" s="21" t="inlineStr">
         <is>
           <t>建信中证500指数增强A</t>
         </is>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="22" t="n">
         <v>478</v>
       </c>
-      <c r="C23" s="24" t="n">
+      <c r="C23" s="23" t="n">
         <v>1.9239</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="24" t="n">
         <v>3813.64</v>
       </c>
-      <c r="E23" s="25" t="n">
-        <v>7520.5</v>
-      </c>
-      <c r="F23" s="25" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="G23" s="24" t="n">
-        <v>1.9781</v>
-      </c>
-      <c r="H23" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I23" s="24" t="n">
-        <v>1.971</v>
-      </c>
-      <c r="J23" s="27" t="n">
-        <v>-0.0036</v>
+      <c r="E23" s="24" t="n">
+        <v>7334.01</v>
+      </c>
+      <c r="F23" s="24" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>1.9231</v>
+      </c>
+      <c r="H23" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>1.9321</v>
+      </c>
+      <c r="J23" s="26" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-27.08</v>
-      </c>
-      <c r="L23" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M23" s="26" t="inlineStr">
+        <v>34.32</v>
+      </c>
+      <c r="L23" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M23" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N23" s="26" t="inlineStr">
+      <c r="N23" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O23" s="26" t="inlineStr">
+      <c r="O23" s="25" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P23" s="26" t="inlineStr">
+      <c r="P23" s="25" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q23" s="26" t="inlineStr">
+      <c r="Q23" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="inlineStr">
+      <c r="A24" s="21" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="22" t="n">
         <v>1064</v>
       </c>
-      <c r="C24" s="24" t="n">
+      <c r="C24" s="23" t="n">
         <v>0.5489000000000001</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="24" t="n">
         <v>9722</v>
       </c>
-      <c r="E24" s="25" t="n">
-        <v>5308.21</v>
-      </c>
-      <c r="F24" s="25" t="n">
-        <v>-27.79</v>
-      </c>
-      <c r="G24" s="24" t="n">
-        <v>0.5475</v>
-      </c>
-      <c r="H24" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I24" s="24" t="n">
-        <v>0.5458</v>
-      </c>
-      <c r="J24" s="27" t="n">
-        <v>-0.0031</v>
+      <c r="E24" s="24" t="n">
+        <v>5156.55</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <v>-179.45</v>
+      </c>
+      <c r="G24" s="23" t="n">
+        <v>0.5304</v>
+      </c>
+      <c r="H24" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I24" s="23" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="J24" s="26" t="n">
+        <v>0.0059</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-16.53</v>
-      </c>
-      <c r="L24" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M24" s="26" t="inlineStr">
+        <v>30.14</v>
+      </c>
+      <c r="L24" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M24" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N24" s="26" t="inlineStr">
+      <c r="N24" s="25" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O24" s="26" t="inlineStr">
+      <c r="O24" s="25" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P24" s="26" t="inlineStr">
+      <c r="P24" s="25" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q24" s="26" t="inlineStr">
+      <c r="Q24" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="inlineStr">
+      <c r="A25" s="21" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="22" t="n">
         <v>968</v>
       </c>
-      <c r="C25" s="24" t="n">
+      <c r="C25" s="23" t="n">
         <v>0.9444</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="24" t="n">
         <v>4943.96</v>
       </c>
-      <c r="E25" s="25" t="n">
-        <v>4791.69</v>
-      </c>
-      <c r="F25" s="25" t="n">
-        <v>122.69</v>
-      </c>
-      <c r="G25" s="24" t="n">
-        <v>0.9676</v>
-      </c>
-      <c r="H25" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I25" s="24" t="n">
-        <v>0.9693000000000001</v>
-      </c>
-      <c r="J25" s="27" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L25" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M25" s="26" t="inlineStr">
+      <c r="E25" s="24" t="n">
+        <v>4723.95</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="G25" s="23" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="H25" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I25" s="23" t="n">
+        <v>0.9648</v>
+      </c>
+      <c r="J25" s="26" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="L25" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M25" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N25" s="26" t="inlineStr">
+      <c r="N25" s="25" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O25" s="26" t="inlineStr">
+      <c r="O25" s="25" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="P25" s="26" t="inlineStr">
+      <c r="P25" s="25" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="Q25" s="26" t="inlineStr">
+      <c r="Q25" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="inlineStr">
+      <c r="A26" s="21" t="inlineStr">
         <is>
           <t>华夏中证500ETF联接A</t>
         </is>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="22" t="n">
         <v>1052</v>
       </c>
-      <c r="C26" s="24" t="n">
+      <c r="C26" s="23" t="n">
         <v>0.5423</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="24" t="n">
         <v>7379.54</v>
       </c>
-      <c r="E26" s="25" t="n">
-        <v>4088.27</v>
-      </c>
-      <c r="F26" s="25" t="n">
-        <v>86.27</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="H26" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="J26" s="27" t="n">
-        <v>-0.0036</v>
+      <c r="E26" s="24" t="n">
+        <v>3992.33</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>-9.67</v>
+      </c>
+      <c r="G26" s="23" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="H26" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I26" s="23" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="J26" s="26" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-14.76</v>
-      </c>
-      <c r="L26" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M26" s="26" t="inlineStr">
+        <v>18.45</v>
+      </c>
+      <c r="L26" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M26" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N26" s="26" t="inlineStr">
+      <c r="N26" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O26" s="26" t="inlineStr">
+      <c r="O26" s="25" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P26" s="26" t="inlineStr">
+      <c r="P26" s="25" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q26" s="26" t="inlineStr">
+      <c r="Q26" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="inlineStr">
+      <c r="A27" s="21" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="22" t="n">
         <v>4752</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C27" s="23" t="n">
         <v>0.7329</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="24" t="n">
         <v>4550.55</v>
       </c>
-      <c r="E27" s="25" t="n">
-        <v>3445.68</v>
-      </c>
-      <c r="F27" s="25" t="n">
-        <v>110.68</v>
-      </c>
-      <c r="G27" s="24" t="n">
-        <v>0.7558</v>
-      </c>
-      <c r="H27" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I27" s="24" t="n">
-        <v>0.7573</v>
-      </c>
-      <c r="J27" s="27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="L27" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M27" s="26" t="inlineStr">
+      <c r="E27" s="24" t="n">
+        <v>3378.78</v>
+      </c>
+      <c r="F27" s="24" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="G27" s="23" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="H27" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="J27" s="26" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="L27" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M27" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N27" s="26" t="inlineStr">
+      <c r="N27" s="25" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O27" s="26" t="inlineStr">
+      <c r="O27" s="25" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P27" s="26" t="inlineStr">
+      <c r="P27" s="25" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q27" s="26" t="inlineStr">
+      <c r="Q27" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="inlineStr">
+      <c r="A28" s="21" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="22" t="n">
         <v>100032</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="23" t="n">
         <v>1.0914</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="24" t="n">
         <v>3055.68</v>
       </c>
-      <c r="E28" s="25" t="n">
-        <v>3397.92</v>
-      </c>
-      <c r="F28" s="25" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="G28" s="24" t="n">
-        <v>1.116</v>
-      </c>
-      <c r="H28" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I28" s="24" t="n">
-        <v>1.1139</v>
-      </c>
-      <c r="J28" s="27" t="n">
-        <v>-0.0019</v>
+      <c r="E28" s="24" t="n">
+        <v>3309.3</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="G28" s="23" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="H28" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I28" s="23" t="n">
+        <v>1.0934</v>
+      </c>
+      <c r="J28" s="26" t="n">
+        <v>0.009599999999999999</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-6.42</v>
-      </c>
-      <c r="L28" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M28" s="26" t="inlineStr">
+        <v>31.78</v>
+      </c>
+      <c r="L28" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M28" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N28" s="26" t="inlineStr">
+      <c r="N28" s="25" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O28" s="26" t="inlineStr">
+      <c r="O28" s="25" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P28" s="26" t="inlineStr">
+      <c r="P28" s="25" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q28" s="26" t="inlineStr">
+      <c r="Q28" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="inlineStr">
+      <c r="A29" s="21" t="inlineStr">
         <is>
           <t>易方达创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="22" t="n">
         <v>110026</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="23" t="n">
         <v>1.6649</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="24" t="n">
         <v>400.63</v>
       </c>
-      <c r="E29" s="25" t="n">
-        <v>709.6</v>
-      </c>
-      <c r="F29" s="25" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="G29" s="24" t="n">
-        <v>1.7756</v>
-      </c>
-      <c r="H29" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I29" s="24" t="n">
-        <v>1.7714</v>
-      </c>
-      <c r="J29" s="27" t="n">
-        <v>-0.0024</v>
+      <c r="E29" s="24" t="n">
+        <v>695.17</v>
+      </c>
+      <c r="F29" s="24" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="G29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="L29" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M29" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M29" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N29" s="26" t="inlineStr">
+      <c r="N29" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O29" s="26" t="inlineStr">
+      <c r="O29" s="25" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P29" s="26" t="inlineStr">
+      <c r="P29" s="25" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q29" s="26" t="inlineStr">
+      <c r="Q29" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="inlineStr">
+      <c r="A30" s="21" t="inlineStr">
         <is>
           <t>广发创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="22" t="n">
         <v>3765</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="23" t="n">
         <v>0.9059</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="24" t="n">
         <v>736.3</v>
       </c>
-      <c r="E30" s="25" t="n">
-        <v>708.98</v>
-      </c>
-      <c r="F30" s="25" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="G30" s="24" t="n">
-        <v>0.9654</v>
-      </c>
-      <c r="H30" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I30" s="24" t="n">
-        <v>0.9631</v>
-      </c>
-      <c r="J30" s="27" t="n">
-        <v>-0.0024</v>
+      <c r="E30" s="24" t="n">
+        <v>694.63</v>
+      </c>
+      <c r="F30" s="24" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="G30" s="23" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="H30" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I30" s="23" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="J30" s="26" t="n">
+        <v>0.0044</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="L30" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M30" s="26" t="inlineStr">
+        <v>3.02</v>
+      </c>
+      <c r="L30" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M30" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N30" s="26" t="inlineStr">
+      <c r="N30" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O30" s="26" t="inlineStr">
+      <c r="O30" s="25" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P30" s="26" t="inlineStr">
+      <c r="P30" s="25" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q30" s="26" t="inlineStr">
+      <c r="Q30" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="inlineStr">
+      <c r="A31" s="21" t="inlineStr">
         <is>
           <t>易方达证券公司分级</t>
         </is>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="22" t="n">
         <v>502010</v>
       </c>
-      <c r="C31" s="24" t="n">
+      <c r="C31" s="23" t="n">
         <v>0.9949</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="24" t="n">
         <v>281.57</v>
       </c>
-      <c r="E31" s="25" t="n">
-        <v>279.99</v>
-      </c>
-      <c r="F31" s="25" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="G31" s="24" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="H31" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I31" s="24" t="n">
-        <v>0.9941</v>
-      </c>
-      <c r="J31" s="27" t="n">
-        <v>-0.0128</v>
+      <c r="E31" s="24" t="n">
+        <v>270.59</v>
+      </c>
+      <c r="F31" s="24" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="G31" s="23" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="H31" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I31" s="23" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="J31" s="26" t="n">
+        <v>0.0125</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-3.63</v>
-      </c>
-      <c r="L31" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M31" s="26" t="inlineStr">
+        <v>3.41</v>
+      </c>
+      <c r="L31" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M31" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N31" s="26" t="inlineStr">
+      <c r="N31" s="25" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O31" s="26" t="inlineStr">
+      <c r="O31" s="25" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P31" s="26" t="inlineStr">
+      <c r="P31" s="25" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q31" s="26" t="inlineStr">
+      <c r="Q31" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="inlineStr">
+      <c r="A32" s="21" t="inlineStr">
         <is>
           <t>华宝标普石油指数</t>
         </is>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="22" t="n">
         <v>162411</v>
       </c>
-      <c r="C32" s="24" t="n">
+      <c r="C32" s="23" t="n">
         <v>0.3775</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="24" t="n">
         <v>5299.96</v>
       </c>
-      <c r="E32" s="25" t="n">
-        <v>2119.98</v>
-      </c>
-      <c r="F32" s="25" t="n">
-        <v>118.98</v>
-      </c>
-      <c r="G32" s="24" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="H32" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I32" s="24" t="n">
-        <v>0.3929</v>
-      </c>
-      <c r="J32" s="27" t="n">
-        <v>-0.0003</v>
+      <c r="E32" s="24" t="n">
+        <v>2040.48</v>
+      </c>
+      <c r="F32" s="24" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H32" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I32" s="23" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="J32" s="26" t="n">
+        <v>0.0076</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="L32" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M32" s="26" t="inlineStr">
+        <v>15.37</v>
+      </c>
+      <c r="L32" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-16 05:00</t>
+        </is>
+      </c>
+      <c r="M32" s="25" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N32" s="26" t="inlineStr">
+      <c r="N32" s="25" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O32" s="26" t="inlineStr">
+      <c r="O32" s="25" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="P32" s="26" t="inlineStr">
+      <c r="P32" s="25" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q32" s="26" t="inlineStr">
+      <c r="Q32" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="inlineStr">
+      <c r="A33" s="21" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B33" s="23" t="n">
+      <c r="B33" s="22" t="n">
         <v>164906</v>
       </c>
-      <c r="C33" s="24" t="n">
+      <c r="C33" s="23" t="n">
         <v>1.1564</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="24" t="n">
         <v>576.8</v>
       </c>
-      <c r="E33" s="25" t="n">
-        <v>764.84</v>
-      </c>
-      <c r="F33" s="25" t="n">
-        <v>97.84</v>
-      </c>
-      <c r="G33" s="24" t="n">
-        <v>1.295</v>
-      </c>
-      <c r="H33" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I33" s="24" t="n">
-        <v>1.2947</v>
-      </c>
-      <c r="J33" s="27" t="n">
-        <v>-0.0003</v>
+      <c r="E33" s="24" t="n">
+        <v>731.96</v>
+      </c>
+      <c r="F33" s="24" t="n">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="G33" s="23" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="H33" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I33" s="23" t="n">
+        <v>1.2762</v>
+      </c>
+      <c r="J33" s="26" t="n">
+        <v>0.0056</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="L33" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M33" s="26" t="inlineStr">
+        <v>4.15</v>
+      </c>
+      <c r="L33" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-16 05:00</t>
+        </is>
+      </c>
+      <c r="M33" s="25" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N33" s="26" t="inlineStr">
+      <c r="N33" s="25" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="O33" s="26" t="inlineStr">
+      <c r="O33" s="25" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="P33" s="26" t="inlineStr">
+      <c r="P33" s="25" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="Q33" s="26" t="inlineStr">
+      <c r="Q33" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="inlineStr">
+      <c r="A34" s="21" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B34" s="23" t="n">
+      <c r="B34" s="22" t="n">
         <v>71</v>
       </c>
-      <c r="C34" s="24" t="n">
+      <c r="C34" s="23" t="n">
         <v>1.451</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="24" t="n">
         <v>459.67</v>
       </c>
-      <c r="E34" s="25" t="n">
-        <v>708.08</v>
-      </c>
-      <c r="F34" s="25" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="G34" s="24" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="H34" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I34" s="24" t="n">
-        <v>1.5416</v>
-      </c>
-      <c r="J34" s="27" t="n">
-        <v>-0.0067</v>
+      <c r="E34" s="24" t="n">
+        <v>676.22</v>
+      </c>
+      <c r="F34" s="24" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="G34" s="23" t="n">
+        <v>1.4711</v>
+      </c>
+      <c r="H34" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I34" s="23" t="n">
+        <v>1.4899</v>
+      </c>
+      <c r="J34" s="26" t="n">
+        <v>0.0128</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="L34" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 16:00</t>
-        </is>
-      </c>
-      <c r="M34" s="26" t="inlineStr">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="L34" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 16:00</t>
+        </is>
+      </c>
+      <c r="M34" s="25" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N34" s="26" t="inlineStr">
+      <c r="N34" s="25" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O34" s="26" t="inlineStr">
+      <c r="O34" s="25" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P34" s="26" t="inlineStr">
+      <c r="P34" s="25" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q34" s="26" t="inlineStr">
+      <c r="Q34" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="inlineStr">
+      <c r="A35" s="21" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B35" s="23" t="n">
+      <c r="B35" s="22" t="n">
         <v>614</v>
       </c>
-      <c r="C35" s="24" t="n">
+      <c r="C35" s="23" t="n">
         <v>1.0903</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="24" t="n">
         <v>611.75</v>
       </c>
-      <c r="E35" s="25" t="n">
-        <v>740.83</v>
-      </c>
-      <c r="F35" s="25" t="n">
-        <v>73.83</v>
-      </c>
-      <c r="G35" s="24" t="n">
+      <c r="E35" s="24" t="n">
+        <v>731.04</v>
+      </c>
+      <c r="F35" s="24" t="n">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="G35" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="26" t="inlineStr">
+      <c r="H35" s="25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I35" s="24" t="n">
+      <c r="I35" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="27" t="n">
+      <c r="J35" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K35" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L35" s="26" t="inlineStr">
+      <c r="L35" s="25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M35" s="26" t="inlineStr">
+      <c r="M35" s="25" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N35" s="26" t="inlineStr">
+      <c r="N35" s="25" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O35" s="26" t="inlineStr">
+      <c r="O35" s="25" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P35" s="26" t="inlineStr">
+      <c r="P35" s="25" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q35" s="26" t="inlineStr">
+      <c r="Q35" s="25" t="inlineStr">
         <is>
           <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="inlineStr">
+      <c r="A36" s="21" t="inlineStr">
         <is>
           <t>建信中证500指数增强A</t>
         </is>
       </c>
-      <c r="B36" s="23" t="n">
+      <c r="B36" s="22" t="n">
         <v>478</v>
       </c>
-      <c r="C36" s="24" t="n">
+      <c r="C36" s="23" t="n">
         <v>1.9107</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="24" t="n">
         <v>1046.73</v>
       </c>
-      <c r="E36" s="25" t="n">
-        <v>2064.15</v>
-      </c>
-      <c r="F36" s="25" t="n">
-        <v>64.15000000000001</v>
-      </c>
-      <c r="G36" s="24" t="n">
-        <v>1.9781</v>
-      </c>
-      <c r="H36" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I36" s="24" t="n">
-        <v>1.971</v>
-      </c>
-      <c r="J36" s="27" t="n">
-        <v>-0.0036</v>
+      <c r="E36" s="24" t="n">
+        <v>2012.97</v>
+      </c>
+      <c r="F36" s="24" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="G36" s="23" t="n">
+        <v>1.9231</v>
+      </c>
+      <c r="H36" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I36" s="23" t="n">
+        <v>1.9321</v>
+      </c>
+      <c r="J36" s="26" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-7.43</v>
-      </c>
-      <c r="L36" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M36" s="26" t="inlineStr">
+        <v>9.42</v>
+      </c>
+      <c r="L36" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M36" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N36" s="26" t="inlineStr">
+      <c r="N36" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O36" s="26" t="inlineStr">
+      <c r="O36" s="25" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P36" s="26" t="inlineStr">
+      <c r="P36" s="25" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q36" s="26" t="inlineStr">
+      <c r="Q36" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="inlineStr">
+      <c r="A37" s="21" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B37" s="23" t="n">
+      <c r="B37" s="22" t="n">
         <v>100032</v>
       </c>
-      <c r="C37" s="24" t="n">
+      <c r="C37" s="23" t="n">
         <v>1.0954</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="24" t="n">
         <v>1825.9</v>
       </c>
-      <c r="E37" s="25" t="n">
-        <v>2030.4</v>
-      </c>
-      <c r="F37" s="25" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="G37" s="24" t="n">
-        <v>1.116</v>
-      </c>
-      <c r="H37" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I37" s="24" t="n">
-        <v>1.1139</v>
-      </c>
-      <c r="J37" s="27" t="n">
-        <v>-0.0019</v>
+      <c r="E37" s="24" t="n">
+        <v>1977.45</v>
+      </c>
+      <c r="F37" s="24" t="n">
+        <v>-22.55</v>
+      </c>
+      <c r="G37" s="23" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="H37" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I37" s="23" t="n">
+        <v>1.0934</v>
+      </c>
+      <c r="J37" s="26" t="n">
+        <v>0.009599999999999999</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-3.83</v>
-      </c>
-      <c r="L37" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M37" s="26" t="inlineStr">
+        <v>18.99</v>
+      </c>
+      <c r="L37" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M37" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N37" s="26" t="inlineStr">
+      <c r="N37" s="25" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O37" s="26" t="inlineStr">
+      <c r="O37" s="25" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P37" s="26" t="inlineStr">
+      <c r="P37" s="25" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q37" s="26" t="inlineStr">
+      <c r="Q37" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="inlineStr">
+      <c r="A38" s="21" t="inlineStr">
         <is>
           <t>华夏上证50ETF联接A</t>
         </is>
       </c>
-      <c r="B38" s="23" t="n">
+      <c r="B38" s="22" t="n">
         <v>1051</v>
       </c>
-      <c r="C38" s="24" t="n">
+      <c r="C38" s="23" t="n">
         <v>0.9441000000000001</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="24" t="n">
         <v>1059.17</v>
       </c>
-      <c r="E38" s="25" t="n">
-        <v>1092</v>
-      </c>
-      <c r="F38" s="25" t="n">
-        <v>92</v>
-      </c>
-      <c r="G38" s="24" t="n">
-        <v>1.037</v>
-      </c>
-      <c r="H38" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I38" s="24" t="n">
-        <v>1.0302</v>
-      </c>
-      <c r="J38" s="27" t="n">
-        <v>-0.0066</v>
+      <c r="E38" s="24" t="n">
+        <v>1071.88</v>
+      </c>
+      <c r="F38" s="24" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="G38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="L38" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M38" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L38" s="25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M38" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N38" s="26" t="inlineStr">
+      <c r="N38" s="25" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O38" s="26" t="inlineStr">
+      <c r="O38" s="25" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P38" s="26" t="inlineStr">
+      <c r="P38" s="25" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q38" s="26" t="inlineStr">
+      <c r="Q38" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="22" t="inlineStr">
+      <c r="A39" s="21" t="inlineStr">
         <is>
           <t>华夏中证500ETF联接A</t>
         </is>
       </c>
-      <c r="B39" s="23" t="n">
+      <c r="B39" s="22" t="n">
         <v>1052</v>
       </c>
-      <c r="C39" s="24" t="n">
+      <c r="C39" s="23" t="n">
         <v>0.5517</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="24" t="n">
         <v>1812.7</v>
       </c>
-      <c r="E39" s="25" t="n">
-        <v>1004.24</v>
-      </c>
-      <c r="F39" s="25" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="G39" s="24" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="H39" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I39" s="24" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="J39" s="27" t="n">
-        <v>-0.0036</v>
+      <c r="E39" s="24" t="n">
+        <v>980.67</v>
+      </c>
+      <c r="F39" s="24" t="n">
+        <v>-19.33</v>
+      </c>
+      <c r="G39" s="23" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="H39" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I39" s="23" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="J39" s="26" t="n">
+        <v>0.0047</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-3.63</v>
-      </c>
-      <c r="L39" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M39" s="26" t="inlineStr">
+        <v>4.53</v>
+      </c>
+      <c r="L39" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M39" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N39" s="26" t="inlineStr">
+      <c r="N39" s="25" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O39" s="26" t="inlineStr">
+      <c r="O39" s="25" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P39" s="26" t="inlineStr">
+      <c r="P39" s="25" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q39" s="26" t="inlineStr">
+      <c r="Q39" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="inlineStr">
+      <c r="A40" s="21" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B40" s="23" t="n">
+      <c r="B40" s="22" t="n">
         <v>4752</v>
       </c>
-      <c r="C40" s="24" t="n">
+      <c r="C40" s="23" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="24" t="n">
         <v>1227.03</v>
       </c>
-      <c r="E40" s="25" t="n">
-        <v>929.11</v>
-      </c>
-      <c r="F40" s="25" t="n">
-        <v>-70.89</v>
-      </c>
-      <c r="G40" s="24" t="n">
-        <v>0.7558</v>
-      </c>
-      <c r="H40" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I40" s="24" t="n">
-        <v>0.7573</v>
-      </c>
-      <c r="J40" s="27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L40" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:00</t>
-        </is>
-      </c>
-      <c r="M40" s="26" t="inlineStr">
+      <c r="E40" s="24" t="n">
+        <v>911.0700000000001</v>
+      </c>
+      <c r="F40" s="24" t="n">
+        <v>-88.93000000000001</v>
+      </c>
+      <c r="G40" s="23" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="H40" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I40" s="23" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="J40" s="26" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="L40" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:00</t>
+        </is>
+      </c>
+      <c r="M40" s="25" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N40" s="26" t="inlineStr">
+      <c r="N40" s="25" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O40" s="26" t="inlineStr">
+      <c r="O40" s="25" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P40" s="26" t="inlineStr">
+      <c r="P40" s="25" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q40" s="26" t="inlineStr">
+      <c r="Q40" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="inlineStr">
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B41" s="22" t="n">
+        <v>216</v>
+      </c>
+      <c r="C41" s="23" t="n">
+        <v>1.0902</v>
+      </c>
+      <c r="D41" s="24" t="n">
+        <v>1834.47</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>2222.64</v>
+      </c>
+      <c r="F41" s="24" t="n">
+        <v>222.64</v>
+      </c>
+      <c r="G41" s="23" t="n">
+        <v>1.2116</v>
+      </c>
+      <c r="H41" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I41" s="23" t="n">
+        <v>1.2104</v>
+      </c>
+      <c r="J41" s="26" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="K41" s="27" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="L41" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 15:30</t>
+        </is>
+      </c>
+      <c r="M41" s="25" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="N41" s="25" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="O41" s="25" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="P41" s="25" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="Q41" s="25" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="21" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B41" s="23" t="n">
+      <c r="B42" s="22" t="n">
         <v>164906</v>
       </c>
-      <c r="C41" s="24" t="n">
+      <c r="C42" s="23" t="n">
         <v>1.1113</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D42" s="24" t="n">
         <v>899.8200000000001</v>
       </c>
-      <c r="E41" s="25" t="n">
-        <v>1193.16</v>
-      </c>
-      <c r="F41" s="25" t="n">
-        <v>193.16</v>
-      </c>
-      <c r="G41" s="24" t="n">
-        <v>1.295</v>
-      </c>
-      <c r="H41" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I41" s="24" t="n">
-        <v>1.2947</v>
-      </c>
-      <c r="J41" s="27" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="L41" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M41" s="26" t="inlineStr">
+      <c r="E42" s="24" t="n">
+        <v>1141.87</v>
+      </c>
+      <c r="F42" s="24" t="n">
+        <v>141.87</v>
+      </c>
+      <c r="G42" s="23" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="H42" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I42" s="23" t="n">
+        <v>1.2762</v>
+      </c>
+      <c r="J42" s="26" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-16 05:00</t>
+        </is>
+      </c>
+      <c r="M42" s="25" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N41" s="26" t="inlineStr">
+      <c r="N42" s="25" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="O41" s="26" t="inlineStr">
+      <c r="O42" s="25" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="P41" s="26" t="inlineStr">
+      <c r="P42" s="25" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="Q41" s="26" t="inlineStr">
+      <c r="Q42" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="22" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="21" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B42" s="23" t="n">
+      <c r="B43" s="22" t="n">
         <v>71</v>
       </c>
-      <c r="C42" s="24" t="n">
+      <c r="C43" s="23" t="n">
         <v>1.4513</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D43" s="24" t="n">
         <v>689.02</v>
       </c>
-      <c r="E42" s="25" t="n">
-        <v>1061.37</v>
-      </c>
-      <c r="F42" s="25" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="G42" s="24" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="H42" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I42" s="24" t="n">
-        <v>1.5416</v>
-      </c>
-      <c r="J42" s="27" t="n">
-        <v>-0.0067</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="L42" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 16:00</t>
-        </is>
-      </c>
-      <c r="M42" s="26" t="inlineStr">
+      <c r="E43" s="24" t="n">
+        <v>1013.62</v>
+      </c>
+      <c r="F43" s="24" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="G43" s="23" t="n">
+        <v>1.4711</v>
+      </c>
+      <c r="H43" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I43" s="23" t="n">
+        <v>1.4899</v>
+      </c>
+      <c r="J43" s="26" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="L43" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-18 16:00</t>
+        </is>
+      </c>
+      <c r="M43" s="25" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N42" s="26" t="inlineStr">
+      <c r="N43" s="25" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O42" s="26" t="inlineStr">
+      <c r="O43" s="25" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P42" s="26" t="inlineStr">
+      <c r="P43" s="25" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q42" s="26" t="inlineStr">
+      <c r="Q43" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="22" t="inlineStr">
-        <is>
-          <t>华安黄金易ETF联接A</t>
-        </is>
-      </c>
-      <c r="B43" s="23" t="n">
-        <v>216</v>
-      </c>
-      <c r="C43" s="24" t="n">
-        <v>1.0902</v>
-      </c>
-      <c r="D43" s="25" t="n">
-        <v>1834.47</v>
-      </c>
-      <c r="E43" s="25" t="n">
-        <v>2224.66</v>
-      </c>
-      <c r="F43" s="25" t="n">
-        <v>224.66</v>
-      </c>
-      <c r="G43" s="24" t="n">
-        <v>1.2293</v>
-      </c>
-      <c r="H43" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-      <c r="I43" s="24" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="J43" s="27" t="n">
-        <v>-0.0132</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>-29.9</v>
-      </c>
-      <c r="L43" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-08 15:30</t>
-        </is>
-      </c>
-      <c r="M43" s="26" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>华宝标普石油指数</t>
+        </is>
+      </c>
+      <c r="B44" s="22" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C44" s="23" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="D44" s="24" t="n">
+        <v>4757.9</v>
+      </c>
+      <c r="E44" s="24" t="n">
+        <v>1831.79</v>
+      </c>
+      <c r="F44" s="24" t="n">
+        <v>-168.21</v>
+      </c>
+      <c r="G44" s="23" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H44" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="I44" s="23" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="J44" s="26" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L44" s="25" t="inlineStr">
+        <is>
+          <t>2019-11-16 05:00</t>
+        </is>
+      </c>
+      <c r="M44" s="25" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N43" s="26" t="inlineStr">
+      <c r="N44" s="25" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O43" s="26" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-      <c r="P43" s="26" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="Q43" s="26" t="inlineStr">
+      <c r="O44" s="25" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="P44" s="25" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q44" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t>华宝标普石油指数</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C44" s="24" t="n">
-        <v>0.4204</v>
-      </c>
-      <c r="D44" s="25" t="n">
-        <v>4757.9</v>
-      </c>
-      <c r="E44" s="25" t="n">
-        <v>1903.16</v>
-      </c>
-      <c r="F44" s="25" t="n">
-        <v>-96.84</v>
-      </c>
-      <c r="G44" s="24" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="H44" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
-      </c>
-      <c r="I44" s="24" t="n">
-        <v>0.3929</v>
-      </c>
-      <c r="J44" s="27" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="L44" s="26" t="inlineStr">
-        <is>
-          <t>2019-11-09 05:00</t>
-        </is>
-      </c>
-      <c r="M44" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="N44" s="26" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="O44" s="26" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="P44" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q44" s="26" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
     <row r="45">
-      <c r="A45" s="22" t="inlineStr">
+      <c r="A45" s="21" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B45" s="23" t="n">
+      <c r="B45" s="22" t="n">
         <v>614</v>
       </c>
-      <c r="C45" s="24" t="n">
+      <c r="C45" s="23" t="n">
         <v>1.0483</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="24" t="n">
         <v>953.96</v>
       </c>
-      <c r="E45" s="25" t="n">
-        <v>1155.25</v>
-      </c>
-      <c r="F45" s="25" t="n">
-        <v>155.25</v>
-      </c>
-      <c r="G45" s="24" t="n">
+      <c r="E45" s="24" t="n">
+        <v>1139.98</v>
+      </c>
+      <c r="F45" s="24" t="n">
+        <v>139.98</v>
+      </c>
+      <c r="G45" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="26" t="inlineStr">
+      <c r="H45" s="25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I45" s="24" t="n">
+      <c r="I45" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="27" t="n">
+      <c r="J45" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="26" t="inlineStr">
+      <c r="L45" s="25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M45" s="26" t="inlineStr">
+      <c r="M45" s="25" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N45" s="26" t="inlineStr">
+      <c r="N45" s="25" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O45" s="26" t="inlineStr">
+      <c r="O45" s="25" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P45" s="26" t="inlineStr">
+      <c r="P45" s="25" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q45" s="26" t="inlineStr">
+      <c r="Q45" s="25" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
         </is>
@@ -3604,31 +3604,31 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>72351.53</v>
+        <v>70464.66</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>6031.53</v>
+        <v>4144.66</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.116</v>
+        <v>1.083</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1139</v>
+        <v>1.0934</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0019</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-136.64</v>
+        <v>676.67</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>61534.5</v>
+        <v>60664.69</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>3334.5</v>
+        <v>2464.69</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9676</v>
+        <v>0.9555</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9648</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>107.93</v>
+        <v>0.0097</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>590.46</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37523.64</v>
+        <v>37021.9</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5523.64</v>
+        <v>5021.9</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.159</v>
+        <v>1.1437</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1574</v>
+        <v>1.1471</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0013</v>
+        <v>0.0029</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-51.79</v>
+        <v>110.06</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36076.68</v>
+        <v>35699.35</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5516.68</v>
+        <v>5139.35</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8822</v>
+        <v>0.8704</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8794</v>
+        <v>0.8744</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0032</v>
+        <v>0.0046</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-114.84</v>
+        <v>164.06</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33966.49</v>
+        <v>33805.79</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1966.49</v>
+        <v>1805.79</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.694</v>
+        <v>1.683</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6915</v>
+        <v>1.6874</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0015</v>
+        <v>0.0026</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-50.22</v>
+        <v>88.38</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24922.1</v>
+        <v>24756.37</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2322.1</v>
+        <v>2156.37</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
       <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="9" t="n">
+      <c r="K51" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24218.35</v>
+        <v>23721.11</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5018.35</v>
+        <v>4521.11</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.665</v>
+        <v>1.622</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6576</v>
+        <v>1.6343</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0045</v>
+        <v>0.0076</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-108.22</v>
+        <v>179.88</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23549.1</v>
+        <v>22941.7</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4349.1</v>
+        <v>3741.7</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.1237</v>
+        <v>0</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.1124</v>
+        <v>0</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0101</v>
+        <v>0</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-239.15</v>
+        <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22248.25</v>
+        <v>21291.87</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3048.25</v>
+        <v>2091.87</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.295</v>
+        <v>1.269</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2947</v>
+        <v>1.2762</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0056</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-5.03</v>
+        <v>120.8</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-09 05:00</t>
+          <t>2019-11-16 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15342.99</v>
+        <v>15018.98</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2542.99</v>
+        <v>2218.98</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.62</v>
+        <v>1.576</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6142</v>
+        <v>1.5833</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0036</v>
+        <v>0.0047</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-55.27</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>14906.98</v>
+        <v>14347.96</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-4293.02</v>
+        <v>-4852.04</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.393</v>
+        <v>0.385</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3929</v>
+        <v>0.3879</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0076</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-3.73</v>
+        <v>108.08</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-09 05:00</t>
+          <t>2019-11-16 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10472.44</v>
+        <v>10001.3</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>572.4400000000001</v>
+        <v>101.3</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.552</v>
+        <v>1.4711</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5416</v>
+        <v>1.4899</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0067</v>
+        <v>0.0128</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-70.7</v>
+        <v>127.81</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 16:00</t>
+          <t>2019-11-18 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8486.040000000001</v>
+        <v>8313.559999999999</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2086.04</v>
+        <v>1913.56</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7756</v>
+        <v>0</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7714</v>
+        <v>0</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0024</v>
+        <v>0</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-20.12</v>
+        <v>0</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="9" t="n">
+      <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7318.54</v>
+        <v>7230.4</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>918.54</v>
+        <v>830.4</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5475</v>
+        <v>0</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5458</v>
+        <v>0</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0031</v>
+        <v>0</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-22.79</v>
+        <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,64 +4626,64 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7273.03</v>
+        <v>7109.43</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>873.03</v>
+        <v>709.4299999999999</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.366</v>
+        <v>0.5304</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3639</v>
+        <v>0.5335</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0015</v>
+        <v>0.0059</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-11.19</v>
+        <v>41.55</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6809.42</v>
+        <v>6657.73</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-190.58</v>
+        <v>-342.27</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.8559</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8752</v>
+        <v>0.8599</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0036</v>
+        <v>0.0047</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-24.89</v>
+        <v>31.11</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>5946.28</v>
+        <v>5830.84</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-453.72</v>
+        <v>-569.16</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7558</v>
+        <v>0.7425</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7573</v>
+        <v>0.7501</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>11.78</v>
+        <v>0.0103</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>59.68</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3415.15</v>
+        <v>3318.12</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-84.84999999999999</v>
+        <v>-181.88</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9555</v>
+        <v>0.9268</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9524</v>
+        <v>0.9331</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0032</v>
+        <v>0.0067</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-11.1</v>
+        <v>22.56</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-08 15:00</t>
+          <t>2019-11-18 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -74,11 +74,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
@@ -93,60 +88,59 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +441,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,25 +568,25 @@
         <v>-133.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.592</v>
+        <v>1.607</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6073</v>
+        <v>1.6232</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>32.74</v>
+        <v>34.67</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -643,25 +637,25 @@
         <v>7.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.428</v>
+        <v>1.443</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4488</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>32.63</v>
+        <v>13.81</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -712,25 +706,25 @@
         <v>191.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>1.4421</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>1.4599</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0</v>
+        <v>0.0124</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0</v>
+        <v>40.23</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 15:01</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -781,25 +775,25 @@
         <v>-97.09999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.904</v>
+        <v>0.9096</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9091</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0056</v>
+        <v>0.0146</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>16.08</v>
+        <v>41.94</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -850,25 +844,25 @@
         <v>47.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8301</v>
+        <v>1.8461</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8461</v>
+        <v>1.8663</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0109</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>19.51</v>
+        <v>24.63</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -919,25 +913,25 @@
         <v>11.21</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>2.1482</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0</v>
+        <v>2.168</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0</v>
+        <v>17.56</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 14:59</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -988,25 +982,25 @@
         <v>-1.97</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9648</v>
+        <v>0.9812</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0097</v>
+        <v>0.0168</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>6.63</v>
+        <v>11.55</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1057,25 +1051,25 @@
         <v>-37.44</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9147</v>
+        <v>0.9246</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9201</v>
+        <v>0.9321</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0059</v>
+        <v>0.0081</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>2.97</v>
+        <v>4.13</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1126,25 +1120,25 @@
         <v>64.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7925</v>
+        <v>0.7966</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7955</v>
+        <v>0.8114</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0038</v>
+        <v>0.0186</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>1.6</v>
+        <v>7.87</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1195,25 +1189,25 @@
         <v>12.74</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.315</v>
+        <v>1.327</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.324</v>
+        <v>1.3399</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0068</v>
+        <v>0.0097</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>2.23</v>
+        <v>3.2</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 14:59</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1264,25 +1258,25 @@
         <v>-5.52</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>0</v>
+        <v>1.4527</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0</v>
+        <v>1.4585</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1333,25 +1327,25 @@
         <v>-3125.41</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>0.5304</v>
+        <v>0.5336</v>
       </c>
       <c r="H13" s="13" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I13" s="11" t="n">
-        <v>0.5335</v>
+        <v>0.5438</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>0.0059</v>
+        <v>0.0191</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>51.87</v>
+        <v>170.67</v>
       </c>
       <c r="L13" s="13" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M13" s="13" t="inlineStr">
@@ -1402,25 +1396,25 @@
         <v>1863</v>
       </c>
       <c r="G14" s="17" t="n">
-        <v>3.003</v>
+        <v>3.027</v>
       </c>
       <c r="H14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>3.027</v>
+        <v>3.046</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.008</v>
+        <v>0.0063</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>64.8</v>
+        <v>51.3</v>
       </c>
       <c r="L14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
@@ -1471,25 +1465,25 @@
         <v>4768.4</v>
       </c>
       <c r="G15" s="17" t="n">
-        <v>3.943</v>
+        <v>3.971</v>
       </c>
       <c r="H15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>3.971</v>
+        <v>4.011</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>0.0071</v>
+        <v>0.0101</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>254.8</v>
+        <v>364</v>
       </c>
       <c r="L15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M15" s="19" t="inlineStr">
@@ -1540,25 +1534,25 @@
         <v>-12222</v>
       </c>
       <c r="G16" s="17" t="n">
-        <v>5.267</v>
+        <v>5.286</v>
       </c>
       <c r="H16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I16" s="17" t="n">
-        <v>5.286</v>
+        <v>5.371</v>
       </c>
       <c r="J16" s="20" t="n">
-        <v>0.0036</v>
+        <v>0.0161</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>737.2</v>
+        <v>3298</v>
       </c>
       <c r="L16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
@@ -1609,25 +1603,25 @@
         <v>-5712.2</v>
       </c>
       <c r="G17" s="17" t="n">
-        <v>0.706</v>
+        <v>0.708</v>
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I17" s="17" t="n">
-        <v>0.708</v>
+        <v>0.721</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>0.0028</v>
+        <v>0.0184</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>67.59999999999999</v>
+        <v>439.4</v>
       </c>
       <c r="L17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
@@ -1678,25 +1672,25 @@
         <v>4054.8</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>0.896</v>
+        <v>0.907</v>
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I18" s="17" t="n">
-        <v>0.907</v>
+        <v>0.914</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.0123</v>
+        <v>0.0077</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>359.7</v>
+        <v>228.9</v>
       </c>
       <c r="L18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M18" s="19" t="inlineStr">
@@ -1747,25 +1741,25 @@
         <v>-4296.6</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>0.736</v>
+        <v>0.743</v>
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I19" s="17" t="n">
-        <v>0.743</v>
+        <v>0.774</v>
       </c>
       <c r="J19" s="20" t="n">
-        <v>0.0095</v>
+        <v>0.0417</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>238.7</v>
+        <v>1057.1</v>
       </c>
       <c r="L19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M19" s="19" t="inlineStr">
@@ -1816,25 +1810,25 @@
         <v>1858.5</v>
       </c>
       <c r="G20" s="17" t="n">
-        <v>3.268</v>
+        <v>3.269</v>
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I20" s="17" t="n">
-        <v>3.269</v>
+        <v>3.29</v>
       </c>
       <c r="J20" s="20" t="n">
-        <v>0.0003</v>
+        <v>0.0064</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>4.5</v>
+        <v>94.5</v>
       </c>
       <c r="L20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M20" s="19" t="inlineStr">
@@ -1885,25 +1879,25 @@
         <v>2042.4</v>
       </c>
       <c r="G21" s="17" t="n">
-        <v>1.614</v>
+        <v>1.621</v>
       </c>
       <c r="H21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I21" s="17" t="n">
-        <v>1.621</v>
+        <v>1.666</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>0.0043</v>
+        <v>0.0278</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>64.40000000000001</v>
+        <v>414</v>
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:04</t>
+          <t>2019-11-19 15:02</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
@@ -1954,25 +1948,25 @@
         <v>1886.4</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>1.397</v>
+        <v>1.402</v>
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I22" s="17" t="n">
-        <v>1.402</v>
+        <v>1.433</v>
       </c>
       <c r="J22" s="20" t="n">
-        <v>0.0036</v>
+        <v>0.0221</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>72</v>
+        <v>446.4</v>
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18 15:04</t>
+          <t>2019-11-19 15:02</t>
         </is>
       </c>
       <c r="M22" s="19" t="inlineStr">
@@ -2023,25 +2017,25 @@
         <v>-2.99</v>
       </c>
       <c r="G23" s="23" t="n">
-        <v>1.9231</v>
+        <v>1.9343</v>
       </c>
       <c r="H23" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I23" s="23" t="n">
-        <v>1.9321</v>
+        <v>1.9654</v>
       </c>
       <c r="J23" s="26" t="n">
-        <v>0.0047</v>
+        <v>0.0161</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>34.32</v>
+        <v>118.6</v>
       </c>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M23" s="25" t="inlineStr">
@@ -2092,25 +2086,25 @@
         <v>-179.45</v>
       </c>
       <c r="G24" s="23" t="n">
-        <v>0.5304</v>
+        <v>0.5336</v>
       </c>
       <c r="H24" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I24" s="23" t="n">
-        <v>0.5335</v>
+        <v>0.5438</v>
       </c>
       <c r="J24" s="26" t="n">
-        <v>0.0059</v>
+        <v>0.0191</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>30.14</v>
+        <v>99.16</v>
       </c>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M24" s="25" t="inlineStr">
@@ -2161,25 +2155,25 @@
         <v>54.95</v>
       </c>
       <c r="G25" s="23" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="H25" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I25" s="23" t="n">
-        <v>0.9648</v>
+        <v>0.9812</v>
       </c>
       <c r="J25" s="26" t="n">
-        <v>0.0097</v>
+        <v>0.0168</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>45.98</v>
+        <v>80.09</v>
       </c>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M25" s="25" t="inlineStr">
@@ -2230,25 +2224,25 @@
         <v>-9.67</v>
       </c>
       <c r="G26" s="23" t="n">
-        <v>0.541</v>
+        <v>0.544</v>
       </c>
       <c r="H26" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I26" s="23" t="n">
-        <v>0.5435</v>
+        <v>0.5527</v>
       </c>
       <c r="J26" s="26" t="n">
-        <v>0.0047</v>
+        <v>0.0161</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>18.45</v>
+        <v>64.2</v>
       </c>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M26" s="25" t="inlineStr">
@@ -2299,25 +2293,25 @@
         <v>43.78</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>0.7425</v>
+        <v>0.7503</v>
       </c>
       <c r="H27" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I27" s="23" t="n">
-        <v>0.7501</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="J27" s="26" t="n">
-        <v>0.0103</v>
+        <v>0.0392</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>34.58</v>
+        <v>133.79</v>
       </c>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M27" s="25" t="inlineStr">
@@ -2368,25 +2362,25 @@
         <v>-25.7</v>
       </c>
       <c r="G28" s="23" t="n">
-        <v>1.083</v>
+        <v>1.093</v>
       </c>
       <c r="H28" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I28" s="23" t="n">
-        <v>1.0934</v>
+        <v>1.104</v>
       </c>
       <c r="J28" s="26" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>31.78</v>
+        <v>33.61</v>
       </c>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M28" s="25" t="inlineStr">
@@ -2437,25 +2431,25 @@
         <v>28.17</v>
       </c>
       <c r="G29" s="23" t="n">
-        <v>0</v>
+        <v>1.7426</v>
       </c>
       <c r="H29" s="25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I29" s="23" t="n">
-        <v>0</v>
+        <v>1.7885</v>
       </c>
       <c r="J29" s="26" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>0</v>
+        <v>18.39</v>
       </c>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M29" s="25" t="inlineStr">
@@ -2506,25 +2500,25 @@
         <v>27.63</v>
       </c>
       <c r="G30" s="23" t="n">
-        <v>0.9434</v>
+        <v>0.9477</v>
       </c>
       <c r="H30" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I30" s="23" t="n">
-        <v>0.9475</v>
+        <v>0.9726</v>
       </c>
       <c r="J30" s="26" t="n">
-        <v>0.0044</v>
+        <v>0.0263</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>3.02</v>
+        <v>18.33</v>
       </c>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M30" s="25" t="inlineStr">
@@ -2575,25 +2569,25 @@
         <v>-9.550000000000001</v>
       </c>
       <c r="G31" s="23" t="n">
-        <v>0.961</v>
+        <v>0.9738</v>
       </c>
       <c r="H31" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I31" s="23" t="n">
-        <v>0.9731</v>
+        <v>0.9816</v>
       </c>
       <c r="J31" s="26" t="n">
-        <v>0.0125</v>
+        <v>0.008</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>3.41</v>
+        <v>2.2</v>
       </c>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M31" s="25" t="inlineStr">
@@ -2644,25 +2638,25 @@
         <v>39.48</v>
       </c>
       <c r="G32" s="23" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="H32" s="25" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I32" s="23" t="n">
-        <v>0.3879</v>
+        <v>0.3893</v>
       </c>
       <c r="J32" s="26" t="n">
-        <v>0.0076</v>
+        <v>0.0007</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>15.37</v>
+        <v>1.59</v>
       </c>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2019-11-16 05:00</t>
+          <t>2019-11-19 05:00</t>
         </is>
       </c>
       <c r="M32" s="25" t="inlineStr">
@@ -2713,25 +2707,25 @@
         <v>64.95999999999999</v>
       </c>
       <c r="G33" s="23" t="n">
-        <v>1.269</v>
+        <v>1.283</v>
       </c>
       <c r="H33" s="25" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I33" s="23" t="n">
-        <v>1.2762</v>
+        <v>1.2837</v>
       </c>
       <c r="J33" s="26" t="n">
-        <v>0.0056</v>
+        <v>0.0005</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>4.15</v>
+        <v>0.4</v>
       </c>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>2019-11-16 05:00</t>
+          <t>2019-11-19 05:00</t>
         </is>
       </c>
       <c r="M33" s="25" t="inlineStr">
@@ -2782,25 +2776,25 @@
         <v>9.220000000000001</v>
       </c>
       <c r="G34" s="23" t="n">
-        <v>1.4711</v>
+        <v>1.4894</v>
       </c>
       <c r="H34" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I34" s="23" t="n">
-        <v>1.4899</v>
+        <v>1.5078</v>
       </c>
       <c r="J34" s="26" t="n">
-        <v>0.0128</v>
+        <v>0.0123</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>8.640000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 16:00</t>
+          <t>2019-11-19 15:02</t>
         </is>
       </c>
       <c r="M34" s="25" t="inlineStr">
@@ -2920,25 +2914,25 @@
         <v>12.97</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>1.9231</v>
+        <v>1.9343</v>
       </c>
       <c r="H36" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I36" s="23" t="n">
-        <v>1.9321</v>
+        <v>1.9654</v>
       </c>
       <c r="J36" s="26" t="n">
-        <v>0.0047</v>
+        <v>0.0161</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>9.42</v>
+        <v>32.55</v>
       </c>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M36" s="25" t="inlineStr">
@@ -2989,25 +2983,25 @@
         <v>-22.55</v>
       </c>
       <c r="G37" s="23" t="n">
-        <v>1.083</v>
+        <v>1.093</v>
       </c>
       <c r="H37" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I37" s="23" t="n">
-        <v>1.0934</v>
+        <v>1.104</v>
       </c>
       <c r="J37" s="26" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0101</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>18.99</v>
+        <v>20.08</v>
       </c>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M37" s="25" t="inlineStr">
@@ -3058,25 +3052,25 @@
         <v>71.88</v>
       </c>
       <c r="G38" s="23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="H38" s="25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I38" s="23" t="n">
-        <v>0</v>
+        <v>1.0264</v>
       </c>
       <c r="J38" s="26" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M38" s="25" t="inlineStr">
@@ -3127,25 +3121,25 @@
         <v>-19.33</v>
       </c>
       <c r="G39" s="23" t="n">
-        <v>0.541</v>
+        <v>0.544</v>
       </c>
       <c r="H39" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I39" s="23" t="n">
-        <v>0.5435</v>
+        <v>0.5527</v>
       </c>
       <c r="J39" s="26" t="n">
-        <v>0.0047</v>
+        <v>0.0161</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>4.53</v>
+        <v>15.77</v>
       </c>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M39" s="25" t="inlineStr">
@@ -3196,25 +3190,25 @@
         <v>-88.93000000000001</v>
       </c>
       <c r="G40" s="23" t="n">
-        <v>0.7425</v>
+        <v>0.7503</v>
       </c>
       <c r="H40" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I40" s="23" t="n">
-        <v>0.7501</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="J40" s="26" t="n">
-        <v>0.0103</v>
+        <v>0.0392</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>9.33</v>
+        <v>36.07</v>
       </c>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:00</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M40" s="25" t="inlineStr">
@@ -3265,25 +3259,25 @@
         <v>222.64</v>
       </c>
       <c r="G41" s="23" t="n">
-        <v>1.2116</v>
+        <v>1.2105</v>
       </c>
       <c r="H41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I41" s="23" t="n">
-        <v>1.2104</v>
+        <v>1.2186</v>
       </c>
       <c r="J41" s="26" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K41" s="27" t="n">
-        <v>-2.2</v>
+        <v>0.0067</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>14.86</v>
       </c>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 15:30</t>
+          <t>2019-11-19 15:02</t>
         </is>
       </c>
       <c r="M41" s="25" t="inlineStr">
@@ -3334,25 +3328,25 @@
         <v>141.87</v>
       </c>
       <c r="G42" s="23" t="n">
-        <v>1.269</v>
+        <v>1.283</v>
       </c>
       <c r="H42" s="25" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I42" s="23" t="n">
-        <v>1.2762</v>
+        <v>1.2837</v>
       </c>
       <c r="J42" s="26" t="n">
-        <v>0.0056</v>
+        <v>0.0005</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>6.48</v>
+        <v>0.63</v>
       </c>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>2019-11-16 05:00</t>
+          <t>2019-11-19 05:00</t>
         </is>
       </c>
       <c r="M42" s="25" t="inlineStr">
@@ -3403,25 +3397,25 @@
         <v>13.62</v>
       </c>
       <c r="G43" s="23" t="n">
-        <v>1.4711</v>
+        <v>1.4894</v>
       </c>
       <c r="H43" s="25" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I43" s="23" t="n">
-        <v>1.4899</v>
+        <v>1.5078</v>
       </c>
       <c r="J43" s="26" t="n">
-        <v>0.0128</v>
+        <v>0.0123</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>12.95</v>
+        <v>12.68</v>
       </c>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18 16:00</t>
+          <t>2019-11-19 15:02</t>
         </is>
       </c>
       <c r="M43" s="25" t="inlineStr">
@@ -3472,25 +3466,25 @@
         <v>-168.21</v>
       </c>
       <c r="G44" s="23" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="H44" s="25" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I44" s="23" t="n">
-        <v>0.3879</v>
+        <v>0.3893</v>
       </c>
       <c r="J44" s="26" t="n">
-        <v>0.0076</v>
+        <v>0.0007</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>13.8</v>
+        <v>1.43</v>
       </c>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2019-11-16 05:00</t>
+          <t>2019-11-19 05:00</t>
         </is>
       </c>
       <c r="M44" s="25" t="inlineStr">
@@ -3589,1317 +3583,1317 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="inlineStr">
+      <c r="A46" s="27" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B46" s="29" t="n">
+      <c r="B46" s="28" t="n">
         <v>100032</v>
       </c>
-      <c r="C46" s="30" t="n">
+      <c r="C46" s="29" t="n">
         <v>1.0193</v>
       </c>
-      <c r="D46" s="31" t="n">
+      <c r="D46" s="30" t="n">
         <v>65064.33</v>
       </c>
-      <c r="E46" s="31" t="n">
+      <c r="E46" s="30" t="n">
         <v>70464.66</v>
       </c>
-      <c r="F46" s="31" t="n">
+      <c r="F46" s="30" t="n">
         <v>4144.66</v>
       </c>
-      <c r="G46" s="30" t="n">
-        <v>1.083</v>
-      </c>
-      <c r="H46" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I46" s="30" t="n">
-        <v>1.0934</v>
-      </c>
-      <c r="J46" s="33" t="n">
-        <v>0.009599999999999999</v>
+      <c r="G46" s="29" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="H46" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I46" s="29" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="J46" s="32" t="n">
+        <v>0.0101</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>676.67</v>
-      </c>
-      <c r="L46" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M46" s="32" t="inlineStr">
+        <v>715.71</v>
+      </c>
+      <c r="L46" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M46" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N46" s="32" t="inlineStr">
+      <c r="N46" s="31" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O46" s="32" t="inlineStr">
+      <c r="O46" s="31" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P46" s="32" t="inlineStr">
+      <c r="P46" s="31" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q46" s="32" t="inlineStr">
+      <c r="Q46" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="inlineStr">
+      <c r="A47" s="27" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B47" s="29" t="n">
+      <c r="B47" s="28" t="n">
         <v>968</v>
       </c>
-      <c r="C47" s="30" t="n">
+      <c r="C47" s="29" t="n">
         <v>0.9167</v>
       </c>
-      <c r="D47" s="31" t="n">
+      <c r="D47" s="30" t="n">
         <v>63490</v>
       </c>
-      <c r="E47" s="31" t="n">
+      <c r="E47" s="30" t="n">
         <v>60664.69</v>
       </c>
-      <c r="F47" s="31" t="n">
+      <c r="F47" s="30" t="n">
         <v>2464.69</v>
       </c>
-      <c r="G47" s="30" t="n">
-        <v>0.9555</v>
-      </c>
-      <c r="H47" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I47" s="30" t="n">
-        <v>0.9648</v>
-      </c>
-      <c r="J47" s="33" t="n">
-        <v>0.0097</v>
+      <c r="G47" s="29" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H47" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I47" s="29" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="J47" s="32" t="n">
+        <v>0.0168</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>590.46</v>
-      </c>
-      <c r="L47" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M47" s="32" t="inlineStr">
+        <v>1028.54</v>
+      </c>
+      <c r="L47" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M47" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N47" s="32" t="inlineStr">
+      <c r="N47" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O47" s="32" t="inlineStr">
+      <c r="O47" s="31" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="P47" s="32" t="inlineStr">
+      <c r="P47" s="31" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="Q47" s="32" t="inlineStr">
+      <c r="Q47" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="inlineStr">
+      <c r="A48" s="27" t="inlineStr">
         <is>
           <t>兴全可转债混合</t>
         </is>
       </c>
-      <c r="B48" s="29" t="n">
+      <c r="B48" s="28" t="n">
         <v>340001</v>
       </c>
-      <c r="C48" s="30" t="n">
+      <c r="C48" s="29" t="n">
         <v>0.9886</v>
       </c>
-      <c r="D48" s="31" t="n">
+      <c r="D48" s="30" t="n">
         <v>32370.29</v>
       </c>
-      <c r="E48" s="31" t="n">
+      <c r="E48" s="30" t="n">
         <v>37021.9</v>
       </c>
-      <c r="F48" s="31" t="n">
+      <c r="F48" s="30" t="n">
         <v>5021.9</v>
       </c>
-      <c r="G48" s="30" t="n">
-        <v>1.1437</v>
-      </c>
-      <c r="H48" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I48" s="30" t="n">
-        <v>1.1471</v>
-      </c>
-      <c r="J48" s="33" t="n">
-        <v>0.0029</v>
+      <c r="G48" s="29" t="n">
+        <v>1.1489</v>
+      </c>
+      <c r="H48" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I48" s="29" t="n">
+        <v>1.1521</v>
+      </c>
+      <c r="J48" s="32" t="n">
+        <v>0.0028</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>110.06</v>
-      </c>
-      <c r="L48" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M48" s="32" t="inlineStr">
+        <v>103.58</v>
+      </c>
+      <c r="L48" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M48" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N48" s="32" t="inlineStr">
+      <c r="N48" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O48" s="32" t="inlineStr">
+      <c r="O48" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P48" s="32" t="inlineStr">
+      <c r="P48" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q48" s="32" t="inlineStr">
+      <c r="Q48" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="inlineStr">
+      <c r="A49" s="27" t="inlineStr">
         <is>
           <t>广发医药卫生联接A</t>
         </is>
       </c>
-      <c r="B49" s="29" t="n">
+      <c r="B49" s="28" t="n">
         <v>1180</v>
       </c>
-      <c r="C49" s="30" t="n">
+      <c r="C49" s="29" t="n">
         <v>0.7451</v>
       </c>
-      <c r="D49" s="31" t="n">
+      <c r="D49" s="30" t="n">
         <v>41014.88</v>
       </c>
-      <c r="E49" s="31" t="n">
+      <c r="E49" s="30" t="n">
         <v>35699.35</v>
       </c>
-      <c r="F49" s="31" t="n">
+      <c r="F49" s="30" t="n">
         <v>5139.35</v>
       </c>
-      <c r="G49" s="30" t="n">
-        <v>0.8704</v>
-      </c>
-      <c r="H49" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I49" s="30" t="n">
-        <v>0.8744</v>
-      </c>
-      <c r="J49" s="33" t="n">
-        <v>0.0046</v>
+      <c r="G49" s="29" t="n">
+        <v>0.8748</v>
+      </c>
+      <c r="H49" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I49" s="29" t="n">
+        <v>0.8913</v>
+      </c>
+      <c r="J49" s="32" t="n">
+        <v>0.0189</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>164.06</v>
-      </c>
-      <c r="L49" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M49" s="32" t="inlineStr">
+        <v>676.75</v>
+      </c>
+      <c r="L49" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M49" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N49" s="32" t="inlineStr">
+      <c r="N49" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O49" s="32" t="inlineStr">
+      <c r="O49" s="31" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P49" s="32" t="inlineStr">
+      <c r="P49" s="31" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q49" s="32" t="inlineStr">
+      <c r="Q49" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="inlineStr">
+      <c r="A50" s="27" t="inlineStr">
         <is>
           <t>易方达安心回报债券A</t>
         </is>
       </c>
-      <c r="B50" s="29" t="n">
+      <c r="B50" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C50" s="30" t="n">
+      <c r="C50" s="29" t="n">
         <v>1.5931</v>
       </c>
-      <c r="D50" s="31" t="n">
+      <c r="D50" s="30" t="n">
         <v>20086.63</v>
       </c>
-      <c r="E50" s="31" t="n">
+      <c r="E50" s="30" t="n">
         <v>33805.79</v>
       </c>
-      <c r="F50" s="31" t="n">
+      <c r="F50" s="30" t="n">
         <v>1805.79</v>
       </c>
-      <c r="G50" s="30" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="H50" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I50" s="30" t="n">
-        <v>1.6874</v>
-      </c>
-      <c r="J50" s="33" t="n">
-        <v>0.0026</v>
+      <c r="G50" s="29" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="H50" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>1.6946</v>
+      </c>
+      <c r="J50" s="32" t="n">
+        <v>0.0039</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>88.38</v>
-      </c>
-      <c r="L50" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M50" s="32" t="inlineStr">
+        <v>132.57</v>
+      </c>
+      <c r="L50" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M50" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N50" s="32" t="inlineStr">
+      <c r="N50" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O50" s="32" t="inlineStr">
+      <c r="O50" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P50" s="32" t="inlineStr">
+      <c r="P50" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q50" s="32" t="inlineStr">
+      <c r="Q50" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="inlineStr">
+      <c r="A51" s="27" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B51" s="29" t="n">
+      <c r="B51" s="28" t="n">
         <v>614</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C51" s="29" t="n">
         <v>1.091</v>
       </c>
-      <c r="D51" s="31" t="n">
+      <c r="D51" s="30" t="n">
         <v>20716.63</v>
       </c>
-      <c r="E51" s="31" t="n">
+      <c r="E51" s="30" t="n">
         <v>24756.37</v>
       </c>
-      <c r="F51" s="31" t="n">
+      <c r="F51" s="30" t="n">
         <v>2156.37</v>
       </c>
-      <c r="G51" s="30" t="n">
+      <c r="G51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="32" t="inlineStr">
+      <c r="H51" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I51" s="30" t="n">
+      <c r="I51" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="33" t="n">
+      <c r="J51" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K51" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="32" t="inlineStr">
+      <c r="L51" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M51" s="32" t="inlineStr">
+      <c r="M51" s="31" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N51" s="32" t="inlineStr">
+      <c r="N51" s="31" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O51" s="32" t="inlineStr">
+      <c r="O51" s="31" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P51" s="32" t="inlineStr">
+      <c r="P51" s="31" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q51" s="32" t="inlineStr">
+      <c r="Q51" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="28" t="inlineStr">
+      <c r="A52" s="27" t="inlineStr">
         <is>
           <t>富国沪深300指数增强</t>
         </is>
       </c>
-      <c r="B52" s="29" t="n">
+      <c r="B52" s="28" t="n">
         <v>100038</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C52" s="29" t="n">
         <v>1.3129</v>
       </c>
-      <c r="D52" s="31" t="n">
+      <c r="D52" s="30" t="n">
         <v>14624.61</v>
       </c>
-      <c r="E52" s="31" t="n">
+      <c r="E52" s="30" t="n">
         <v>23721.11</v>
       </c>
-      <c r="F52" s="31" t="n">
+      <c r="F52" s="30" t="n">
         <v>4521.11</v>
       </c>
-      <c r="G52" s="30" t="n">
-        <v>1.622</v>
-      </c>
-      <c r="H52" s="32" t="inlineStr">
+      <c r="G52" s="29" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="H52" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>1.6505</v>
+      </c>
+      <c r="J52" s="32" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>226.68</v>
+      </c>
+      <c r="L52" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M52" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N52" s="31" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O52" s="31" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="P52" s="31" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="Q52" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="27" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产联接A</t>
+        </is>
+      </c>
+      <c r="B53" s="28" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="D53" s="30" t="n">
+        <v>21163.93</v>
+      </c>
+      <c r="E53" s="30" t="n">
+        <v>22941.7</v>
+      </c>
+      <c r="F53" s="30" t="n">
+        <v>3741.7</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>1.0972</v>
+      </c>
+      <c r="H53" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>1.1016</v>
+      </c>
+      <c r="J53" s="32" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="L53" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M53" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N53" s="31" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O53" s="31" t="inlineStr">
+        <is>
+          <t>金融地产</t>
+        </is>
+      </c>
+      <c r="P53" s="31" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Q53" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="27" t="inlineStr">
+        <is>
+          <t>交银中证海外中国互联网指数</t>
+        </is>
+      </c>
+      <c r="B54" s="28" t="n">
+        <v>164906</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>1.1444</v>
+      </c>
+      <c r="D54" s="30" t="n">
+        <v>16778.47</v>
+      </c>
+      <c r="E54" s="30" t="n">
+        <v>21291.87</v>
+      </c>
+      <c r="F54" s="30" t="n">
+        <v>2091.87</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="H54" s="31" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="I52" s="30" t="n">
-        <v>1.6343</v>
-      </c>
-      <c r="J52" s="33" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>179.88</v>
-      </c>
-      <c r="L52" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M52" s="32" t="inlineStr">
+      <c r="I54" s="29" t="n">
+        <v>1.2837</v>
+      </c>
+      <c r="J54" s="32" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="L54" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 05:00</t>
+        </is>
+      </c>
+      <c r="M54" s="31" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="N54" s="31" t="inlineStr">
+        <is>
+          <t>海外互联</t>
+        </is>
+      </c>
+      <c r="O54" s="31" t="inlineStr">
+        <is>
+          <t>海外互联网</t>
+        </is>
+      </c>
+      <c r="P54" s="31" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="Q54" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="27" t="inlineStr">
+        <is>
+          <t>富国中证500指数(LOF)</t>
+        </is>
+      </c>
+      <c r="B55" s="28" t="n">
+        <v>161017</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>1.3432</v>
+      </c>
+      <c r="D55" s="30" t="n">
+        <v>9529.809999999999</v>
+      </c>
+      <c r="E55" s="30" t="n">
+        <v>15018.98</v>
+      </c>
+      <c r="F55" s="30" t="n">
+        <v>2218.98</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="H55" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>1.6125</v>
+      </c>
+      <c r="J55" s="32" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>243.01</v>
+      </c>
+      <c r="L55" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M55" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N52" s="32" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O52" s="32" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="P52" s="32" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="Q52" s="32" t="inlineStr">
+      <c r="N55" s="31" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O55" s="31" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P55" s="31" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q55" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="28" t="inlineStr">
-        <is>
-          <t>广发中证全指金融地产联接A</t>
-        </is>
-      </c>
-      <c r="B53" s="29" t="n">
-        <v>1469</v>
-      </c>
-      <c r="C53" s="30" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="D53" s="31" t="n">
-        <v>21163.93</v>
-      </c>
-      <c r="E53" s="31" t="n">
-        <v>22941.7</v>
-      </c>
-      <c r="F53" s="31" t="n">
-        <v>3741.7</v>
-      </c>
-      <c r="G53" s="30" t="n">
+    <row r="56">
+      <c r="A56" s="27" t="inlineStr">
+        <is>
+          <t>华宝标普油气上游股票</t>
+        </is>
+      </c>
+      <c r="B56" s="28" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="D56" s="30" t="n">
+        <v>37267.45</v>
+      </c>
+      <c r="E56" s="30" t="n">
+        <v>14347.96</v>
+      </c>
+      <c r="F56" s="30" t="n">
+        <v>-4852.04</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="H56" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>0.3893</v>
+      </c>
+      <c r="J56" s="32" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="L56" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 05:00</t>
+        </is>
+      </c>
+      <c r="M56" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="N56" s="31" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="O56" s="31" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="P56" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q56" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="27" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B57" s="28" t="n">
+        <v>71</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>1.4562</v>
+      </c>
+      <c r="D57" s="30" t="n">
+        <v>6798.52</v>
+      </c>
+      <c r="E57" s="30" t="n">
+        <v>10001.3</v>
+      </c>
+      <c r="F57" s="30" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>1.4894</v>
+      </c>
+      <c r="H57" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>1.5078</v>
+      </c>
+      <c r="J57" s="32" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>125.09</v>
+      </c>
+      <c r="L57" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:02</t>
+        </is>
+      </c>
+      <c r="M57" s="31" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="N57" s="31" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="O57" s="31" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="P57" s="31" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="Q57" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="27" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF联接A</t>
+        </is>
+      </c>
+      <c r="B58" s="28" t="n">
+        <v>110026</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>1.3359</v>
+      </c>
+      <c r="D58" s="30" t="n">
+        <v>4791.13</v>
+      </c>
+      <c r="E58" s="30" t="n">
+        <v>8313.559999999999</v>
+      </c>
+      <c r="F58" s="30" t="n">
+        <v>1913.56</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>1.7426</v>
+      </c>
+      <c r="H58" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>1.7885</v>
+      </c>
+      <c r="J58" s="32" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>219.91</v>
+      </c>
+      <c r="L58" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M58" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N58" s="31" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O58" s="31" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="P58" s="31" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="Q58" s="31" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="27" t="inlineStr">
+        <is>
+          <t>华夏收益债券(QDII)A</t>
+        </is>
+      </c>
+      <c r="B59" s="28" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>0.9172</v>
+      </c>
+      <c r="D59" s="30" t="n">
+        <v>5609.79</v>
+      </c>
+      <c r="E59" s="30" t="n">
+        <v>7517.11</v>
+      </c>
+      <c r="F59" s="30" t="n">
+        <v>2371.99</v>
+      </c>
+      <c r="G59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H53" s="32" t="inlineStr">
+      <c r="H59" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I53" s="30" t="n">
+      <c r="I59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="J53" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M53" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N53" s="32" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O53" s="32" t="inlineStr">
-        <is>
-          <t>金融地产</t>
-        </is>
-      </c>
-      <c r="P53" s="32" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="Q53" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="28" t="inlineStr">
-        <is>
-          <t>交银中证海外中国互联网指数</t>
-        </is>
-      </c>
-      <c r="B54" s="29" t="n">
-        <v>164906</v>
-      </c>
-      <c r="C54" s="30" t="n">
-        <v>1.1444</v>
-      </c>
-      <c r="D54" s="31" t="n">
-        <v>16778.47</v>
-      </c>
-      <c r="E54" s="31" t="n">
-        <v>21291.87</v>
-      </c>
-      <c r="F54" s="31" t="n">
-        <v>2091.87</v>
-      </c>
-      <c r="G54" s="30" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="H54" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-14</t>
-        </is>
-      </c>
-      <c r="I54" s="30" t="n">
-        <v>1.2762</v>
-      </c>
-      <c r="J54" s="33" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="L54" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-16 05:00</t>
-        </is>
-      </c>
-      <c r="M54" s="32" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="N54" s="32" t="inlineStr">
-        <is>
-          <t>海外互联</t>
-        </is>
-      </c>
-      <c r="O54" s="32" t="inlineStr">
-        <is>
-          <t>海外互联网</t>
-        </is>
-      </c>
-      <c r="P54" s="32" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="Q54" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="28" t="inlineStr">
-        <is>
-          <t>富国中证500指数(LOF)</t>
-        </is>
-      </c>
-      <c r="B55" s="29" t="n">
-        <v>161017</v>
-      </c>
-      <c r="C55" s="30" t="n">
-        <v>1.3432</v>
-      </c>
-      <c r="D55" s="31" t="n">
-        <v>9529.809999999999</v>
-      </c>
-      <c r="E55" s="31" t="n">
-        <v>15018.98</v>
-      </c>
-      <c r="F55" s="31" t="n">
-        <v>2218.98</v>
-      </c>
-      <c r="G55" s="30" t="n">
-        <v>1.576</v>
-      </c>
-      <c r="H55" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I55" s="30" t="n">
-        <v>1.5833</v>
-      </c>
-      <c r="J55" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="L55" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M55" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N55" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O55" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P55" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q55" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="28" t="inlineStr">
-        <is>
-          <t>华宝标普油气上游股票</t>
-        </is>
-      </c>
-      <c r="B56" s="29" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C56" s="30" t="n">
-        <v>0.5152</v>
-      </c>
-      <c r="D56" s="31" t="n">
-        <v>37267.45</v>
-      </c>
-      <c r="E56" s="31" t="n">
-        <v>14347.96</v>
-      </c>
-      <c r="F56" s="31" t="n">
-        <v>-4852.04</v>
-      </c>
-      <c r="G56" s="30" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="H56" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-14</t>
-        </is>
-      </c>
-      <c r="I56" s="30" t="n">
-        <v>0.3879</v>
-      </c>
-      <c r="J56" s="33" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>108.08</v>
-      </c>
-      <c r="L56" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-16 05:00</t>
-        </is>
-      </c>
-      <c r="M56" s="32" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="N56" s="32" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="O56" s="32" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="P56" s="32" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q56" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="28" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF联接A</t>
-        </is>
-      </c>
-      <c r="B57" s="29" t="n">
-        <v>71</v>
-      </c>
-      <c r="C57" s="30" t="n">
-        <v>1.4562</v>
-      </c>
-      <c r="D57" s="31" t="n">
-        <v>6798.52</v>
-      </c>
-      <c r="E57" s="31" t="n">
-        <v>10001.3</v>
-      </c>
-      <c r="F57" s="31" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G57" s="30" t="n">
-        <v>1.4711</v>
-      </c>
-      <c r="H57" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I57" s="30" t="n">
-        <v>1.4899</v>
-      </c>
-      <c r="J57" s="33" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>127.81</v>
-      </c>
-      <c r="L57" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 16:00</t>
-        </is>
-      </c>
-      <c r="M57" s="32" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="N57" s="32" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="O57" s="32" t="inlineStr">
-        <is>
-          <t>恒生</t>
-        </is>
-      </c>
-      <c r="P57" s="32" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="Q57" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="28" t="inlineStr">
-        <is>
-          <t>易方达创业板ETF联接A</t>
-        </is>
-      </c>
-      <c r="B58" s="29" t="n">
-        <v>110026</v>
-      </c>
-      <c r="C58" s="30" t="n">
-        <v>1.3359</v>
-      </c>
-      <c r="D58" s="31" t="n">
-        <v>4791.13</v>
-      </c>
-      <c r="E58" s="31" t="n">
-        <v>8313.559999999999</v>
-      </c>
-      <c r="F58" s="31" t="n">
-        <v>1913.56</v>
-      </c>
-      <c r="G58" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I58" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M58" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N58" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O58" s="32" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="P58" s="32" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="Q58" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="28" t="inlineStr">
-        <is>
-          <t>华夏收益债券(QDII)A</t>
-        </is>
-      </c>
-      <c r="B59" s="29" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C59" s="30" t="n">
-        <v>0.9172</v>
-      </c>
-      <c r="D59" s="31" t="n">
-        <v>5609.79</v>
-      </c>
-      <c r="E59" s="31" t="n">
-        <v>7517.11</v>
-      </c>
-      <c r="F59" s="31" t="n">
-        <v>2371.99</v>
-      </c>
-      <c r="G59" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I59" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="33" t="n">
+      <c r="J59" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="32" t="inlineStr">
+      <c r="L59" s="31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M59" s="32" t="inlineStr">
+      <c r="M59" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N59" s="32" t="inlineStr">
+      <c r="N59" s="31" t="inlineStr">
         <is>
           <t>海外债券</t>
         </is>
       </c>
-      <c r="O59" s="32" t="inlineStr">
+      <c r="O59" s="31" t="inlineStr">
         <is>
           <t>美元债</t>
         </is>
       </c>
-      <c r="P59" s="32" t="inlineStr">
+      <c r="P59" s="31" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q59" s="32" t="inlineStr">
+      <c r="Q59" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="28" t="inlineStr">
+      <c r="A60" s="27" t="inlineStr">
         <is>
           <t>长信可转债债券A</t>
         </is>
       </c>
-      <c r="B60" s="29" t="n">
+      <c r="B60" s="28" t="n">
         <v>519977</v>
       </c>
-      <c r="C60" s="30" t="n">
+      <c r="C60" s="29" t="n">
         <v>1.2011</v>
       </c>
-      <c r="D60" s="31" t="n">
+      <c r="D60" s="30" t="n">
         <v>5328.62</v>
       </c>
-      <c r="E60" s="31" t="n">
+      <c r="E60" s="30" t="n">
         <v>7230.4</v>
       </c>
-      <c r="F60" s="31" t="n">
+      <c r="F60" s="30" t="n">
         <v>830.4</v>
       </c>
-      <c r="G60" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I60" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="33" t="n">
-        <v>0</v>
+      <c r="G60" s="29" t="n">
+        <v>1.3593</v>
+      </c>
+      <c r="H60" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>1.3649</v>
+      </c>
+      <c r="J60" s="32" t="n">
+        <v>0.0041</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M60" s="32" t="inlineStr">
+        <v>29.84</v>
+      </c>
+      <c r="L60" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M60" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N60" s="32" t="inlineStr">
+      <c r="N60" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O60" s="32" t="inlineStr">
+      <c r="O60" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P60" s="32" t="inlineStr">
+      <c r="P60" s="31" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q60" s="32" t="inlineStr">
+      <c r="Q60" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="28" t="inlineStr">
+      <c r="A61" s="27" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B61" s="29" t="n">
+      <c r="B61" s="28" t="n">
         <v>1064</v>
       </c>
-      <c r="C61" s="30" t="n">
+      <c r="C61" s="29" t="n">
         <v>0.4775</v>
       </c>
-      <c r="D61" s="31" t="n">
+      <c r="D61" s="30" t="n">
         <v>13403.92</v>
       </c>
-      <c r="E61" s="31" t="n">
+      <c r="E61" s="30" t="n">
         <v>7109.43</v>
       </c>
-      <c r="F61" s="31" t="n">
+      <c r="F61" s="30" t="n">
         <v>709.4299999999999</v>
       </c>
-      <c r="G61" s="30" t="n">
-        <v>0.5304</v>
-      </c>
-      <c r="H61" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I61" s="30" t="n">
-        <v>0.5335</v>
-      </c>
-      <c r="J61" s="33" t="n">
-        <v>0.0059</v>
+      <c r="G61" s="29" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="H61" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>0.5438</v>
+      </c>
+      <c r="J61" s="32" t="n">
+        <v>0.0191</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="L61" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M61" s="32" t="inlineStr">
+        <v>136.72</v>
+      </c>
+      <c r="L61" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M61" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N61" s="32" t="inlineStr">
+      <c r="N61" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O61" s="32" t="inlineStr">
+      <c r="O61" s="31" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P61" s="32" t="inlineStr">
+      <c r="P61" s="31" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q61" s="32" t="inlineStr">
+      <c r="Q61" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="28" t="inlineStr">
+      <c r="A62" s="27" t="inlineStr">
         <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B62" s="29" t="n">
+      <c r="B62" s="28" t="n">
         <v>2903</v>
       </c>
-      <c r="C62" s="30" t="n">
+      <c r="C62" s="29" t="n">
         <v>0.9</v>
       </c>
-      <c r="D62" s="31" t="n">
+      <c r="D62" s="30" t="n">
         <v>7778.64</v>
       </c>
-      <c r="E62" s="31" t="n">
+      <c r="E62" s="30" t="n">
         <v>6657.73</v>
       </c>
-      <c r="F62" s="31" t="n">
+      <c r="F62" s="30" t="n">
         <v>-342.27</v>
       </c>
-      <c r="G62" s="30" t="n">
-        <v>0.8559</v>
-      </c>
-      <c r="H62" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I62" s="30" t="n">
+      <c r="G62" s="29" t="n">
         <v>0.8599</v>
       </c>
-      <c r="J62" s="33" t="n">
-        <v>0.0047</v>
+      <c r="H62" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I62" s="29" t="n">
+        <v>0.8737</v>
+      </c>
+      <c r="J62" s="32" t="n">
+        <v>0.0161</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="L62" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M62" s="32" t="inlineStr">
+        <v>107.35</v>
+      </c>
+      <c r="L62" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M62" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N62" s="32" t="inlineStr">
+      <c r="N62" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O62" s="32" t="inlineStr">
+      <c r="O62" s="31" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P62" s="32" t="inlineStr">
+      <c r="P62" s="31" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q62" s="32" t="inlineStr">
+      <c r="Q62" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="28" t="inlineStr">
+      <c r="A63" s="27" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B63" s="29" t="n">
+      <c r="B63" s="28" t="n">
         <v>4752</v>
       </c>
-      <c r="C63" s="30" t="n">
+      <c r="C63" s="29" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="D63" s="31" t="n">
+      <c r="D63" s="30" t="n">
         <v>7852.99</v>
       </c>
-      <c r="E63" s="31" t="n">
+      <c r="E63" s="30" t="n">
         <v>5830.84</v>
       </c>
-      <c r="F63" s="31" t="n">
+      <c r="F63" s="30" t="n">
         <v>-569.16</v>
       </c>
-      <c r="G63" s="30" t="n">
-        <v>0.7425</v>
-      </c>
-      <c r="H63" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I63" s="30" t="n">
-        <v>0.7501</v>
-      </c>
-      <c r="J63" s="33" t="n">
-        <v>0.0103</v>
+      <c r="G63" s="29" t="n">
+        <v>0.7503</v>
+      </c>
+      <c r="H63" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I63" s="29" t="n">
+        <v>0.7796999999999999</v>
+      </c>
+      <c r="J63" s="32" t="n">
+        <v>0.0392</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>59.68</v>
-      </c>
-      <c r="L63" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M63" s="32" t="inlineStr">
+        <v>230.88</v>
+      </c>
+      <c r="L63" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M63" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N63" s="32" t="inlineStr">
+      <c r="N63" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O63" s="32" t="inlineStr">
+      <c r="O63" s="31" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P63" s="32" t="inlineStr">
+      <c r="P63" s="31" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q63" s="32" t="inlineStr">
+      <c r="Q63" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="28" t="inlineStr">
+      <c r="A64" s="27" t="inlineStr">
         <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B64" s="29" t="n">
+      <c r="B64" s="28" t="n">
         <v>3647</v>
       </c>
-      <c r="C64" s="30" t="n">
+      <c r="C64" s="29" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D64" s="31" t="n">
+      <c r="D64" s="30" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E64" s="31" t="n">
+      <c r="E64" s="30" t="n">
         <v>3318.12</v>
       </c>
-      <c r="F64" s="31" t="n">
+      <c r="F64" s="30" t="n">
         <v>-181.88</v>
       </c>
-      <c r="G64" s="30" t="n">
-        <v>0.9268</v>
-      </c>
-      <c r="H64" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
-      </c>
-      <c r="I64" s="30" t="n">
-        <v>0.9331</v>
-      </c>
-      <c r="J64" s="33" t="n">
-        <v>0.0067</v>
+      <c r="G64" s="29" t="n">
+        <v>0.9319</v>
+      </c>
+      <c r="H64" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I64" s="29" t="n">
+        <v>0.9485</v>
+      </c>
+      <c r="J64" s="32" t="n">
+        <v>0.0178</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="L64" s="32" t="inlineStr">
-        <is>
-          <t>2019-11-18 15:00</t>
-        </is>
-      </c>
-      <c r="M64" s="32" t="inlineStr">
+        <v>59.43</v>
+      </c>
+      <c r="L64" s="31" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M64" s="31" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N64" s="32" t="inlineStr">
+      <c r="N64" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O64" s="32" t="inlineStr">
+      <c r="O64" s="31" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P64" s="32" t="inlineStr">
+      <c r="P64" s="31" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q64" s="32" t="inlineStr">
+      <c r="Q64" s="31" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -714,17 +714,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4599</v>
+        <v>1.463</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0124</v>
+        <v>0.0145</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>40.23</v>
+        <v>47.24</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 15:01</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -921,17 +921,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.168</v>
+        <v>2.169</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0092</v>
+        <v>0.0097</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>17.56</v>
+        <v>18.45</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:59</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -1197,17 +1197,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3399</v>
+        <v>1.3402</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0097</v>
+        <v>0.01</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19 14:59</t>
+          <t>2019-11-19 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 15:04</t>
         </is>
       </c>
       <c r="M21" s="19" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 15:04</t>
         </is>
       </c>
       <c r="M22" s="19" t="inlineStr">
@@ -2784,17 +2784,17 @@
         </is>
       </c>
       <c r="I34" s="23" t="n">
-        <v>1.5078</v>
+        <v>1.5113</v>
       </c>
       <c r="J34" s="26" t="n">
-        <v>0.0123</v>
+        <v>0.0147</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>8.460000000000001</v>
+        <v>10.07</v>
       </c>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M34" s="25" t="inlineStr">
@@ -3267,17 +3267,17 @@
         </is>
       </c>
       <c r="I41" s="23" t="n">
-        <v>1.2186</v>
+        <v>1.2166</v>
       </c>
       <c r="J41" s="26" t="n">
-        <v>0.0067</v>
+        <v>0.005</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>14.86</v>
+        <v>11.19</v>
       </c>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 15:30</t>
         </is>
       </c>
       <c r="M41" s="25" t="inlineStr">
@@ -3405,17 +3405,17 @@
         </is>
       </c>
       <c r="I43" s="23" t="n">
-        <v>1.5078</v>
+        <v>1.5113</v>
       </c>
       <c r="J43" s="26" t="n">
-        <v>0.0123</v>
+        <v>0.0147</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>12.68</v>
+        <v>15.09</v>
       </c>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M43" s="25" t="inlineStr">
@@ -4371,17 +4371,17 @@
         </is>
       </c>
       <c r="I57" s="29" t="n">
-        <v>1.5078</v>
+        <v>1.5113</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>0.0123</v>
+        <v>0.0147</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>125.09</v>
+        <v>148.89</v>
       </c>
       <c r="L57" s="31" t="inlineStr">
         <is>
-          <t>2019-11-19 15:02</t>
+          <t>2019-11-19 16:00</t>
         </is>
       </c>
       <c r="M57" s="31" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -3259,25 +3259,25 @@
         <v>222.64</v>
       </c>
       <c r="G41" s="23" t="n">
-        <v>1.2105</v>
+        <v>1.2165</v>
       </c>
       <c r="H41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I41" s="23" t="n">
-        <v>1.2166</v>
+        <v>1.2217</v>
       </c>
       <c r="J41" s="26" t="n">
-        <v>0.005</v>
+        <v>0.0043</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>11.19</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 15:30</t>
+          <t>2019-11-19 20:07</t>
         </is>
       </c>
       <c r="M41" s="25" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -74,6 +74,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
@@ -88,59 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -441,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,10 +568,10 @@
         <v>2139.86</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3406.66</v>
+        <v>3588.93</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-133.59</v>
+        <v>-67.26000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.607</v>
@@ -631,10 +637,10 @@
         <v>2381.52</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3400.81</v>
+        <v>3568.34</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>7.19</v>
+        <v>57.2</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.443</v>
@@ -700,10 +706,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3238.55</v>
+        <v>3317.89</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191.61</v>
+        <v>270.95</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.4421</v>
@@ -769,10 +775,10 @@
         <v>3153.28</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2850.57</v>
+        <v>3020.05</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-97.09999999999999</v>
+        <v>-37.51</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9096</v>
@@ -838,10 +844,10 @@
         <v>1219.16</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2231.18</v>
+        <v>2364.49</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47.39</v>
+        <v>91.41</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8461</v>
@@ -907,10 +913,10 @@
         <v>886.95</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1888.94</v>
+        <v>2018.65</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.21</v>
+        <v>45.89</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1482</v>
@@ -976,10 +982,10 @@
         <v>712.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681.12</v>
+        <v>782.7</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.97</v>
+        <v>16.13</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.965</v>
@@ -1045,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>503.45</v>
+        <v>515.89</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-37.44</v>
+        <v>-25</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9246</v>
@@ -1114,10 +1120,10 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>421.51</v>
+        <v>431.56</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64.73</v>
+        <v>74.78</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.7966</v>
@@ -1183,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326</v>
+        <v>332.2</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.74</v>
+        <v>18.94</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.327</v>
@@ -1252,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.19</v>
+        <v>88.39</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.52</v>
+        <v>-4.32</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4527</v>
@@ -1321,10 +1327,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>8874.58</v>
+        <v>9083.73</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>-3125.41</v>
+        <v>-2916.26</v>
       </c>
       <c r="G13" s="11" t="n">
         <v>0.5336</v>
@@ -1390,17 +1396,17 @@
         <v>2700</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>8172.9</v>
+        <v>8224.200000000001</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>1863</v>
+        <v>1914.3</v>
       </c>
       <c r="G14" s="17" t="n">
         <v>3.027</v>
       </c>
       <c r="H14" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
@@ -1459,17 +1465,17 @@
         <v>9100</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>36136.1</v>
+        <v>36500.1</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>4768.4</v>
+        <v>5132.4</v>
       </c>
       <c r="G15" s="17" t="n">
         <v>3.971</v>
       </c>
       <c r="H15" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
@@ -1528,17 +1534,17 @@
         <v>38800</v>
       </c>
       <c r="E16" s="18" t="n">
-        <v>205096.8</v>
+        <v>208394.8</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>-12222</v>
+        <v>-8924</v>
       </c>
       <c r="G16" s="17" t="n">
         <v>5.286</v>
       </c>
       <c r="H16" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I16" s="17" t="n">
@@ -1597,17 +1603,17 @@
         <v>33800</v>
       </c>
       <c r="E17" s="18" t="n">
-        <v>23930.4</v>
+        <v>24369.8</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>-5712.2</v>
+        <v>-5272.8</v>
       </c>
       <c r="G17" s="17" t="n">
         <v>0.708</v>
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I17" s="17" t="n">
@@ -1666,17 +1672,17 @@
         <v>32700</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>29658.9</v>
+        <v>29887.8</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>4054.8</v>
+        <v>4283.7</v>
       </c>
       <c r="G18" s="17" t="n">
         <v>0.907</v>
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I18" s="17" t="n">
@@ -1735,17 +1741,17 @@
         <v>34100</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>25336.3</v>
+        <v>26393.4</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>-4296.6</v>
+        <v>-3239.5</v>
       </c>
       <c r="G19" s="17" t="n">
         <v>0.743</v>
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I19" s="17" t="n">
@@ -1804,17 +1810,17 @@
         <v>4500</v>
       </c>
       <c r="E20" s="18" t="n">
-        <v>14710.5</v>
+        <v>14805</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>1858.5</v>
+        <v>1953</v>
       </c>
       <c r="G20" s="17" t="n">
         <v>3.269</v>
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I20" s="17" t="n">
@@ -1873,17 +1879,17 @@
         <v>9200</v>
       </c>
       <c r="E21" s="18" t="n">
-        <v>14913.2</v>
+        <v>15327.2</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>2042.4</v>
+        <v>2456.4</v>
       </c>
       <c r="G21" s="17" t="n">
         <v>1.621</v>
       </c>
       <c r="H21" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I21" s="17" t="n">
@@ -1942,17 +1948,17 @@
         <v>14400</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>20188.8</v>
+        <v>20635.2</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>1886.4</v>
+        <v>2332.8</v>
       </c>
       <c r="G22" s="17" t="n">
         <v>1.402</v>
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I22" s="17" t="n">
@@ -2011,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="24" t="n">
-        <v>7334.01</v>
+        <v>7486.18</v>
       </c>
       <c r="F23" s="24" t="n">
-        <v>-2.99</v>
+        <v>149.18</v>
       </c>
       <c r="G23" s="23" t="n">
         <v>1.9343</v>
@@ -2080,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>5156.55</v>
+        <v>5278.07</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>-179.45</v>
+        <v>-57.93</v>
       </c>
       <c r="G24" s="23" t="n">
         <v>0.5336</v>
@@ -2149,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="24" t="n">
-        <v>4723.95</v>
+        <v>4849.53</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>54.95</v>
+        <v>180.53</v>
       </c>
       <c r="G25" s="23" t="n">
         <v>0.965</v>
@@ -2218,10 +2224,10 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="24" t="n">
-        <v>3992.33</v>
+        <v>4080.89</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>-9.67</v>
+        <v>78.89</v>
       </c>
       <c r="G26" s="23" t="n">
         <v>0.544</v>
@@ -2274,26 +2280,26 @@
     <row r="27">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B27" s="22" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C27" s="23" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D27" s="24" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>3378.78</v>
+        <v>4046.17</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>43.78</v>
+        <v>44.17</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>0.7503</v>
+        <v>1.093</v>
       </c>
       <c r="H27" s="25" t="inlineStr">
         <is>
@@ -2301,13 +2307,13 @@
         </is>
       </c>
       <c r="I27" s="23" t="n">
-        <v>0.7796999999999999</v>
+        <v>1.104</v>
       </c>
       <c r="J27" s="26" t="n">
-        <v>0.0392</v>
+        <v>0.0101</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>133.79</v>
+        <v>40.32</v>
       </c>
       <c r="L27" s="25" t="inlineStr">
         <is>
@@ -2321,17 +2327,17 @@
       </c>
       <c r="N27" s="25" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O27" s="25" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P27" s="25" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q27" s="25" t="inlineStr">
@@ -2343,26 +2349,26 @@
     <row r="28">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B28" s="22" t="n">
-        <v>100032</v>
+        <v>4752</v>
       </c>
       <c r="C28" s="23" t="n">
-        <v>1.0914</v>
+        <v>0.7329</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>3055.68</v>
+        <v>4550.55</v>
       </c>
       <c r="E28" s="24" t="n">
-        <v>3309.3</v>
+        <v>3542.6</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>-25.7</v>
+        <v>207.6</v>
       </c>
       <c r="G28" s="23" t="n">
-        <v>1.093</v>
+        <v>0.7503</v>
       </c>
       <c r="H28" s="25" t="inlineStr">
         <is>
@@ -2370,13 +2376,13 @@
         </is>
       </c>
       <c r="I28" s="23" t="n">
-        <v>1.104</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="J28" s="26" t="n">
-        <v>0.0101</v>
+        <v>0.0392</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>33.61</v>
+        <v>133.79</v>
       </c>
       <c r="L28" s="25" t="inlineStr">
         <is>
@@ -2390,17 +2396,17 @@
       </c>
       <c r="N28" s="25" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O28" s="25" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P28" s="25" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q28" s="25" t="inlineStr">
@@ -2425,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="24" t="n">
-        <v>695.17</v>
+        <v>716.29</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>28.17</v>
+        <v>49.29</v>
       </c>
       <c r="G29" s="23" t="n">
         <v>1.7426</v>
@@ -2494,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="24" t="n">
-        <v>694.63</v>
+        <v>715.3200000000001</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>27.63</v>
+        <v>48.32</v>
       </c>
       <c r="G30" s="23" t="n">
         <v>0.9477</v>
@@ -2557,16 +2563,16 @@
         <v>502010</v>
       </c>
       <c r="C31" s="23" t="n">
-        <v>0.9949</v>
+        <v>0.9898</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>281.57</v>
+        <v>377.37</v>
       </c>
       <c r="E31" s="24" t="n">
-        <v>270.59</v>
+        <v>370.46</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>-9.550000000000001</v>
+        <v>-3.06</v>
       </c>
       <c r="G31" s="23" t="n">
         <v>0.9738</v>
@@ -2583,7 +2589,7 @@
         <v>0.008</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="L31" s="25" t="inlineStr">
         <is>
@@ -2632,10 +2638,10 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="24" t="n">
-        <v>2040.48</v>
+        <v>2003.38</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>39.48</v>
+        <v>2.38</v>
       </c>
       <c r="G32" s="23" t="n">
         <v>0.389</v>
@@ -2646,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="23" t="n">
-        <v>0.3893</v>
+        <v>0.3876</v>
       </c>
       <c r="J32" s="26" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>1.59</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K32" s="27" t="n">
+        <v>-7.42</v>
       </c>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M32" s="25" t="inlineStr">
@@ -2701,10 +2707,10 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="24" t="n">
-        <v>731.96</v>
+        <v>736</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>64.95999999999999</v>
+        <v>69</v>
       </c>
       <c r="G33" s="23" t="n">
         <v>1.283</v>
@@ -2715,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="23" t="n">
-        <v>1.2837</v>
+        <v>1.2797</v>
       </c>
       <c r="J33" s="26" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>0.4</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K33" s="27" t="n">
+        <v>-1.9</v>
       </c>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M33" s="25" t="inlineStr">
@@ -2770,10 +2776,10 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="24" t="n">
-        <v>676.22</v>
+        <v>694.5599999999999</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>9.220000000000001</v>
+        <v>27.56</v>
       </c>
       <c r="G34" s="23" t="n">
         <v>1.4894</v>
@@ -2839,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>731.04</v>
+        <v>734.71</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>64.04000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G35" s="23" t="n">
         <v>0</v>
@@ -2908,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="24" t="n">
-        <v>2012.97</v>
+        <v>2054.73</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>12.97</v>
+        <v>54.73</v>
       </c>
       <c r="G36" s="23" t="n">
         <v>1.9343</v>
@@ -2977,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="24" t="n">
-        <v>1977.45</v>
+        <v>2015.79</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>-22.55</v>
+        <v>15.79</v>
       </c>
       <c r="G37" s="23" t="n">
         <v>1.093</v>
@@ -3046,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>1071.88</v>
+        <v>1087.77</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>71.88</v>
+        <v>87.77</v>
       </c>
       <c r="G38" s="23" t="n">
         <v>1.02</v>
@@ -3115,10 +3121,10 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>980.67</v>
+        <v>1002.42</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>-19.33</v>
+        <v>2.42</v>
       </c>
       <c r="G39" s="23" t="n">
         <v>0.544</v>
@@ -3184,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>911.0700000000001</v>
+        <v>955.24</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>-88.93000000000001</v>
+        <v>-44.76</v>
       </c>
       <c r="G40" s="23" t="n">
         <v>0.7503</v>
@@ -3253,10 +3259,10 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="24" t="n">
-        <v>2222.64</v>
+        <v>2231.63</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>222.64</v>
+        <v>231.63</v>
       </c>
       <c r="G41" s="23" t="n">
         <v>1.2165</v>
@@ -3267,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="23" t="n">
-        <v>1.2217</v>
+        <v>1.2151</v>
       </c>
       <c r="J41" s="26" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>9.539999999999999</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K41" s="27" t="n">
+        <v>-2.57</v>
       </c>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 20:07</t>
+          <t>2019-11-20 02:30</t>
         </is>
       </c>
       <c r="M41" s="25" t="inlineStr">
@@ -3322,10 +3328,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>1141.87</v>
+        <v>1148.17</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>141.87</v>
+        <v>148.17</v>
       </c>
       <c r="G42" s="23" t="n">
         <v>1.283</v>
@@ -3336,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="23" t="n">
-        <v>1.2837</v>
+        <v>1.2797</v>
       </c>
       <c r="J42" s="26" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>0.63</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K42" s="27" t="n">
+        <v>-2.97</v>
       </c>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M42" s="25" t="inlineStr">
@@ -3391,10 +3397,10 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>1013.62</v>
+        <v>1041.11</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>13.62</v>
+        <v>41.11</v>
       </c>
       <c r="G43" s="23" t="n">
         <v>1.4894</v>
@@ -3460,10 +3466,10 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>1831.79</v>
+        <v>1798.49</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>-168.21</v>
+        <v>-201.51</v>
       </c>
       <c r="G44" s="23" t="n">
         <v>0.389</v>
@@ -3474,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="23" t="n">
-        <v>0.3893</v>
+        <v>0.3876</v>
       </c>
       <c r="J44" s="26" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>1.43</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K44" s="27" t="n">
+        <v>-6.66</v>
       </c>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2019-11-19 05:00</t>
+          <t>2019-11-20 05:00</t>
         </is>
       </c>
       <c r="M44" s="25" t="inlineStr">
@@ -3529,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="24" t="n">
-        <v>1139.98</v>
+        <v>1145.71</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>139.98</v>
+        <v>145.71</v>
       </c>
       <c r="G45" s="23" t="n">
         <v>0</v>
@@ -3583,1317 +3589,1317 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="inlineStr">
+      <c r="A46" s="28" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B46" s="28" t="n">
+      <c r="B46" s="29" t="n">
         <v>100032</v>
       </c>
-      <c r="C46" s="29" t="n">
+      <c r="C46" s="30" t="n">
         <v>1.0193</v>
       </c>
-      <c r="D46" s="30" t="n">
+      <c r="D46" s="31" t="n">
         <v>65064.33</v>
       </c>
-      <c r="E46" s="30" t="n">
-        <v>70464.66</v>
-      </c>
-      <c r="F46" s="30" t="n">
-        <v>4144.66</v>
-      </c>
-      <c r="G46" s="29" t="n">
+      <c r="E46" s="31" t="n">
+        <v>71831.02</v>
+      </c>
+      <c r="F46" s="31" t="n">
+        <v>5511.02</v>
+      </c>
+      <c r="G46" s="30" t="n">
         <v>1.093</v>
       </c>
-      <c r="H46" s="31" t="inlineStr">
+      <c r="H46" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I46" s="29" t="n">
+      <c r="I46" s="30" t="n">
         <v>1.104</v>
       </c>
-      <c r="J46" s="32" t="n">
+      <c r="J46" s="33" t="n">
         <v>0.0101</v>
       </c>
       <c r="K46" s="8" t="n">
         <v>715.71</v>
       </c>
-      <c r="L46" s="31" t="inlineStr">
+      <c r="L46" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M46" s="31" t="inlineStr">
+      <c r="M46" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N46" s="31" t="inlineStr">
+      <c r="N46" s="32" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="O46" s="31" t="inlineStr">
+      <c r="O46" s="32" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="P46" s="31" t="inlineStr">
+      <c r="P46" s="32" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Q46" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q46" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="inlineStr">
+      <c r="A47" s="28" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B47" s="28" t="n">
+      <c r="B47" s="29" t="n">
         <v>968</v>
       </c>
-      <c r="C47" s="29" t="n">
+      <c r="C47" s="30" t="n">
         <v>0.9167</v>
       </c>
-      <c r="D47" s="30" t="n">
+      <c r="D47" s="31" t="n">
         <v>63490</v>
       </c>
-      <c r="E47" s="30" t="n">
-        <v>60664.69</v>
-      </c>
-      <c r="F47" s="30" t="n">
-        <v>2464.69</v>
-      </c>
-      <c r="G47" s="29" t="n">
+      <c r="E47" s="31" t="n">
+        <v>62277.34</v>
+      </c>
+      <c r="F47" s="31" t="n">
+        <v>4077.34</v>
+      </c>
+      <c r="G47" s="30" t="n">
         <v>0.965</v>
       </c>
-      <c r="H47" s="31" t="inlineStr">
+      <c r="H47" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I47" s="29" t="n">
+      <c r="I47" s="30" t="n">
         <v>0.9812</v>
       </c>
-      <c r="J47" s="32" t="n">
+      <c r="J47" s="33" t="n">
         <v>0.0168</v>
       </c>
       <c r="K47" s="8" t="n">
         <v>1028.54</v>
       </c>
-      <c r="L47" s="31" t="inlineStr">
+      <c r="L47" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M47" s="31" t="inlineStr">
+      <c r="M47" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N47" s="31" t="inlineStr">
+      <c r="N47" s="32" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O47" s="31" t="inlineStr">
+      <c r="O47" s="32" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="P47" s="31" t="inlineStr">
+      <c r="P47" s="32" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="Q47" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q47" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="27" t="inlineStr">
+      <c r="A48" s="28" t="inlineStr">
         <is>
           <t>兴全可转债混合</t>
         </is>
       </c>
-      <c r="B48" s="28" t="n">
+      <c r="B48" s="29" t="n">
         <v>340001</v>
       </c>
-      <c r="C48" s="29" t="n">
+      <c r="C48" s="30" t="n">
         <v>0.9886</v>
       </c>
-      <c r="D48" s="30" t="n">
+      <c r="D48" s="31" t="n">
         <v>32370.29</v>
       </c>
-      <c r="E48" s="30" t="n">
-        <v>37021.9</v>
-      </c>
-      <c r="F48" s="30" t="n">
-        <v>5021.9</v>
-      </c>
-      <c r="G48" s="29" t="n">
+      <c r="E48" s="31" t="n">
+        <v>37420.05</v>
+      </c>
+      <c r="F48" s="31" t="n">
+        <v>5420.05</v>
+      </c>
+      <c r="G48" s="30" t="n">
         <v>1.1489</v>
       </c>
-      <c r="H48" s="31" t="inlineStr">
+      <c r="H48" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I48" s="29" t="n">
+      <c r="I48" s="30" t="n">
         <v>1.1521</v>
       </c>
-      <c r="J48" s="32" t="n">
+      <c r="J48" s="33" t="n">
         <v>0.0028</v>
       </c>
       <c r="K48" s="8" t="n">
         <v>103.58</v>
       </c>
-      <c r="L48" s="31" t="inlineStr">
+      <c r="L48" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M48" s="31" t="inlineStr">
+      <c r="M48" s="32" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N48" s="31" t="inlineStr">
+      <c r="N48" s="32" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O48" s="31" t="inlineStr">
+      <c r="O48" s="32" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P48" s="31" t="inlineStr">
+      <c r="P48" s="32" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q48" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q48" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="inlineStr">
+      <c r="A49" s="28" t="inlineStr">
         <is>
           <t>广发医药卫生联接A</t>
         </is>
       </c>
-      <c r="B49" s="28" t="n">
+      <c r="B49" s="29" t="n">
         <v>1180</v>
       </c>
-      <c r="C49" s="29" t="n">
+      <c r="C49" s="30" t="n">
         <v>0.7451</v>
       </c>
-      <c r="D49" s="30" t="n">
+      <c r="D49" s="31" t="n">
         <v>41014.88</v>
       </c>
-      <c r="E49" s="30" t="n">
-        <v>35699.35</v>
-      </c>
-      <c r="F49" s="30" t="n">
-        <v>5139.35</v>
-      </c>
-      <c r="G49" s="29" t="n">
+      <c r="E49" s="31" t="n">
+        <v>36548.35</v>
+      </c>
+      <c r="F49" s="31" t="n">
+        <v>5988.35</v>
+      </c>
+      <c r="G49" s="30" t="n">
         <v>0.8748</v>
       </c>
-      <c r="H49" s="31" t="inlineStr">
+      <c r="H49" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I49" s="29" t="n">
+      <c r="I49" s="30" t="n">
         <v>0.8913</v>
       </c>
-      <c r="J49" s="32" t="n">
+      <c r="J49" s="33" t="n">
         <v>0.0189</v>
       </c>
       <c r="K49" s="8" t="n">
         <v>676.75</v>
       </c>
-      <c r="L49" s="31" t="inlineStr">
+      <c r="L49" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M49" s="31" t="inlineStr">
+      <c r="M49" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N49" s="31" t="inlineStr">
+      <c r="N49" s="32" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O49" s="31" t="inlineStr">
+      <c r="O49" s="32" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P49" s="31" t="inlineStr">
+      <c r="P49" s="32" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q49" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q49" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="inlineStr">
+      <c r="A50" s="28" t="inlineStr">
         <is>
           <t>易方达安心回报债券A</t>
         </is>
       </c>
-      <c r="B50" s="28" t="n">
+      <c r="B50" s="29" t="n">
         <v>110027</v>
       </c>
-      <c r="C50" s="29" t="n">
+      <c r="C50" s="30" t="n">
         <v>1.5931</v>
       </c>
-      <c r="D50" s="30" t="n">
+      <c r="D50" s="31" t="n">
         <v>20086.63</v>
       </c>
-      <c r="E50" s="30" t="n">
-        <v>33805.79</v>
-      </c>
-      <c r="F50" s="30" t="n">
-        <v>1805.79</v>
-      </c>
-      <c r="G50" s="29" t="n">
+      <c r="E50" s="31" t="n">
+        <v>34107.09</v>
+      </c>
+      <c r="F50" s="31" t="n">
+        <v>2107.09</v>
+      </c>
+      <c r="G50" s="30" t="n">
         <v>1.688</v>
       </c>
-      <c r="H50" s="31" t="inlineStr">
+      <c r="H50" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I50" s="29" t="n">
+      <c r="I50" s="30" t="n">
         <v>1.6946</v>
       </c>
-      <c r="J50" s="32" t="n">
+      <c r="J50" s="33" t="n">
         <v>0.0039</v>
       </c>
       <c r="K50" s="8" t="n">
         <v>132.57</v>
       </c>
-      <c r="L50" s="31" t="inlineStr">
+      <c r="L50" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M50" s="31" t="inlineStr">
+      <c r="M50" s="32" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N50" s="31" t="inlineStr">
+      <c r="N50" s="32" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O50" s="31" t="inlineStr">
+      <c r="O50" s="32" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P50" s="31" t="inlineStr">
+      <c r="P50" s="32" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q50" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q50" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27" t="inlineStr">
+      <c r="A51" s="28" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B51" s="28" t="n">
+      <c r="B51" s="29" t="n">
         <v>614</v>
       </c>
-      <c r="C51" s="29" t="n">
+      <c r="C51" s="30" t="n">
         <v>1.091</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D51" s="31" t="n">
         <v>20716.63</v>
       </c>
-      <c r="E51" s="30" t="n">
-        <v>24756.37</v>
-      </c>
-      <c r="F51" s="30" t="n">
-        <v>2156.37</v>
-      </c>
-      <c r="G51" s="29" t="n">
+      <c r="E51" s="31" t="n">
+        <v>24880.67</v>
+      </c>
+      <c r="F51" s="31" t="n">
+        <v>2280.67</v>
+      </c>
+      <c r="G51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="31" t="inlineStr">
+      <c r="H51" s="32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I51" s="29" t="n">
+      <c r="I51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="32" t="n">
+      <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K51" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="31" t="inlineStr">
+      <c r="L51" s="32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M51" s="31" t="inlineStr">
+      <c r="M51" s="32" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="N51" s="31" t="inlineStr">
+      <c r="N51" s="32" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="O51" s="31" t="inlineStr">
+      <c r="O51" s="32" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="P51" s="31" t="inlineStr">
+      <c r="P51" s="32" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="Q51" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q51" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="27" t="inlineStr">
+      <c r="A52" s="28" t="inlineStr">
         <is>
           <t>富国沪深300指数增强</t>
         </is>
       </c>
-      <c r="B52" s="28" t="n">
+      <c r="B52" s="29" t="n">
         <v>100038</v>
       </c>
-      <c r="C52" s="29" t="n">
+      <c r="C52" s="30" t="n">
         <v>1.3129</v>
       </c>
-      <c r="D52" s="30" t="n">
+      <c r="D52" s="31" t="n">
         <v>14624.61</v>
       </c>
-      <c r="E52" s="30" t="n">
-        <v>23721.11</v>
-      </c>
-      <c r="F52" s="30" t="n">
-        <v>4521.11</v>
-      </c>
-      <c r="G52" s="29" t="n">
+      <c r="E52" s="31" t="n">
+        <v>24115.98</v>
+      </c>
+      <c r="F52" s="31" t="n">
+        <v>4915.98</v>
+      </c>
+      <c r="G52" s="30" t="n">
         <v>1.635</v>
       </c>
-      <c r="H52" s="31" t="inlineStr">
+      <c r="H52" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I52" s="29" t="n">
+      <c r="I52" s="30" t="n">
         <v>1.6505</v>
       </c>
-      <c r="J52" s="32" t="n">
+      <c r="J52" s="33" t="n">
         <v>0.0095</v>
       </c>
       <c r="K52" s="8" t="n">
         <v>226.68</v>
       </c>
-      <c r="L52" s="31" t="inlineStr">
+      <c r="L52" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M52" s="31" t="inlineStr">
+      <c r="M52" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N52" s="31" t="inlineStr">
+      <c r="N52" s="32" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O52" s="31" t="inlineStr">
+      <c r="O52" s="32" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P52" s="31" t="inlineStr">
+      <c r="P52" s="32" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q52" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q52" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27" t="inlineStr">
+      <c r="A53" s="28" t="inlineStr">
         <is>
           <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
-      <c r="B53" s="28" t="n">
+      <c r="B53" s="29" t="n">
         <v>1469</v>
       </c>
-      <c r="C53" s="29" t="n">
+      <c r="C53" s="30" t="n">
         <v>0.9073</v>
       </c>
-      <c r="D53" s="30" t="n">
+      <c r="D53" s="31" t="n">
         <v>21163.93</v>
       </c>
-      <c r="E53" s="30" t="n">
-        <v>22941.7</v>
-      </c>
-      <c r="F53" s="30" t="n">
-        <v>3741.7</v>
-      </c>
-      <c r="G53" s="29" t="n">
+      <c r="E53" s="31" t="n">
+        <v>23314.18</v>
+      </c>
+      <c r="F53" s="31" t="n">
+        <v>4114.18</v>
+      </c>
+      <c r="G53" s="30" t="n">
         <v>1.0972</v>
       </c>
-      <c r="H53" s="31" t="inlineStr">
+      <c r="H53" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I53" s="29" t="n">
+      <c r="I53" s="30" t="n">
         <v>1.1016</v>
       </c>
-      <c r="J53" s="32" t="n">
+      <c r="J53" s="33" t="n">
         <v>0.004</v>
       </c>
       <c r="K53" s="8" t="n">
         <v>93.12</v>
       </c>
-      <c r="L53" s="31" t="inlineStr">
+      <c r="L53" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M53" s="31" t="inlineStr">
+      <c r="M53" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N53" s="31" t="inlineStr">
+      <c r="N53" s="32" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O53" s="31" t="inlineStr">
+      <c r="O53" s="32" t="inlineStr">
         <is>
           <t>金融地产</t>
         </is>
       </c>
-      <c r="P53" s="31" t="inlineStr">
+      <c r="P53" s="32" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="Q53" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q53" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="27" t="inlineStr">
+      <c r="A54" s="28" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B54" s="28" t="n">
+      <c r="B54" s="29" t="n">
         <v>164906</v>
       </c>
-      <c r="C54" s="29" t="n">
+      <c r="C54" s="30" t="n">
         <v>1.1444</v>
       </c>
-      <c r="D54" s="30" t="n">
+      <c r="D54" s="31" t="n">
         <v>16778.47</v>
       </c>
-      <c r="E54" s="30" t="n">
-        <v>21291.87</v>
-      </c>
-      <c r="F54" s="30" t="n">
-        <v>2091.87</v>
-      </c>
-      <c r="G54" s="29" t="n">
+      <c r="E54" s="31" t="n">
+        <v>21409.32</v>
+      </c>
+      <c r="F54" s="31" t="n">
+        <v>2209.32</v>
+      </c>
+      <c r="G54" s="30" t="n">
         <v>1.283</v>
       </c>
-      <c r="H54" s="31" t="inlineStr">
+      <c r="H54" s="32" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="I54" s="29" t="n">
-        <v>1.2837</v>
-      </c>
-      <c r="J54" s="32" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="L54" s="31" t="inlineStr">
-        <is>
-          <t>2019-11-19 05:00</t>
-        </is>
-      </c>
-      <c r="M54" s="31" t="inlineStr">
+      <c r="I54" s="30" t="n">
+        <v>1.2797</v>
+      </c>
+      <c r="J54" s="33" t="n">
+        <v>-0.0026</v>
+      </c>
+      <c r="K54" s="27" t="n">
+        <v>-55.37</v>
+      </c>
+      <c r="L54" s="32" t="inlineStr">
+        <is>
+          <t>2019-11-20 05:00</t>
+        </is>
+      </c>
+      <c r="M54" s="32" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N54" s="31" t="inlineStr">
+      <c r="N54" s="32" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="O54" s="31" t="inlineStr">
+      <c r="O54" s="32" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="P54" s="31" t="inlineStr">
+      <c r="P54" s="32" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="Q54" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q54" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="27" t="inlineStr">
+      <c r="A55" s="28" t="inlineStr">
         <is>
           <t>富国中证500指数(LOF)</t>
         </is>
       </c>
-      <c r="B55" s="28" t="n">
+      <c r="B55" s="29" t="n">
         <v>161017</v>
       </c>
-      <c r="C55" s="29" t="n">
+      <c r="C55" s="30" t="n">
         <v>1.3432</v>
       </c>
-      <c r="D55" s="30" t="n">
+      <c r="D55" s="31" t="n">
         <v>9529.809999999999</v>
       </c>
-      <c r="E55" s="30" t="n">
-        <v>15018.98</v>
-      </c>
-      <c r="F55" s="30" t="n">
-        <v>2218.98</v>
-      </c>
-      <c r="G55" s="29" t="n">
+      <c r="E55" s="31" t="n">
+        <v>15381.11</v>
+      </c>
+      <c r="F55" s="31" t="n">
+        <v>2581.11</v>
+      </c>
+      <c r="G55" s="30" t="n">
         <v>1.587</v>
       </c>
-      <c r="H55" s="31" t="inlineStr">
+      <c r="H55" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I55" s="29" t="n">
+      <c r="I55" s="30" t="n">
         <v>1.6125</v>
       </c>
-      <c r="J55" s="32" t="n">
+      <c r="J55" s="33" t="n">
         <v>0.0161</v>
       </c>
       <c r="K55" s="8" t="n">
         <v>243.01</v>
       </c>
-      <c r="L55" s="31" t="inlineStr">
+      <c r="L55" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M55" s="31" t="inlineStr">
+      <c r="M55" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N55" s="31" t="inlineStr">
+      <c r="N55" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O55" s="31" t="inlineStr">
+      <c r="O55" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P55" s="31" t="inlineStr">
+      <c r="P55" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q55" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q55" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="27" t="inlineStr">
+      <c r="A56" s="28" t="inlineStr">
         <is>
           <t>华宝标普油气上游股票</t>
         </is>
       </c>
-      <c r="B56" s="28" t="n">
+      <c r="B56" s="29" t="n">
         <v>162411</v>
       </c>
-      <c r="C56" s="29" t="n">
+      <c r="C56" s="30" t="n">
         <v>0.5152</v>
       </c>
-      <c r="D56" s="30" t="n">
+      <c r="D56" s="31" t="n">
         <v>37267.45</v>
       </c>
-      <c r="E56" s="30" t="n">
-        <v>14347.96</v>
-      </c>
-      <c r="F56" s="30" t="n">
-        <v>-4852.04</v>
-      </c>
-      <c r="G56" s="29" t="n">
+      <c r="E56" s="31" t="n">
+        <v>14087.09</v>
+      </c>
+      <c r="F56" s="31" t="n">
+        <v>-5112.91</v>
+      </c>
+      <c r="G56" s="30" t="n">
         <v>0.389</v>
       </c>
-      <c r="H56" s="31" t="inlineStr">
+      <c r="H56" s="32" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="I56" s="29" t="n">
-        <v>0.3893</v>
-      </c>
-      <c r="J56" s="32" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="L56" s="31" t="inlineStr">
-        <is>
-          <t>2019-11-19 05:00</t>
-        </is>
-      </c>
-      <c r="M56" s="31" t="inlineStr">
+      <c r="I56" s="30" t="n">
+        <v>0.3876</v>
+      </c>
+      <c r="J56" s="33" t="n">
+        <v>-0.0035</v>
+      </c>
+      <c r="K56" s="27" t="n">
+        <v>-52.17</v>
+      </c>
+      <c r="L56" s="32" t="inlineStr">
+        <is>
+          <t>2019-11-20 05:00</t>
+        </is>
+      </c>
+      <c r="M56" s="32" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N56" s="31" t="inlineStr">
+      <c r="N56" s="32" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O56" s="31" t="inlineStr">
+      <c r="O56" s="32" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="P56" s="31" t="inlineStr">
+      <c r="P56" s="32" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q56" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q56" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="27" t="inlineStr">
+      <c r="A57" s="28" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B57" s="28" t="n">
+      <c r="B57" s="29" t="n">
         <v>71</v>
       </c>
-      <c r="C57" s="29" t="n">
+      <c r="C57" s="30" t="n">
         <v>1.4562</v>
       </c>
-      <c r="D57" s="30" t="n">
+      <c r="D57" s="31" t="n">
         <v>6798.52</v>
       </c>
-      <c r="E57" s="30" t="n">
-        <v>10001.3</v>
-      </c>
-      <c r="F57" s="30" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G57" s="29" t="n">
+      <c r="E57" s="31" t="n">
+        <v>10272.56</v>
+      </c>
+      <c r="F57" s="31" t="n">
+        <v>372.56</v>
+      </c>
+      <c r="G57" s="30" t="n">
         <v>1.4894</v>
       </c>
-      <c r="H57" s="31" t="inlineStr">
+      <c r="H57" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I57" s="29" t="n">
+      <c r="I57" s="30" t="n">
         <v>1.5113</v>
       </c>
-      <c r="J57" s="32" t="n">
+      <c r="J57" s="33" t="n">
         <v>0.0147</v>
       </c>
       <c r="K57" s="8" t="n">
         <v>148.89</v>
       </c>
-      <c r="L57" s="31" t="inlineStr">
+      <c r="L57" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 16:00</t>
         </is>
       </c>
-      <c r="M57" s="31" t="inlineStr">
+      <c r="M57" s="32" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N57" s="31" t="inlineStr">
+      <c r="N57" s="32" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O57" s="31" t="inlineStr">
+      <c r="O57" s="32" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P57" s="31" t="inlineStr">
+      <c r="P57" s="32" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q57" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q57" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="27" t="inlineStr">
+      <c r="A58" s="28" t="inlineStr">
         <is>
           <t>易方达创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B58" s="28" t="n">
+      <c r="B58" s="29" t="n">
         <v>110026</v>
       </c>
-      <c r="C58" s="29" t="n">
+      <c r="C58" s="30" t="n">
         <v>1.3359</v>
       </c>
-      <c r="D58" s="30" t="n">
+      <c r="D58" s="31" t="n">
         <v>4791.13</v>
       </c>
-      <c r="E58" s="30" t="n">
-        <v>8313.559999999999</v>
-      </c>
-      <c r="F58" s="30" t="n">
-        <v>1913.56</v>
-      </c>
-      <c r="G58" s="29" t="n">
+      <c r="E58" s="31" t="n">
+        <v>8566.059999999999</v>
+      </c>
+      <c r="F58" s="31" t="n">
+        <v>2166.06</v>
+      </c>
+      <c r="G58" s="30" t="n">
         <v>1.7426</v>
       </c>
-      <c r="H58" s="31" t="inlineStr">
+      <c r="H58" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I58" s="29" t="n">
+      <c r="I58" s="30" t="n">
         <v>1.7885</v>
       </c>
-      <c r="J58" s="32" t="n">
+      <c r="J58" s="33" t="n">
         <v>0.0263</v>
       </c>
       <c r="K58" s="8" t="n">
         <v>219.91</v>
       </c>
-      <c r="L58" s="31" t="inlineStr">
+      <c r="L58" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M58" s="31" t="inlineStr">
+      <c r="M58" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N58" s="31" t="inlineStr">
+      <c r="N58" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O58" s="31" t="inlineStr">
+      <c r="O58" s="32" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P58" s="31" t="inlineStr">
+      <c r="P58" s="32" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q58" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q58" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="27" t="inlineStr">
+      <c r="A59" s="28" t="inlineStr">
         <is>
           <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
-      <c r="B59" s="28" t="n">
+      <c r="B59" s="29" t="n">
         <v>1061</v>
       </c>
-      <c r="C59" s="29" t="n">
+      <c r="C59" s="30" t="n">
         <v>0.9172</v>
       </c>
-      <c r="D59" s="30" t="n">
+      <c r="D59" s="31" t="n">
         <v>5609.79</v>
       </c>
-      <c r="E59" s="30" t="n">
-        <v>7517.11</v>
-      </c>
-      <c r="F59" s="30" t="n">
-        <v>2371.99</v>
-      </c>
-      <c r="G59" s="29" t="n">
+      <c r="E59" s="31" t="n">
+        <v>7522.72</v>
+      </c>
+      <c r="F59" s="31" t="n">
+        <v>2377.6</v>
+      </c>
+      <c r="G59" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="31" t="inlineStr">
+      <c r="H59" s="32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I59" s="29" t="n">
+      <c r="I59" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="32" t="n">
+      <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="31" t="inlineStr">
+      <c r="L59" s="32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="M59" s="31" t="inlineStr">
+      <c r="M59" s="32" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N59" s="31" t="inlineStr">
+      <c r="N59" s="32" t="inlineStr">
         <is>
           <t>海外债券</t>
         </is>
       </c>
-      <c r="O59" s="31" t="inlineStr">
+      <c r="O59" s="32" t="inlineStr">
         <is>
           <t>美元债</t>
         </is>
       </c>
-      <c r="P59" s="31" t="inlineStr">
+      <c r="P59" s="32" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q59" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q59" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="27" t="inlineStr">
+      <c r="A60" s="28" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接A</t>
+        </is>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C60" s="30" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D60" s="31" t="n">
+        <v>13403.92</v>
+      </c>
+      <c r="E60" s="31" t="n">
+        <v>7276.98</v>
+      </c>
+      <c r="F60" s="31" t="n">
+        <v>876.98</v>
+      </c>
+      <c r="G60" s="30" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="H60" s="32" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I60" s="30" t="n">
+        <v>0.5438</v>
+      </c>
+      <c r="J60" s="33" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="L60" s="32" t="inlineStr">
+        <is>
+          <t>2019-11-19 15:00</t>
+        </is>
+      </c>
+      <c r="M60" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N60" s="32" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O60" s="32" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="P60" s="32" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="Q60" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="28" t="inlineStr">
         <is>
           <t>长信可转债债券A</t>
         </is>
       </c>
-      <c r="B60" s="28" t="n">
+      <c r="B61" s="29" t="n">
         <v>519977</v>
       </c>
-      <c r="C60" s="29" t="n">
+      <c r="C61" s="30" t="n">
         <v>1.2011</v>
       </c>
-      <c r="D60" s="30" t="n">
+      <c r="D61" s="31" t="n">
         <v>5328.62</v>
       </c>
-      <c r="E60" s="30" t="n">
-        <v>7230.4</v>
-      </c>
-      <c r="F60" s="30" t="n">
-        <v>830.4</v>
-      </c>
-      <c r="G60" s="29" t="n">
+      <c r="E61" s="31" t="n">
+        <v>7271.96</v>
+      </c>
+      <c r="F61" s="31" t="n">
+        <v>871.96</v>
+      </c>
+      <c r="G61" s="30" t="n">
         <v>1.3593</v>
       </c>
-      <c r="H60" s="31" t="inlineStr">
+      <c r="H61" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I60" s="29" t="n">
+      <c r="I61" s="30" t="n">
         <v>1.3649</v>
       </c>
-      <c r="J60" s="32" t="n">
+      <c r="J61" s="33" t="n">
         <v>0.0041</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K61" s="8" t="n">
         <v>29.84</v>
       </c>
-      <c r="L60" s="31" t="inlineStr">
+      <c r="L61" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M60" s="31" t="inlineStr">
+      <c r="M61" s="32" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N60" s="31" t="inlineStr">
+      <c r="N61" s="32" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O60" s="31" t="inlineStr">
+      <c r="O61" s="32" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P60" s="31" t="inlineStr">
+      <c r="P61" s="32" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="Q60" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="27" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接A</t>
-        </is>
-      </c>
-      <c r="B61" s="28" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C61" s="29" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="D61" s="30" t="n">
-        <v>13403.92</v>
-      </c>
-      <c r="E61" s="30" t="n">
-        <v>7109.43</v>
-      </c>
-      <c r="F61" s="30" t="n">
-        <v>709.4299999999999</v>
-      </c>
-      <c r="G61" s="29" t="n">
-        <v>0.5336</v>
-      </c>
-      <c r="H61" s="31" t="inlineStr">
+      <c r="Q61" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="28" t="inlineStr">
+        <is>
+          <t>广发中证500ETF联接C</t>
+        </is>
+      </c>
+      <c r="B62" s="29" t="n">
+        <v>2903</v>
+      </c>
+      <c r="C62" s="30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D62" s="31" t="n">
+        <v>7778.64</v>
+      </c>
+      <c r="E62" s="31" t="n">
+        <v>6793.86</v>
+      </c>
+      <c r="F62" s="31" t="n">
+        <v>-206.14</v>
+      </c>
+      <c r="G62" s="30" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="H62" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I61" s="29" t="n">
-        <v>0.5438</v>
-      </c>
-      <c r="J61" s="32" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>136.72</v>
-      </c>
-      <c r="L61" s="31" t="inlineStr">
-        <is>
-          <t>2019-11-19 15:00</t>
-        </is>
-      </c>
-      <c r="M61" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N61" s="31" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O61" s="31" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="P61" s="31" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="Q61" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="27" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接C</t>
-        </is>
-      </c>
-      <c r="B62" s="28" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C62" s="29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D62" s="30" t="n">
-        <v>7778.64</v>
-      </c>
-      <c r="E62" s="30" t="n">
-        <v>6657.73</v>
-      </c>
-      <c r="F62" s="30" t="n">
-        <v>-342.27</v>
-      </c>
-      <c r="G62" s="29" t="n">
-        <v>0.8599</v>
-      </c>
-      <c r="H62" s="31" t="inlineStr">
-        <is>
-          <t>2019-11-18</t>
-        </is>
-      </c>
-      <c r="I62" s="29" t="n">
+      <c r="I62" s="30" t="n">
         <v>0.8737</v>
       </c>
-      <c r="J62" s="32" t="n">
+      <c r="J62" s="33" t="n">
         <v>0.0161</v>
       </c>
       <c r="K62" s="8" t="n">
         <v>107.35</v>
       </c>
-      <c r="L62" s="31" t="inlineStr">
+      <c r="L62" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M62" s="31" t="inlineStr">
+      <c r="M62" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N62" s="31" t="inlineStr">
+      <c r="N62" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O62" s="31" t="inlineStr">
+      <c r="O62" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P62" s="31" t="inlineStr">
+      <c r="P62" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q62" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q62" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="27" t="inlineStr">
+      <c r="A63" s="28" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B63" s="28" t="n">
+      <c r="B63" s="29" t="n">
         <v>4752</v>
       </c>
-      <c r="C63" s="29" t="n">
+      <c r="C63" s="30" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="D63" s="30" t="n">
+      <c r="D63" s="31" t="n">
         <v>7852.99</v>
       </c>
-      <c r="E63" s="30" t="n">
-        <v>5830.84</v>
-      </c>
-      <c r="F63" s="30" t="n">
-        <v>-569.16</v>
-      </c>
-      <c r="G63" s="29" t="n">
+      <c r="E63" s="31" t="n">
+        <v>6113.55</v>
+      </c>
+      <c r="F63" s="31" t="n">
+        <v>-286.45</v>
+      </c>
+      <c r="G63" s="30" t="n">
         <v>0.7503</v>
       </c>
-      <c r="H63" s="31" t="inlineStr">
+      <c r="H63" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I63" s="29" t="n">
+      <c r="I63" s="30" t="n">
         <v>0.7796999999999999</v>
       </c>
-      <c r="J63" s="32" t="n">
+      <c r="J63" s="33" t="n">
         <v>0.0392</v>
       </c>
       <c r="K63" s="8" t="n">
         <v>230.88</v>
       </c>
-      <c r="L63" s="31" t="inlineStr">
+      <c r="L63" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M63" s="31" t="inlineStr">
+      <c r="M63" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N63" s="31" t="inlineStr">
+      <c r="N63" s="32" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O63" s="31" t="inlineStr">
+      <c r="O63" s="32" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P63" s="31" t="inlineStr">
+      <c r="P63" s="32" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q63" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q63" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="27" t="inlineStr">
+      <c r="A64" s="28" t="inlineStr">
         <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B64" s="28" t="n">
+      <c r="B64" s="29" t="n">
         <v>3647</v>
       </c>
-      <c r="C64" s="29" t="n">
+      <c r="C64" s="30" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D64" s="30" t="n">
+      <c r="D64" s="31" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E64" s="30" t="n">
-        <v>3318.12</v>
-      </c>
-      <c r="F64" s="30" t="n">
-        <v>-181.88</v>
-      </c>
-      <c r="G64" s="29" t="n">
+      <c r="E64" s="31" t="n">
+        <v>3394.02</v>
+      </c>
+      <c r="F64" s="31" t="n">
+        <v>-105.98</v>
+      </c>
+      <c r="G64" s="30" t="n">
         <v>0.9319</v>
       </c>
-      <c r="H64" s="31" t="inlineStr">
+      <c r="H64" s="32" t="inlineStr">
         <is>
           <t>2019-11-18</t>
         </is>
       </c>
-      <c r="I64" s="29" t="n">
+      <c r="I64" s="30" t="n">
         <v>0.9485</v>
       </c>
-      <c r="J64" s="32" t="n">
+      <c r="J64" s="33" t="n">
         <v>0.0178</v>
       </c>
       <c r="K64" s="8" t="n">
         <v>59.43</v>
       </c>
-      <c r="L64" s="31" t="inlineStr">
+      <c r="L64" s="32" t="inlineStr">
         <is>
           <t>2019-11-19 15:00</t>
         </is>
       </c>
-      <c r="M64" s="31" t="inlineStr">
+      <c r="M64" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N64" s="31" t="inlineStr">
+      <c r="N64" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O64" s="31" t="inlineStr">
+      <c r="O64" s="32" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P64" s="31" t="inlineStr">
+      <c r="P64" s="32" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q64" s="31" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="Q64" s="32" t="inlineStr">
+        <is>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -568,10 +568,10 @@
         <v>2211.21</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3588.79</v>
+        <v>3562.26</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-67.40000000000001</v>
+        <v>-93.93000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.623</v>
@@ -637,10 +637,10 @@
         <v>2462.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3568.21</v>
+        <v>3526.34</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>57.07</v>
+        <v>15.2</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.449</v>
@@ -706,10 +706,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3317.89</v>
+        <v>3297.09</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270.95</v>
+        <v>250.15</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.468</v>
@@ -775,10 +775,10 @@
         <v>3272.2</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3019.91</v>
+        <v>3003.23</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-37.65</v>
+        <v>-54.33</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9229000000000001</v>
@@ -844,10 +844,10 @@
         <v>1266.95</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2364.38</v>
+        <v>2340.18</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8662</v>
@@ -913,10 +913,10 @@
         <v>930.7</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2018.5</v>
+        <v>1998.03</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45.74</v>
+        <v>25.27</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1688</v>
@@ -982,10 +982,10 @@
         <v>797.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>782.6</v>
+        <v>778.77</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.03</v>
+        <v>12.2</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9809</v>
@@ -1051,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>515.89</v>
+        <v>513.08</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-25</v>
+        <v>-27.81</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9373</v>
@@ -1123,7 +1123,7 @@
         <v>432.2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74.78</v>
+        <v>75.42</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.8114</v>
@@ -1189,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>332.2</v>
+        <v>329.72</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.94</v>
+        <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.34</v>
@@ -1258,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88.39</v>
+        <v>87.38</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.32</v>
+        <v>-5.33</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4584</v>
@@ -1327,10 +1327,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9083.73</v>
+        <v>9016.809999999999</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2916.26</v>
+        <v>-2983.19</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5429</v>
@@ -1396,10 +1396,10 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8224.200000000001</v>
+        <v>8135.1</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1914.3</v>
+        <v>1825.2</v>
       </c>
       <c r="G14" s="18" t="n">
         <v>3.046</v>
@@ -1465,10 +1465,10 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36500.1</v>
+        <v>36127</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>5132.4</v>
+        <v>4759.3</v>
       </c>
       <c r="G15" s="18" t="n">
         <v>4.011</v>
@@ -1534,17 +1534,17 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>208394.8</v>
+        <v>207075.6</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-8924</v>
+        <v>-10243.2</v>
       </c>
       <c r="G16" s="18" t="n">
         <v>5.371</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
@@ -1603,17 +1603,17 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24369.8</v>
+        <v>24200.8</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5272.8</v>
+        <v>-5441.8</v>
       </c>
       <c r="G17" s="18" t="n">
         <v>0.721</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
@@ -1672,10 +1672,10 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29887.8</v>
+        <v>29430</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4283.7</v>
+        <v>3825.9</v>
       </c>
       <c r="G18" s="18" t="n">
         <v>0.914</v>
@@ -1741,17 +1741,17 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26393.4</v>
+        <v>26188.8</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3239.5</v>
+        <v>-3444.1</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>0.774</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
@@ -1810,17 +1810,17 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14805</v>
+        <v>14854.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1953</v>
+        <v>2002.5</v>
       </c>
       <c r="G20" s="18" t="n">
         <v>3.29</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1879,17 +1879,17 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15327.2</v>
+        <v>15226</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2456.4</v>
+        <v>2355.2</v>
       </c>
       <c r="G21" s="18" t="n">
         <v>1.666</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -1948,17 +1948,17 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20635.2</v>
+        <v>20606.4</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2332.8</v>
+        <v>2304</v>
       </c>
       <c r="G22" s="18" t="n">
         <v>1.433</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
@@ -2017,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7486.18</v>
+        <v>7443.84</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>149.18</v>
+        <v>106.84</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.963</v>
@@ -2086,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5278.07</v>
+        <v>5239.19</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-57.93</v>
+        <v>-96.81</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5429</v>
@@ -2155,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4849.53</v>
+        <v>4825.8</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>180.53</v>
+        <v>156.8</v>
       </c>
       <c r="G25" s="24" t="n">
         <v>0.9809</v>
@@ -2224,10 +2224,10 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4080.89</v>
+        <v>4058.75</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>78.89</v>
+        <v>56.75</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.553</v>
@@ -2293,10 +2293,10 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4046.17</v>
+        <v>4013.19</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>44.17</v>
+        <v>11.19</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>1.104</v>
@@ -2362,10 +2362,10 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3542.6</v>
+        <v>3516.21</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>207.6</v>
+        <v>181.21</v>
       </c>
       <c r="G28" s="24" t="n">
         <v>0.7785</v>
@@ -2431,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>716.29</v>
+        <v>712.6</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>49.29</v>
+        <v>45.6</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>1.7879</v>
@@ -2500,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>715.3200000000001</v>
+        <v>711.49</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>48.32</v>
+        <v>44.49</v>
       </c>
       <c r="G30" s="24" t="n">
         <v>0.9715</v>
@@ -2569,10 +2569,10 @@
         <v>377.37</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>370.46</v>
+        <v>364.88</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-3.06</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>0.9817</v>
@@ -2638,10 +2638,10 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2003.38</v>
+        <v>1945.09</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>2.38</v>
+        <v>-55.91</v>
       </c>
       <c r="G32" s="24" t="n">
         <v>0.378</v>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-6.89</v>
+        <v>-8.48</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>-1.9</v>
+        <v>-2.36</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,10 +2776,10 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>694.5599999999999</v>
+        <v>690.15</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>27.56</v>
+        <v>23.15</v>
       </c>
       <c r="G34" s="24" t="n">
         <v>1.511</v>
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>734.71</v>
+        <v>737.16</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>67.70999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2054.73</v>
+        <v>2043.11</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>54.73</v>
+        <v>43.11</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.963</v>
@@ -2983,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2015.79</v>
+        <v>1999.36</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>15.79</v>
+        <v>-0.64</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.104</v>
@@ -3052,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1087.77</v>
+        <v>1076.12</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>87.77</v>
+        <v>76.12</v>
       </c>
       <c r="G38" s="24" t="n">
         <v>1.027</v>
@@ -3121,10 +3121,10 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1002.42</v>
+        <v>996.99</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>2.42</v>
+        <v>-3.02</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.553</v>
@@ -3190,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>955.24</v>
+        <v>948.13</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-44.76</v>
+        <v>-51.87</v>
       </c>
       <c r="G40" s="24" t="n">
         <v>0.7785</v>
@@ -3259,10 +3259,10 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2231.63</v>
+        <v>2239.34</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>231.63</v>
+        <v>239.34</v>
       </c>
       <c r="G41" s="24" t="n">
         <v>1.2165</v>
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2207</v>
+        <v>1.2137</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>7.7</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-5.14</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:30</t>
+          <t>2019-11-21 02:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-2.97</v>
+        <v>-3.69</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,10 +3397,10 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1041.11</v>
+        <v>1034.49</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>41.11</v>
+        <v>34.49</v>
       </c>
       <c r="G43" s="24" t="n">
         <v>1.511</v>
@@ -3466,10 +3466,10 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1798.49</v>
+        <v>1746.15</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-201.51</v>
+        <v>-253.85</v>
       </c>
       <c r="G44" s="24" t="n">
         <v>0.378</v>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-6.19</v>
+        <v>-7.61</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1145.71</v>
+        <v>1149.52</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>145.71</v>
+        <v>149.52</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>71831.02</v>
+        <v>71245.44</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>5511.02</v>
+        <v>4925.44</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.104</v>
@@ -3673,10 +3673,10 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>62277.34</v>
+        <v>61972.58</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>4077.34</v>
+        <v>3772.58</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>0.9809</v>
@@ -3742,10 +3742,10 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37420.05</v>
+        <v>37297.04</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5420.05</v>
+        <v>5297.04</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>1.156</v>
@@ -3811,10 +3811,10 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36548.35</v>
+        <v>36507.34</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5988.35</v>
+        <v>5947.34</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>0.8911</v>
@@ -3880,10 +3880,10 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34107.09</v>
+        <v>34006.66</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2107.09</v>
+        <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
         <v>1.698</v>
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24880.67</v>
+        <v>24963.53</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2280.67</v>
+        <v>2363.53</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24115.98</v>
+        <v>23867.36</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4915.98</v>
+        <v>4667.36</v>
       </c>
       <c r="G52" s="30" t="n">
         <v>1.649</v>
@@ -4087,10 +4087,10 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23314.18</v>
+        <v>22992.49</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4114.18</v>
+        <v>3792.49</v>
       </c>
       <c r="G53" s="30" t="n">
         <v>1.1016</v>
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-55.37</v>
+        <v>-68.79000000000001</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,10 +4225,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15381.11</v>
+        <v>15295.34</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2581.11</v>
+        <v>2495.34</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.614</v>
@@ -4294,10 +4294,10 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>14087.09</v>
+        <v>13677.15</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5112.91</v>
+        <v>-5522.85</v>
       </c>
       <c r="G56" s="30" t="n">
         <v>0.378</v>
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-48.45</v>
+        <v>-59.63</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,10 +4363,10 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10272.56</v>
+        <v>10207.29</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>372.56</v>
+        <v>307.29</v>
       </c>
       <c r="G57" s="30" t="n">
         <v>1.511</v>
@@ -4432,10 +4432,10 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8566.059999999999</v>
+        <v>8521.98</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2166.06</v>
+        <v>2121.98</v>
       </c>
       <c r="G58" s="30" t="n">
         <v>1.7879</v>
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4557,26 +4557,26 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7276.98</v>
+        <v>7255.98</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>876.98</v>
+        <v>855.98</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5429</v>
+        <v>1.3647</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
@@ -4584,13 +4584,13 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5384</v>
+        <v>1.3604</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.008399999999999999</v>
+        <v>-0.0032</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-60.32</v>
+        <v>-22.91</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
@@ -4599,22 +4599,22 @@
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,26 +4626,26 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7271.96</v>
+        <v>7223.37</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>871.96</v>
+        <v>823.37</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3647</v>
+        <v>0.5429</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4653,13 +4653,13 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3604</v>
+        <v>0.5384</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0032</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-22.91</v>
+        <v>-60.32</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
@@ -4668,22 +4668,22 @@
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4708,10 +4708,10 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6793.86</v>
+        <v>6757.3</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-206.14</v>
+        <v>-242.7</v>
       </c>
       <c r="G62" s="30" t="n">
         <v>0.8734</v>
@@ -4777,10 +4777,10 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6113.55</v>
+        <v>6068</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-286.45</v>
+        <v>-332</v>
       </c>
       <c r="G63" s="30" t="n">
         <v>0.7785</v>
@@ -4846,10 +4846,10 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3394.02</v>
+        <v>3373.62</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-105.98</v>
+        <v>-126.38</v>
       </c>
       <c r="G64" s="30" t="n">
         <v>0.948</v>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,25 +574,25 @@
         <v>-93.93000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.623</v>
+        <v>1.611</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6098</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-27.2</v>
+        <v>-2.65</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -643,25 +643,25 @@
         <v>15.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.449</v>
+        <v>1.432</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4262</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-42.36</v>
+        <v>-14.28</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -712,25 +712,25 @@
         <v>250.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4588</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4373</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0147</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-23.51</v>
+        <v>-48.59</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -781,25 +781,25 @@
         <v>-54.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9183</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-17.34</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1.64</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -850,25 +850,25 @@
         <v>67.09999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.8471</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0027</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-24.2</v>
+        <v>-6.21</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -919,25 +919,25 @@
         <v>25.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1468</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1376</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0043</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-21.13</v>
+        <v>-8.56</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -988,25 +988,25 @@
         <v>12.2</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-3.83</v>
+        <v>-4.47</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1057,25 +1057,25 @@
         <v>-27.81</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9322</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.93</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0024</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-3.8</v>
+        <v>-1.21</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1126,25 +1126,25 @@
         <v>75.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.8126</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.64</v>
+        <v>-0.0068</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-2.98</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1195,25 +1195,25 @@
         <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.3188</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.65</v>
+        <v>-2.78</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1264,25 +1264,25 @@
         <v>-5.33</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.4417</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4358</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-1.05</v>
+        <v>-0.36</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1333,25 +1333,25 @@
         <v>-2983.19</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-75.29000000000001</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>5.02</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8135.1</v>
+        <v>8086.5</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1825.2</v>
+        <v>1776.6</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>3.046</v>
+        <v>3.013</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.013</v>
+        <v>2.995</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.0108</v>
+        <v>-0.006</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-89.09999999999999</v>
+        <v>-48.6</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36127</v>
+        <v>35945</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4759.3</v>
+        <v>4577.3</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>4.011</v>
+        <v>3.97</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0102</v>
+        <v>-0.005</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-373.1</v>
+        <v>-182</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,13 +1534,13 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>207075.6</v>
+        <v>207386</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-10243.2</v>
+        <v>-9932.799999999999</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.371</v>
+        <v>5.337</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.337</v>
+        <v>5.345</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-1319.2</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>310.4</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1609,7 +1609,7 @@
         <v>-5441.8</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
@@ -1620,14 +1620,14 @@
         <v>0.716</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0069</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-169</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1678,25 +1678,25 @@
         <v>3825.9</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.914</v>
+        <v>0.9</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
         <v>0.9</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0153</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-457.8</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1747,7 +1747,7 @@
         <v>-3444.1</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.774</v>
+        <v>0.768</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
@@ -1758,14 +1758,14 @@
         <v>0.768</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0078</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-204.6</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,13 +1810,13 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14854.5</v>
+        <v>14823</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>2002.5</v>
+        <v>1971</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.29</v>
+        <v>3.301</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.301</v>
+        <v>3.294</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>49.5</v>
+        <v>-0.0021</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-31.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15226</v>
+        <v>15180</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2355.2</v>
+        <v>2309.2</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.666</v>
+        <v>1.655</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0066</v>
+        <v>-0.003</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-101.2</v>
+        <v>-46</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-21 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,13 +1948,13 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20606.4</v>
+        <v>20361.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2304</v>
+        <v>2059.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.433</v>
+        <v>1.431</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.431</v>
+        <v>1.414</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0014</v>
+        <v>-0.0119</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-28.8</v>
+        <v>-244.8</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-21 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2023,25 +2023,25 @@
         <v>106.84</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.963</v>
+        <v>1.9519</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9522</v>
+        <v>1.9517</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-41.19</v>
+        <v>-0.76</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2092,25 +2092,25 @@
         <v>-96.81</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-43.75</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>2.92</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2161,25 +2161,25 @@
         <v>156.8</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-23.73</v>
+        <v>-27.69</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2230,25 +2230,25 @@
         <v>56.75</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.55</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-22.14</v>
+        <v>-0.74</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2299,25 +2299,25 @@
         <v>11.19</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-30.79</v>
+        <v>-2.93</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2368,25 +2368,25 @@
         <v>181.21</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-27.3</v>
+        <v>-3.64</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2437,25 +2437,25 @@
         <v>45.6</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7879</v>
+        <v>1.7787</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-3.69</v>
+        <v>-2.56</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2506,25 +2506,25 @@
         <v>44.49</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9715</v>
+        <v>0.9663</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9665</v>
+        <v>0.9628</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-3.68</v>
+        <v>-2.58</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2563,37 +2563,37 @@
         <v>502010</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.9898</v>
+        <v>0.9853</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>377.37</v>
+        <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>364.88</v>
+        <v>458.17</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9817</v>
+        <v>0.9669</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9666</v>
+        <v>0.9674</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0154</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-5.7</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0.24</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2644,15 +2644,15 @@
         <v>-55.91</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J32" s="27" t="n">
         <v>-0.0043</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
@@ -2782,25 +2782,25 @@
         <v>23.15</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-4.96</v>
+        <v>-10.3</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2920,25 +2920,25 @@
         <v>43.11</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.963</v>
+        <v>1.9519</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9522</v>
+        <v>1.9517</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-11.3</v>
+        <v>-0.21</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2989,25 +2989,25 @@
         <v>-0.64</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-15.34</v>
+        <v>-1.46</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3058,25 +3058,25 @@
         <v>76.12</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.027</v>
+        <v>1.016</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0164</v>
+        <v>1.0099</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0104</v>
+        <v>-0.006</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-11.23</v>
+        <v>-6.46</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3127,25 +3127,25 @@
         <v>-3.02</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.55</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-5.44</v>
+        <v>-0.18</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3196,25 +3196,25 @@
         <v>-51.87</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-7.36</v>
+        <v>-0.98</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3265,25 +3265,25 @@
         <v>239.34</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2165</v>
+        <v>1.2207</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2137</v>
+        <v>1.2201</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0023</v>
+        <v>-0.0005</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-5.14</v>
+        <v>-1.1</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 02:30</t>
+          <t>2019-11-21 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
@@ -3403,25 +3403,25 @@
         <v>34.49</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-7.44</v>
+        <v>-15.43</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3472,15 +3472,15 @@
         <v>-253.85</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J44" s="27" t="n">
         <v>-0.0043</v>
@@ -3610,25 +3610,25 @@
         <v>4925.44</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-546.54</v>
+        <v>-52.05</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3679,25 +3679,25 @@
         <v>3772.58</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-304.75</v>
+        <v>-355.54</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3748,25 +3748,25 @@
         <v>5297.04</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.156</v>
+        <v>1.1522</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1535</v>
+        <v>1.1504</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0016</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-80.93000000000001</v>
+        <v>-58.27</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3817,25 +3817,25 @@
         <v>5947.34</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8911</v>
+        <v>0.8901</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8902</v>
+        <v>0.8802</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.0111</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-36.91</v>
+        <v>-406.05</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3886,25 +3886,25 @@
         <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.698</v>
+        <v>1.693</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6944</v>
+        <v>1.6893</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0022</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-72.31</v>
+        <v>-74.31999999999999</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -4024,25 +4024,25 @@
         <v>4667.36</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.649</v>
+        <v>1.632</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6335</v>
+        <v>1.6247</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0094</v>
+        <v>-0.0045</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-226.68</v>
+        <v>-106.76</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4093,25 +4093,25 @@
         <v>3792.49</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.1016</v>
+        <v>1.0864</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0858</v>
+        <v>1.0824</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0143</v>
+        <v>-0.0037</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-334.39</v>
+        <v>-84.66</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4231,25 +4231,25 @@
         <v>2495.34</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.614</v>
+        <v>1.605</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6051</v>
+        <v>1.6048</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-84.81999999999999</v>
+        <v>-1.91</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4300,15 +4300,15 @@
         <v>-5522.85</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J56" s="33" t="n">
         <v>-0.0043</v>
@@ -4369,25 +4369,25 @@
         <v>307.29</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-73.42</v>
+        <v>-152.29</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4438,25 +4438,25 @@
         <v>2121.98</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7879</v>
+        <v>1.7787</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-44.08</v>
+        <v>-30.66</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4576,25 +4576,25 @@
         <v>855.98</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3647</v>
+        <v>1.3617</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3604</v>
+        <v>1.3578</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-22.91</v>
+        <v>-20.78</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4645,25 +4645,25 @@
         <v>823.37</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>-60.32</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4.02</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4714,25 +4714,25 @@
         <v>-242.7</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8734</v>
+        <v>0.8687</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
         <v>0.8686</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-37.34</v>
+        <v>-0.78</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4783,25 +4783,25 @@
         <v>-332</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-47.12</v>
+        <v>-6.28</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4852,25 +4852,25 @@
         <v>-126.38</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.948</v>
+        <v>0.9423</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9435</v>
+        <v>0.9408</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0016</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-16.11</v>
+        <v>-5.37</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4900,6 +4900,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,31 +568,31 @@
         <v>2211.21</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3562.26</v>
+        <v>3546.78</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-93.93000000000001</v>
+        <v>-109.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.611</v>
+        <v>1.61</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6098</v>
+        <v>1.6043</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-2.65</v>
+        <v>-12.6</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2462.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3526.34</v>
+        <v>3499.26</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>15.2</v>
+        <v>-11.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.432</v>
+        <v>1.425</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4262</v>
+        <v>1.4212</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-14.28</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3297.09</v>
+        <v>3269.52</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250.15</v>
+        <v>222.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4466</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4373</v>
+        <v>1.4532</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0147</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>-48.59</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>14.92</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3272.2</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3003.23</v>
+        <v>2985.56</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-54.33</v>
+        <v>-72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.9183</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9124</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>1.64</v>
+        <v>-0.0065</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-19.31</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1266.95</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2340.18</v>
+        <v>2311.93</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67.09999999999999</v>
+        <v>38.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.8247</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0095</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-6.21</v>
+        <v>-22.17</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>930.7</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1998.03</v>
+        <v>1973.83</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25.27</v>
+        <v>1.07</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1468</v>
+        <v>2.1379</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1376</v>
+        <v>2.1202</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0083</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-8.56</v>
+        <v>-16.47</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>797.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>778.77</v>
+        <v>762.58</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.2</v>
+        <v>-3.99</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-4.47</v>
+        <v>-11.65</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>513.08</v>
+        <v>512.48</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-27.81</v>
+        <v>-28.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9334</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9278</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.006</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.21</v>
+        <v>-3.08</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>432.2</v>
+        <v>415.39</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75.42</v>
+        <v>58.61</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8068</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0317</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-2.98</v>
+        <v>-13.62</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>329.72</v>
+        <v>325.75</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.46</v>
+        <v>12.49</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3188</v>
+        <v>1.311</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0068</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.78</v>
+        <v>-2.23</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.38</v>
+        <v>86.81</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.33</v>
+        <v>-5.9</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4361</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4358</v>
+        <v>1.4323</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.36</v>
+        <v>-0.23</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9016.809999999999</v>
+        <v>9011.790000000001</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2983.19</v>
+        <v>-2988.21</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5389</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>5.02</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-5.02</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8086.5</v>
+        <v>8010.9</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1776.6</v>
+        <v>1701</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>3.013</v>
+        <v>2.995</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.995</v>
+        <v>2.967</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.006</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-48.6</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>35945</v>
+        <v>35562.8</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4577.3</v>
+        <v>4195.1</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.95</v>
+        <v>3.908</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.005</v>
+        <v>-0.0106</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-182</v>
+        <v>-382.2</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>207386</v>
+        <v>205252</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-9932.799999999999</v>
+        <v>-12066.8</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.337</v>
+        <v>5.345</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.345</v>
+        <v>5.29</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>310.4</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-2134</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24200.8</v>
+        <v>24167</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5441.8</v>
+        <v>-5475.6</v>
       </c>
       <c r="G17" s="18" t="n">
         <v>0.716</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-33.8</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29430</v>
+        <v>29397.3</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>3825.9</v>
+        <v>3793.2</v>
       </c>
       <c r="G18" s="18" t="n">
         <v>0.9</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-32.7</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26188.8</v>
+        <v>26052.4</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3444.1</v>
+        <v>-3580.5</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>0.768</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.768</v>
+        <v>0.764</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-136.4</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,21 +1810,21 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14823</v>
+        <v>14791.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1971</v>
+        <v>1939.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.301</v>
+        <v>3.294</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.294</v>
+        <v>3.287</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>-0.0021</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15180</v>
+        <v>14848.8</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2309.2</v>
+        <v>1978</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.65</v>
+        <v>1.614</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.003</v>
+        <v>-0.0218</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-46</v>
+        <v>-331.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:04</t>
+          <t>2019-11-22 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20361.6</v>
+        <v>19713.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2059.2</v>
+        <v>1411.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.431</v>
+        <v>1.414</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.414</v>
+        <v>1.369</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0119</v>
+        <v>-0.0318</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-244.8</v>
+        <v>-648</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:04</t>
+          <t>2019-11-22 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7443.84</v>
+        <v>7382.44</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>106.84</v>
+        <v>45.44</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.9519</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9517</v>
+        <v>1.9363</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-0.76</v>
+        <v>-59.49</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5239.19</v>
+        <v>5236.27</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-96.81</v>
+        <v>-99.73</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5389</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>2.92</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-2.92</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4825.8</v>
+        <v>4725.44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>156.8</v>
+        <v>56.44</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-27.69</v>
+        <v>-72.18000000000001</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4058.75</v>
+        <v>4021.85</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>56.75</v>
+        <v>19.85</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.55</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.5456</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-0.74</v>
+        <v>-32.47</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4013.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>11.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>1.095</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-2.93</v>
+        <v>-13.93</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3516.21</v>
+        <v>3477.99</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>181.21</v>
+        <v>142.99</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-3.64</v>
+        <v>-35.04</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>712.6</v>
+        <v>696.98</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>45.6</v>
+        <v>29.98</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7723</v>
+        <v>1.7395</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-2.56</v>
+        <v>-13.14</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>711.49</v>
+        <v>696.25</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>44.49</v>
+        <v>29.25</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9663</v>
+        <v>0.9631</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9628</v>
+        <v>0.9453</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-2.58</v>
+        <v>-13.11</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>458.17</v>
+        <v>456.79</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-8.73</v>
+        <v>-10.11</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9669</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9674</v>
+        <v>0.9643</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>0.24</v>
+        <v>-0.003</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1945.09</v>
+        <v>1982.18</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-55.91</v>
+        <v>-18.81</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-8.48</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>6.89</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>736</v>
+        <v>718.12</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>69</v>
+        <v>51.12</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-2.36</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>1.85</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>690.15</v>
+        <v>685.46</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>23.15</v>
+        <v>18.46</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-10.3</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>3.17</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>737.16</v>
+        <v>734.71</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>70.16</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2043.11</v>
+        <v>2026.26</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>43.11</v>
+        <v>26.26</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.9519</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9517</v>
+        <v>1.9363</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-0.21</v>
+        <v>-16.33</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1999.36</v>
+        <v>1988.41</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-0.64</v>
+        <v>-11.59</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.095</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-1.46</v>
+        <v>-6.94</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1076.12</v>
+        <v>1060.23</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>76.12</v>
+        <v>60.23</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.016</v>
+        <v>1.01</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0099</v>
+        <v>1.0012</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.006</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-6.46</v>
+        <v>-9.32</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>996.99</v>
+        <v>987.92</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-3.02</v>
+        <v>-12.08</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.55</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.5456</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-0.18</v>
+        <v>-7.98</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>948.13</v>
+        <v>937.8200000000001</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-51.87</v>
+        <v>-62.18</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-0.98</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2239.34</v>
+        <v>2240.44</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>239.34</v>
+        <v>240.44</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2207</v>
+        <v>1.2202</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2201</v>
+        <v>1.2219</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-1.1</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>3.12</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:30</t>
+          <t>2019-11-22 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1148.17</v>
+        <v>1120.28</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>148.17</v>
+        <v>120.28</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-3.69</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>2.88</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1034.49</v>
+        <v>1027.47</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>34.49</v>
+        <v>27.47</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>-15.43</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>4.75</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1746.15</v>
+        <v>1779.45</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-253.85</v>
+        <v>-220.55</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>-7.61</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>6.19</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1149.52</v>
+        <v>1145.71</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>149.52</v>
+        <v>145.71</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,31 +3604,31 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>71245.44</v>
+        <v>70855.05</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>4925.44</v>
+        <v>4535.05</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.095</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-52.05</v>
+        <v>-247.24</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>61972.58</v>
+        <v>60683.74</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>3772.58</v>
+        <v>2483.74</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-355.54</v>
+        <v>-926.95</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37297.04</v>
+        <v>37054.27</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5297.04</v>
+        <v>5054.27</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1522</v>
+        <v>1.1484</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1504</v>
+        <v>1.1459</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-58.27</v>
+        <v>-80.93000000000001</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36507.34</v>
+        <v>35051.31</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5947.34</v>
+        <v>4491.31</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8901</v>
+        <v>0.8803</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8802</v>
+        <v>0.8542999999999999</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0111</v>
+        <v>-0.0295</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-406.05</v>
+        <v>-1066.39</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34006.66</v>
+        <v>33765.62</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2006.66</v>
+        <v>1765.62</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.693</v>
+        <v>1.688</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6893</v>
+        <v>1.6841</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-74.31999999999999</v>
+        <v>-78.34</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24963.53</v>
+        <v>24880.67</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2363.53</v>
+        <v>2280.67</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>23867.36</v>
+        <v>23501.74</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4667.36</v>
+        <v>4301.74</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.632</v>
+        <v>1.626</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6247</v>
+        <v>1.6102</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0097</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-106.76</v>
+        <v>-231.07</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>22992.49</v>
+        <v>22810.48</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3792.49</v>
+        <v>3610.48</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.0864</v>
+        <v>1.0826</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0824</v>
+        <v>1.0777</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0037</v>
+        <v>-0.0046</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-84.66</v>
+        <v>-103.7</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>21409.32</v>
+        <v>20889.19</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2209.32</v>
+        <v>1689.19</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>-68.79000000000001</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>53.69</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15295.34</v>
+        <v>15133.33</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2495.34</v>
+        <v>2333.33</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.605</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6048</v>
+        <v>1.5922</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-1.91</v>
+        <v>-121.98</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>13677.15</v>
+        <v>13938.02</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5522.85</v>
+        <v>-5261.98</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>-59.63</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>48.45</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10207.29</v>
+        <v>10137.95</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>307.29</v>
+        <v>237.95</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>-152.29</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>46.91</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8521.98</v>
+        <v>8335.120000000001</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2121.98</v>
+        <v>1935.12</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7395</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-30.66</v>
+        <v>-157.15</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7517.11</v>
+        <v>7533.94</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2371.99</v>
+        <v>2388.82</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4570,31 +4570,31 @@
         <v>5328.62</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7255.98</v>
+        <v>7232</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>855.98</v>
+        <v>832</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3617</v>
+        <v>1.3595</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3578</v>
+        <v>1.3566</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0021</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-20.78</v>
+        <v>-15.45</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7223.37</v>
+        <v>7219.35</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>823.37</v>
+        <v>819.35</v>
       </c>
       <c r="G61" s="30" t="n">
         <v>0.5389</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>4.02</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>-4.02</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6757.3</v>
+        <v>6700.52</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-242.7</v>
+        <v>-299.48</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8687</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8686</v>
+        <v>0.8615</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-0.78</v>
+        <v>-53.67</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6068</v>
+        <v>6002.04</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-332</v>
+        <v>-397.96</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-6.28</v>
+        <v>-60.47</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3373.62</v>
+        <v>3327.79</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-126.38</v>
+        <v>-172.21</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9423</v>
+        <v>0.9407</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9408</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0125</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-5.37</v>
+        <v>-42.25</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4900,6 +4900,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体收益估算.xlsx
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6535</v>
+        <v>1.6525</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2211.21</v>
+        <v>2280.92</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3546.78</v>
+        <v>3660.88</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-109.41</v>
+        <v>-108.45</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.608</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6043</v>
+        <v>1.6051</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0035</v>
+        <v>-0.0018</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-12.6</v>
+        <v>-6.61</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4258</v>
+        <v>1.4264</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2462.53</v>
+        <v>2540.22</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3499.26</v>
+        <v>3614.73</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-11.88</v>
+        <v>-8.65</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.425</v>
+        <v>1.43</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4212</v>
+        <v>1.4231</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0048</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-9.359999999999999</v>
+        <v>-17.53</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3269.52</v>
+        <v>3235.62</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222.58</v>
+        <v>188.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4466</v>
+        <v>1.4316</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4532</v>
+        <v>1.4043</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>14.92</v>
+        <v>-0.0191</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>-61.7</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -769,37 +769,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9344</v>
+        <v>0.9336</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3272.2</v>
+        <v>3390.61</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2985.56</v>
+        <v>3092.91</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-72</v>
+        <v>-72.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9091</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9124</v>
+        <v>0.9123</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0065</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-19.31</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>10.85</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -838,37 +838,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7941</v>
+        <v>1.7965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1266.95</v>
+        <v>1314.93</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2311.93</v>
+        <v>2411.58</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38.85</v>
+        <v>49.26</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.84</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8247</v>
+        <v>1.8341</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0095</v>
+        <v>-0.0032</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-22.17</v>
+        <v>-7.76</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1197</v>
+        <v>2.1218</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>930.7</v>
+        <v>973.88</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1973.83</v>
+        <v>2075.44</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.07</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1379</v>
+        <v>2.1385</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1202</v>
+        <v>2.1312</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0083</v>
+        <v>-0.0034</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-16.47</v>
+        <v>-7.11</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,37 +976,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>797.84</v>
+        <v>887.74</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>762.58</v>
+        <v>835.9</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.99</v>
+        <v>-16.78</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9556</v>
+        <v>0.9415</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-11.65</v>
+        <v>-4.79</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>512.48</v>
+        <v>512.59</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-28.41</v>
+        <v>-28.3</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9334</v>
+        <v>0.9326</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.9272</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.006</v>
+        <v>-0.0058</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-3.08</v>
+        <v>-2.97</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>415.39</v>
+        <v>405.18</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58.61</v>
+        <v>48.4</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8068</v>
+        <v>0.7718</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7615</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0317</v>
+        <v>-0.0134</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-13.62</v>
+        <v>-5.48</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>325.75</v>
+        <v>320.3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.49</v>
+        <v>7.04</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.311</v>
+        <v>1.2917</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0192</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.23</v>
+        <v>-6.27</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86.81</v>
+        <v>86.86</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.9</v>
+        <v>-5.85</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4361</v>
+        <v>1.44</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.433</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0048</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.23</v>
+        <v>-0.42</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9011.790000000001</v>
+        <v>9097.120000000001</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2988.21</v>
+        <v>-2902.88</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5389</v>
+        <v>0.5426</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5386</v>
+        <v>0.5437</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-5.02</v>
+        <v>0.002</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>18.41</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8010.9</v>
+        <v>7932.6</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1701</v>
+        <v>1622.7</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>2.995</v>
+        <v>2.978</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.967</v>
+        <v>2.938</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0134</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-75.59999999999999</v>
+        <v>-108</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>35562.8</v>
+        <v>35371.7</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4195.1</v>
+        <v>4004</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.908</v>
+        <v>3.887</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0106</v>
+        <v>-0.0109</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-382.2</v>
+        <v>-391.3</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1540,25 +1540,25 @@
         <v>-12066.8</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.345</v>
+        <v>5.29</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
         <v>5.29</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0103</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-2134</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24167</v>
+        <v>24505</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5475.6</v>
+        <v>-5137.6</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.716</v>
+        <v>0.722</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.715</v>
+        <v>0.725</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0014</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-33.8</v>
+        <v>0.0042</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>101.4</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29397.3</v>
+        <v>29364.6</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>3793.2</v>
+        <v>3760.5</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.899</v>
+        <v>0.898</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-32.7</v>
+        <v>0.0034</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>98.09999999999999</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26052.4</v>
+        <v>25472.7</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3580.5</v>
+        <v>-4160.2</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.768</v>
+        <v>0.745</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.764</v>
+        <v>0.747</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-136.4</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>68.2</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14791.5</v>
+        <v>14692.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1939.5</v>
+        <v>1840.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.294</v>
+        <v>3.261</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.287</v>
+        <v>3.265</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0021</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-31.5</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>18</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>14848.8</v>
+        <v>14720</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>1978</v>
+        <v>1849.2</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.65</v>
+        <v>1.611</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.614</v>
+        <v>1.6</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0218</v>
+        <v>-0.0068</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-331.2</v>
+        <v>-101.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:04</t>
+          <t>2019-11-29 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>19713.6</v>
+        <v>19209.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>1411.2</v>
+        <v>907.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.414</v>
+        <v>1.359</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.369</v>
+        <v>1.334</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0318</v>
+        <v>-0.0184</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-648</v>
+        <v>-360</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:04</t>
+          <t>2019-11-29 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7382.44</v>
+        <v>7369.86</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>45.44</v>
+        <v>32.86</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9519</v>
+        <v>1.9321</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9363</v>
+        <v>1.9343</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-59.49</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.390000000000001</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5236.27</v>
+        <v>5285.85</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-99.73</v>
+        <v>-50.15</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5389</v>
+        <v>0.5426</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5386</v>
+        <v>0.5437</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-2.92</v>
+        <v>0.002</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>10.69</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4725.44</v>
+        <v>4655.23</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>56.44</v>
+        <v>-13.77</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9556</v>
+        <v>0.9415</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-72.18000000000001</v>
+        <v>-26.7</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4021.85</v>
+        <v>4014.47</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>19.85</v>
+        <v>12.47</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5456</v>
+        <v>0.5446</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-32.47</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>4.43</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2299,25 +2299,25 @@
         <v>-10.8</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0912</v>
+        <v>1.09</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0018</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-13.93</v>
+        <v>-7.33</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3477.99</v>
+        <v>3420.19</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>142.99</v>
+        <v>85.19</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7643</v>
+        <v>0.7518</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-35.04</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>15.93</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>696.98</v>
+        <v>691.17</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>29.98</v>
+        <v>24.17</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7723</v>
+        <v>1.7339</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7395</v>
+        <v>1.7252</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0185</v>
+        <v>-0.005</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-13.14</v>
+        <v>-3.49</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>696.25</v>
+        <v>690.0599999999999</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>29.25</v>
+        <v>23.06</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9631</v>
+        <v>0.9417</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9453</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0185</v>
+        <v>-0.005</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-13.11</v>
+        <v>-3.46</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>456.79</v>
+        <v>457.17</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-10.11</v>
+        <v>-9.73</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9611</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9643</v>
+        <v>0.965</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-1.37</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>1.85</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1982.18</v>
+        <v>1976.89</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-18.81</v>
+        <v>-24.11</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3753</v>
+        <v>0.3716</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>6.89</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-7.42</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>718.12</v>
+        <v>760.22</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>51.12</v>
+        <v>93.22</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.245</v>
+        <v>1.318</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2482</v>
+        <v>1.3143</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>1.85</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-2.13</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>685.46</v>
+        <v>678.79</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>18.46</v>
+        <v>11.79</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4912</v>
+        <v>1.4767</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4981</v>
+        <v>1.4482</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>3.17</v>
+        <v>-0.0193</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-13.1</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>734.71</v>
+        <v>735.9400000000001</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>67.70999999999999</v>
+        <v>68.94</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2026.26</v>
+        <v>2022.81</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>26.26</v>
+        <v>22.81</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9519</v>
+        <v>1.9321</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9363</v>
+        <v>1.9343</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-16.33</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>2.3</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2989,25 +2989,25 @@
         <v>-11.59</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0912</v>
+        <v>1.09</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0018</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-6.94</v>
+        <v>-3.65</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1060.23</v>
+        <v>1050.7</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>60.23</v>
+        <v>50.7</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.01</v>
+        <v>1.004</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0012</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.008699999999999999</v>
+        <v>-0.0116</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-9.32</v>
+        <v>-12.29</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>987.92</v>
+        <v>986.11</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-12.08</v>
+        <v>-13.89</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5456</v>
+        <v>0.5446</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-7.98</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>1.09</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>937.8200000000001</v>
+        <v>922.24</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-62.18</v>
+        <v>-77.76000000000001</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7643</v>
+        <v>0.7518</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-9.449999999999999</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>4.29</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2240.44</v>
+        <v>2225.4</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>240.44</v>
+        <v>225.4</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2202</v>
+        <v>1.2093</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2219</v>
+        <v>1.2133</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0014</v>
+        <v>0.0033</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:30</t>
+          <t>2019-11-29 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1120.28</v>
+        <v>1185.96</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>120.28</v>
+        <v>185.96</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.245</v>
+        <v>1.318</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2482</v>
+        <v>1.3143</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>2.88</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-3.33</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1027.47</v>
+        <v>1017.48</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>27.47</v>
+        <v>17.48</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4912</v>
+        <v>1.4767</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4981</v>
+        <v>1.4482</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>4.75</v>
+        <v>-0.0193</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>-19.64</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1779.45</v>
+        <v>1774.7</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-220.55</v>
+        <v>-225.3</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3753</v>
+        <v>0.3716</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>6.19</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-6.66</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1145.71</v>
+        <v>1147.61</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>145.71</v>
+        <v>147.61</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3610,25 +3610,25 @@
         <v>4535.05</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0912</v>
+        <v>1.09</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.0018</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-247.24</v>
+        <v>-130.13</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>60683.74</v>
+        <v>59782.18</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>2483.74</v>
+        <v>1582.18</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9556</v>
+        <v>0.9415</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-926.95</v>
+        <v>-342.85</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37054.27</v>
+        <v>37018.66</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5054.27</v>
+        <v>5018.66</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1484</v>
+        <v>1.1455</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1459</v>
+        <v>1.1446</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0008</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-80.93000000000001</v>
+        <v>-29.13</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>35051.31</v>
+        <v>34148.98</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>4491.31</v>
+        <v>3588.98</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8803</v>
+        <v>0.8475</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8542999999999999</v>
+        <v>0.8324</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0295</v>
+        <v>-0.0178</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-1066.39</v>
+        <v>-619.3200000000001</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33765.62</v>
+        <v>33685.27</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1765.62</v>
+        <v>1685.27</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.688</v>
+        <v>1.681</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6841</v>
+        <v>1.6791</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0011</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-78.34</v>
+        <v>-38.16</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24880.67</v>
+        <v>25046.4</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2280.67</v>
+        <v>2446.4</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>23501.74</v>
+        <v>23340.87</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4301.74</v>
+        <v>4140.87</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.626</v>
+        <v>1.609</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6102</v>
+        <v>1.5957</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0097</v>
+        <v>-0.0083</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-231.07</v>
+        <v>-194.51</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>22810.48</v>
+        <v>22763.92</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3610.48</v>
+        <v>3563.92</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.0826</v>
+        <v>1.0792</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0777</v>
+        <v>1.0755</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0046</v>
+        <v>-0.0034</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-103.7</v>
+        <v>-78.31</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>20889.19</v>
+        <v>22114.02</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>1689.19</v>
+        <v>2914.02</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.245</v>
+        <v>1.318</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2482</v>
+        <v>1.3143</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>53.69</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-62.08</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15133.33</v>
+        <v>15152.39</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2333.33</v>
+        <v>2352.39</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.605</v>
+        <v>1.586</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.5922</v>
+        <v>1.5878</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>-121.98</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>17.15</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>13938.02</v>
+        <v>13900.75</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5261.98</v>
+        <v>-5299.25</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3753</v>
+        <v>0.3716</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>48.45</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-52.17</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10137.95</v>
+        <v>10039.37</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>237.95</v>
+        <v>139.37</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.4912</v>
+        <v>1.4767</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.4981</v>
+        <v>1.4482</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>46.91</v>
+        <v>-0.0193</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-193.76</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8335.120000000001</v>
+        <v>8265.65</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>1935.12</v>
+        <v>1865.65</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7339</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7395</v>
+        <v>1.7252</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0185</v>
+        <v>-0.005</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-157.15</v>
+        <v>-41.68</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7533.94</v>
+        <v>7567.6</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2388.82</v>
+        <v>2422.48</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7232</v>
+        <v>7287.71</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>832</v>
+        <v>887.71</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3595</v>
+        <v>0.5426</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3566</v>
+        <v>0.5437</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0021</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>-15.45</v>
+        <v>0.002</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>14.74</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,64 +4626,64 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7219.35</v>
+        <v>7225.07</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>819.35</v>
+        <v>825.0700000000001</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5389</v>
+        <v>1.3568</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5386</v>
+        <v>1.3554</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.001</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-4.02</v>
+        <v>-7.46</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6700.52</v>
+        <v>6686.51</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-299.48</v>
+        <v>-313.49</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8587</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8615</v>
+        <v>0.8597</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>-53.67</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>7.78</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6002.04</v>
+        <v>5902.3</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-397.96</v>
+        <v>-497.7</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7643</v>
+        <v>0.7518</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>-60.47</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>27.49</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3327.79</v>
+        <v>3310.25</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-172.21</v>
+        <v>-189.75</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9407</v>
+        <v>0.9246</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9288999999999999</v>
+        <v>0.9238</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0125</v>
+        <v>-0.0009</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-42.25</v>
+        <v>-2.86</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
